--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JL102"/>
+  <dimension ref="A1:JM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1269,8 +1269,11 @@
       <c r="JK1" s="2" t="n">
         <v>10724</v>
       </c>
-      <c r="JL1" t="n">
+      <c r="JL1" s="2" t="n">
         <v>10741</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>10754</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2089,8 +2092,11 @@
       <c r="JK2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JL2" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="1">
@@ -2909,8 +2915,11 @@
       <c r="JK3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JL3" t="n">
+      <c r="JL3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3729,7 +3738,10 @@
       <c r="JK4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JL4" t="n">
+      <c r="JL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4549,7 +4561,10 @@
       <c r="JK5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JL5" t="n">
+      <c r="JL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5369,8 +5384,11 @@
       <c r="JK6" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="JL6" t="n">
+      <c r="JL6" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6189,8 +6207,11 @@
       <c r="JK7" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JL7" t="n">
+      <c r="JL7" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7009,8 +7030,11 @@
       <c r="JK8" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JL8" t="n">
+      <c r="JL8" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7829,7 +7853,10 @@
       <c r="JK9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JL9" t="n">
+      <c r="JL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8649,8 +8676,11 @@
       <c r="JK10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JL10" t="n">
+      <c r="JL10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9469,8 +9499,11 @@
       <c r="JK11" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JL11" t="n">
+      <c r="JL11" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10289,8 +10322,11 @@
       <c r="JK12" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="JL12" t="n">
+      <c r="JL12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11109,8 +11145,11 @@
       <c r="JK13" s="2" t="n">
         <v>425</v>
       </c>
-      <c r="JL13" t="n">
+      <c r="JL13" s="2" t="n">
         <v>401</v>
+      </c>
+      <c r="JM13" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11929,8 +11968,11 @@
       <c r="JK14" s="2" t="n">
         <v>1.28</v>
       </c>
-      <c r="JL14" t="n">
+      <c r="JL14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="JM14" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12749,8 +12791,11 @@
       <c r="JK15" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JL15" t="n">
+      <c r="JL15" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="JM15" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13569,8 +13614,11 @@
       <c r="JK16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JL16" t="n">
+      <c r="JL16" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14389,8 +14437,11 @@
       <c r="JK17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL17" t="n">
+      <c r="JL17" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15209,8 +15260,11 @@
       <c r="JK18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JL18" t="n">
+      <c r="JL18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JM18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16029,8 +16083,11 @@
       <c r="JK19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JL19" t="n">
+      <c r="JL19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JM19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16849,8 +16906,11 @@
       <c r="JK20" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JL20" t="n">
+      <c r="JL20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JM20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17669,8 +17729,11 @@
       <c r="JK21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JL21" t="n">
+      <c r="JL21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JM21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18489,8 +18552,11 @@
       <c r="JK22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL22" t="n">
+      <c r="JL22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JM22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19309,8 +19375,11 @@
       <c r="JK23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JL23" t="n">
+      <c r="JL23" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -20129,8 +20198,11 @@
       <c r="JK24" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JL24" t="n">
+      <c r="JL24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20949,8 +21021,11 @@
       <c r="JK25" s="2" t="n">
         <v>74.2</v>
       </c>
-      <c r="JL25" t="n">
+      <c r="JL25" s="2" t="n">
         <v>51.6</v>
+      </c>
+      <c r="JM25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21769,8 +21844,11 @@
       <c r="JK26" s="2" t="n">
         <v>18.48</v>
       </c>
-      <c r="JL26" t="n">
+      <c r="JL26" s="2" t="n">
         <v>25.06</v>
+      </c>
+      <c r="JM26" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22589,8 +22667,11 @@
       <c r="JK27" s="2" t="n">
         <v>13.71</v>
       </c>
-      <c r="JL27" t="n">
+      <c r="JL27" s="2" t="n">
         <v>12.94</v>
+      </c>
+      <c r="JM27" t="n">
+        <v>11.25</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23409,8 +23490,11 @@
       <c r="JK28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JL28" t="n">
+      <c r="JL28" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JM28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24229,8 +24313,11 @@
       <c r="JK29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JL29" t="n">
+      <c r="JL29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JM29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -25049,8 +25136,11 @@
       <c r="JK30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JL30" t="n">
+      <c r="JL30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JM30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25869,8 +25959,11 @@
       <c r="JK31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JL31" t="n">
+      <c r="JL31" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JM31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26689,8 +26782,11 @@
       <c r="JK32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="JL32" t="n">
+      <c r="JL32" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="JM32" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27509,8 +27605,11 @@
       <c r="JK33" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="JL33" t="n">
+      <c r="JL33" s="2" t="n">
         <v>3.81</v>
+      </c>
+      <c r="JM33" t="n">
+        <v>3.61</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28329,8 +28428,11 @@
       <c r="JK34" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="JL34" t="n">
+      <c r="JL34" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="JM34" t="n">
+        <v>52.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -29149,8 +29251,11 @@
       <c r="JK35" s="2" t="n">
         <v>37.7</v>
       </c>
-      <c r="JL35" t="n">
+      <c r="JL35" s="2" t="n">
         <v>26.2</v>
+      </c>
+      <c r="JM35" t="n">
+        <v>27.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29969,8 +30074,11 @@
       <c r="JK36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JL36" t="n">
+      <c r="JL36" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="JM36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -30789,8 +30897,11 @@
       <c r="JK37" s="2" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="JL37" t="n">
+      <c r="JL37" s="2" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="JM37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -31609,8 +31720,11 @@
       <c r="JK38" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JL38" t="n">
+      <c r="JL38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="JM38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32429,8 +32543,11 @@
       <c r="JK39" s="2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="JL39" t="n">
+      <c r="JL39" s="2" t="n">
         <v>112.1</v>
+      </c>
+      <c r="JM39" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33249,7 +33366,10 @@
       <c r="JK40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL40" t="n">
+      <c r="JL40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34069,8 +34189,11 @@
       <c r="JK41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JL41" t="n">
+      <c r="JL41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JM41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -34889,8 +35012,11 @@
       <c r="JK42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL42" t="n">
+      <c r="JL42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JM42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -35709,8 +35835,11 @@
       <c r="JK43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JL43" t="n">
+      <c r="JL43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JM43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -36529,8 +36658,11 @@
       <c r="JK44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="JL44" t="n">
+      <c r="JL44" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="JM44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -37349,8 +37481,11 @@
       <c r="JK45" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="JL45" t="n">
+      <c r="JL45" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="JM45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -38169,8 +38304,11 @@
       <c r="JK46" s="2" t="n">
         <v>337</v>
       </c>
-      <c r="JL46" t="n">
+      <c r="JL46" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="JM46" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38989,8 +39127,11 @@
       <c r="JK47" s="2" t="n">
         <v>79.3</v>
       </c>
-      <c r="JL47" t="n">
+      <c r="JL47" s="2" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="JM47" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -39809,8 +39950,11 @@
       <c r="JK48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JL48" t="n">
+      <c r="JL48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JM48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -40629,8 +40773,11 @@
       <c r="JK49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JL49" t="n">
+      <c r="JL49" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JM49" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -41449,8 +41596,11 @@
       <c r="JK50" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JL50" t="n">
+      <c r="JL50" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JM50" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -42269,8 +42419,11 @@
       <c r="JK51" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JL51" t="n">
+      <c r="JL51" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JM51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -43089,8 +43242,11 @@
       <c r="JK52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JL52" t="n">
+      <c r="JL52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JM52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -43909,8 +44065,11 @@
       <c r="JK53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JL53" t="n">
+      <c r="JL53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JM53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -44729,8 +44888,11 @@
       <c r="JK54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL54" t="n">
+      <c r="JL54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JM54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -45549,8 +45711,11 @@
       <c r="JK55" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JL55" t="n">
+      <c r="JL55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JM55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -46369,8 +46534,11 @@
       <c r="JK56" s="2" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="JL56" t="n">
+      <c r="JL56" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="JM56" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -47189,8 +47357,11 @@
       <c r="JK57" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JL57" t="n">
+      <c r="JL57" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="JM57" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -48009,8 +48180,11 @@
       <c r="JK58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="JL58" t="n">
+      <c r="JL58" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="JM58" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -48829,8 +49003,11 @@
       <c r="JK59" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="JL59" t="n">
+      <c r="JL59" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="JM59" t="n">
+        <v>264</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -49649,8 +49826,11 @@
       <c r="JK60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="JL60" t="n">
+      <c r="JL60" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="JM60" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -50469,8 +50649,11 @@
       <c r="JK61" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="JL61" t="n">
+      <c r="JL61" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JM61" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -51289,8 +51472,11 @@
       <c r="JK62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JL62" t="n">
+      <c r="JL62" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JM62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -52109,8 +52295,11 @@
       <c r="JK63" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JL63" t="n">
+      <c r="JL63" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JM63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -52929,8 +53118,11 @@
       <c r="JK64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JL64" t="n">
+      <c r="JL64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JM64" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -53749,8 +53941,11 @@
       <c r="JK65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JL65" t="n">
+      <c r="JL65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JM65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -54569,8 +54764,11 @@
       <c r="JK66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL66" t="n">
+      <c r="JL66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JM66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -55389,8 +55587,11 @@
       <c r="JK67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JL67" t="n">
+      <c r="JL67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JM67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -56209,8 +56410,11 @@
       <c r="JK68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL68" t="n">
+      <c r="JL68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JM68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -57029,8 +57233,11 @@
       <c r="JK69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JL69" t="n">
+      <c r="JL69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JM69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -57849,8 +58056,11 @@
       <c r="JK70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JL70" t="n">
+      <c r="JL70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JM70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -58669,8 +58879,11 @@
       <c r="JK71" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="JL71" t="n">
+      <c r="JL71" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JM71" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -59489,8 +59702,11 @@
       <c r="JK72" s="2" t="n">
         <v>40.78</v>
       </c>
-      <c r="JL72" t="n">
+      <c r="JL72" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JM72" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -60309,8 +60525,11 @@
       <c r="JK73" s="2" t="n">
         <v>21.59</v>
       </c>
-      <c r="JL73" t="n">
+      <c r="JL73" s="2" t="n">
         <v>14.35</v>
+      </c>
+      <c r="JM73" t="n">
+        <v>15.53</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -61129,8 +61348,11 @@
       <c r="JK74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JL74" t="n">
+      <c r="JL74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JM74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -61949,8 +62171,11 @@
       <c r="JK75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JL75" t="n">
+      <c r="JL75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JM75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -62769,8 +62994,11 @@
       <c r="JK76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JL76" t="n">
+      <c r="JL76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JM76" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -63589,8 +63817,11 @@
       <c r="JK77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JL77" t="n">
+      <c r="JL77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JM77" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -64409,8 +64640,11 @@
       <c r="JK78" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="JL78" t="n">
+      <c r="JL78" s="2" t="n">
         <v>2.4</v>
+      </c>
+      <c r="JM78" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -65229,8 +65463,11 @@
       <c r="JK79" s="2" t="n">
         <v>5.22</v>
       </c>
-      <c r="JL79" t="n">
+      <c r="JL79" s="2" t="n">
         <v>6.86</v>
+      </c>
+      <c r="JM79" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -66049,8 +66286,11 @@
       <c r="JK80" s="2" t="n">
         <v>31.9</v>
       </c>
-      <c r="JL80" t="n">
+      <c r="JL80" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="JM80" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -66869,8 +67109,11 @@
       <c r="JK81" s="2" t="n">
         <v>19.1</v>
       </c>
-      <c r="JL81" t="n">
+      <c r="JL81" s="2" t="n">
         <v>14.6</v>
+      </c>
+      <c r="JM81" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -67689,8 +67932,11 @@
       <c r="JK82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JL82" t="n">
+      <c r="JL82" s="2" t="n">
         <v>186.9</v>
+      </c>
+      <c r="JM82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -68509,8 +68755,11 @@
       <c r="JK83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JL83" t="n">
+      <c r="JL83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="JM83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -69329,8 +69578,11 @@
       <c r="JK84" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="JL84" t="n">
+      <c r="JL84" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JM84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -70149,8 +70401,11 @@
       <c r="JK85" s="2" t="n">
         <v>84.7</v>
       </c>
-      <c r="JL85" t="n">
+      <c r="JL85" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="JM85" t="n">
+        <v>103.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -70969,8 +71224,11 @@
       <c r="JK86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL86" t="n">
+      <c r="JL86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JM86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -71789,8 +72047,11 @@
       <c r="JK87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JL87" t="n">
+      <c r="JL87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JM87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -72609,8 +72870,11 @@
       <c r="JK88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JL88" t="n">
+      <c r="JL88" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JM88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -73429,8 +73693,11 @@
       <c r="JK89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JL89" t="n">
+      <c r="JL89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JM89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -74249,8 +74516,11 @@
       <c r="JK90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JL90" t="n">
+      <c r="JL90" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="JM90" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -75069,8 +75339,11 @@
       <c r="JK91" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="JL91" t="n">
+      <c r="JL91" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="JM91" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -75889,7 +76162,10 @@
       <c r="JK92" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="JL92" t="n">
+      <c r="JL92" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="JM92" t="n">
         <v>181</v>
       </c>
     </row>
@@ -76709,8 +76985,11 @@
       <c r="JK93" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="JL93" t="n">
+      <c r="JL93" s="2" t="n">
         <v>63.1</v>
+      </c>
+      <c r="JM93" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -77529,8 +77808,11 @@
       <c r="JK94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JL94" t="n">
+      <c r="JL94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JM94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -78349,8 +78631,11 @@
       <c r="JK95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL95" t="n">
+      <c r="JL95" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JM95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -79169,8 +79454,11 @@
       <c r="JK96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JL96" t="n">
+      <c r="JL96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JM96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -79989,8 +80277,11 @@
       <c r="JK97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JL97" t="n">
+      <c r="JL97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JM97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -80809,8 +81100,11 @@
       <c r="JK98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JL98" t="n">
+      <c r="JL98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JM98" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -81629,8 +81923,11 @@
       <c r="JK99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JL99" t="n">
+      <c r="JL99" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JM99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -82449,8 +82746,11 @@
       <c r="JK100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JL100" t="n">
+      <c r="JL100" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JM100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -83269,8 +83569,11 @@
       <c r="JK101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JL101" t="n">
+      <c r="JL101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JM101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -84089,8 +84392,11 @@
       <c r="JK102" s="2" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="JL102" t="n">
+      <c r="JL102" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JM102" t="n">
+        <v>36.4</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JM102"/>
+  <dimension ref="A1:JN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1272,8 +1272,11 @@
       <c r="JL1" s="2" t="n">
         <v>10741</v>
       </c>
-      <c r="JM1" t="n">
+      <c r="JM1" s="2" t="n">
         <v>10754</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>10762</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2095,7 +2098,10 @@
       <c r="JL2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JM2" t="n">
+      <c r="JM2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JN2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2918,8 +2924,11 @@
       <c r="JL3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JM3" t="n">
+      <c r="JM3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3741,8 +3750,11 @@
       <c r="JL4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JM4" t="n">
+      <c r="JM4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4564,7 +4576,10 @@
       <c r="JL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JM5" t="n">
+      <c r="JM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5387,8 +5402,11 @@
       <c r="JL6" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JM6" t="n">
+      <c r="JM6" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6210,8 +6228,11 @@
       <c r="JL7" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JM7" t="n">
+      <c r="JM7" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7033,8 +7054,11 @@
       <c r="JL8" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JM8" t="n">
+      <c r="JM8" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>-71</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7856,8 +7880,11 @@
       <c r="JL9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JM9" t="n">
+      <c r="JM9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8679,8 +8706,11 @@
       <c r="JL10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JM10" t="n">
+      <c r="JM10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9502,8 +9532,11 @@
       <c r="JL11" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="JM11" t="n">
+      <c r="JM11" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10325,8 +10358,11 @@
       <c r="JL12" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="JM12" t="n">
+      <c r="JM12" s="2" t="n">
         <v>175</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11148,8 +11184,11 @@
       <c r="JL13" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="JM13" t="n">
+      <c r="JM13" s="2" t="n">
         <v>405</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11971,8 +12010,11 @@
       <c r="JL14" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="JM14" t="n">
+      <c r="JM14" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12794,8 +12836,11 @@
       <c r="JL15" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="JM15" t="n">
+      <c r="JM15" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13617,8 +13662,11 @@
       <c r="JL16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JM16" t="n">
+      <c r="JM16" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14440,8 +14488,11 @@
       <c r="JL17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JM17" t="n">
+      <c r="JM17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15263,8 +15314,11 @@
       <c r="JL18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JM18" t="n">
+      <c r="JM18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16086,8 +16140,11 @@
       <c r="JL19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JM19" t="n">
+      <c r="JM19" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16909,8 +16966,11 @@
       <c r="JL20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JM20" t="n">
+      <c r="JM20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17732,8 +17792,11 @@
       <c r="JL21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JM21" t="n">
+      <c r="JM21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18555,8 +18618,11 @@
       <c r="JL22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JM22" t="n">
+      <c r="JM22" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JN22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19378,7 +19444,10 @@
       <c r="JL23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM23" t="n">
+      <c r="JM23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20201,8 +20270,11 @@
       <c r="JL24" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JM24" t="n">
+      <c r="JM24" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -21024,8 +21096,11 @@
       <c r="JL25" s="2" t="n">
         <v>51.6</v>
       </c>
-      <c r="JM25" t="n">
+      <c r="JM25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21847,8 +21922,11 @@
       <c r="JL26" s="2" t="n">
         <v>25.06</v>
       </c>
-      <c r="JM26" t="n">
+      <c r="JM26" s="2" t="n">
         <v>22.5</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>33.56</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22670,8 +22748,11 @@
       <c r="JL27" s="2" t="n">
         <v>12.94</v>
       </c>
-      <c r="JM27" t="n">
+      <c r="JM27" s="2" t="n">
         <v>11.25</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>15.89</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23493,8 +23574,11 @@
       <c r="JL28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JM28" t="n">
+      <c r="JM28" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JN28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24316,8 +24400,11 @@
       <c r="JL29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JM29" t="n">
+      <c r="JM29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -25139,8 +25226,11 @@
       <c r="JL30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JM30" t="n">
+      <c r="JM30" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25962,8 +26052,11 @@
       <c r="JL31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JM31" t="n">
+      <c r="JM31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JN31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26785,8 +26878,11 @@
       <c r="JL32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="JM32" t="n">
+      <c r="JM32" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="JN32" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27608,8 +27704,11 @@
       <c r="JL33" s="2" t="n">
         <v>3.81</v>
       </c>
-      <c r="JM33" t="n">
+      <c r="JM33" s="2" t="n">
         <v>3.61</v>
+      </c>
+      <c r="JN33" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28431,8 +28530,11 @@
       <c r="JL34" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="JM34" t="n">
+      <c r="JM34" s="2" t="n">
         <v>52.3</v>
+      </c>
+      <c r="JN34" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -29254,8 +29356,11 @@
       <c r="JL35" s="2" t="n">
         <v>26.2</v>
       </c>
-      <c r="JM35" t="n">
+      <c r="JM35" s="2" t="n">
         <v>27.7</v>
+      </c>
+      <c r="JN35" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -30077,8 +30182,11 @@
       <c r="JL36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="JM36" t="n">
+      <c r="JM36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JN36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -30900,8 +31008,11 @@
       <c r="JL37" s="2" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="JM37" t="n">
+      <c r="JM37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="JN37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -31723,8 +31834,11 @@
       <c r="JL38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="JM38" t="n">
+      <c r="JM38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JN38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32546,8 +32660,11 @@
       <c r="JL39" s="2" t="n">
         <v>112.1</v>
       </c>
-      <c r="JM39" t="n">
+      <c r="JM39" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JN39" t="n">
+        <v>102.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33369,7 +33486,10 @@
       <c r="JL40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM40" t="n">
+      <c r="JM40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34192,7 +34312,10 @@
       <c r="JL41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM41" t="n">
+      <c r="JM41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -35015,8 +35138,11 @@
       <c r="JL42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM42" t="n">
+      <c r="JM42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JN42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -35838,8 +35964,11 @@
       <c r="JL43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JM43" t="n">
+      <c r="JM43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -36661,8 +36790,11 @@
       <c r="JL44" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="JM44" t="n">
+      <c r="JM44" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -37484,8 +37616,11 @@
       <c r="JL45" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="JM45" t="n">
+      <c r="JM45" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -38307,8 +38442,11 @@
       <c r="JL46" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="JM46" t="n">
+      <c r="JM46" s="2" t="n">
         <v>300</v>
+      </c>
+      <c r="JN46" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -39130,8 +39268,11 @@
       <c r="JL47" s="2" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="JM47" t="n">
+      <c r="JM47" s="2" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="JN47" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -39953,8 +40094,11 @@
       <c r="JL48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JM48" t="n">
+      <c r="JM48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JN48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -40776,8 +40920,11 @@
       <c r="JL49" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JM49" t="n">
+      <c r="JM49" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JN49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -41599,8 +41746,11 @@
       <c r="JL50" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JM50" t="n">
+      <c r="JM50" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JN50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -42422,8 +42572,11 @@
       <c r="JL51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JM51" t="n">
+      <c r="JM51" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JN51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -43245,8 +43398,11 @@
       <c r="JL52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JM52" t="n">
+      <c r="JM52" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -44068,8 +44224,11 @@
       <c r="JL53" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JM53" t="n">
+      <c r="JM53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -44891,8 +45050,11 @@
       <c r="JL54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JM54" t="n">
+      <c r="JM54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JN54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -45714,8 +45876,11 @@
       <c r="JL55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JM55" t="n">
+      <c r="JM55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -46537,8 +46702,11 @@
       <c r="JL56" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="JM56" t="n">
+      <c r="JM56" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="JN56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -47360,8 +47528,11 @@
       <c r="JL57" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="JM57" t="n">
+      <c r="JM57" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="JN57" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -48183,8 +48354,11 @@
       <c r="JL58" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="JM58" t="n">
+      <c r="JM58" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="JN58" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -49006,8 +49180,11 @@
       <c r="JL59" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="JM59" t="n">
+      <c r="JM59" s="2" t="n">
         <v>264</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -49829,8 +50006,11 @@
       <c r="JL60" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="JM60" t="n">
+      <c r="JM60" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="JN60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -50652,8 +50832,11 @@
       <c r="JL61" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JM61" t="n">
+      <c r="JM61" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JN61" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -51475,8 +51658,11 @@
       <c r="JL62" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JM62" t="n">
+      <c r="JM62" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JN62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -52298,8 +52484,11 @@
       <c r="JL63" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JM63" t="n">
+      <c r="JM63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JN63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -53121,8 +53310,11 @@
       <c r="JL64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JM64" t="n">
+      <c r="JM64" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JN64" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -53944,8 +54136,11 @@
       <c r="JL65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JM65" t="n">
+      <c r="JM65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JN65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -54767,8 +54962,11 @@
       <c r="JL66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JM66" t="n">
+      <c r="JM66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JN66" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -55590,8 +55788,11 @@
       <c r="JL67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM67" t="n">
+      <c r="JM67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -56413,8 +56614,11 @@
       <c r="JL68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM68" t="n">
+      <c r="JM68" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JN68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -57236,8 +57440,11 @@
       <c r="JL69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM69" t="n">
+      <c r="JM69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JN69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -58059,8 +58266,11 @@
       <c r="JL70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JM70" t="n">
+      <c r="JM70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JN70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -58882,8 +59092,11 @@
       <c r="JL71" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JM71" t="n">
+      <c r="JM71" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="JN71" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -59705,8 +59918,11 @@
       <c r="JL72" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JM72" t="n">
+      <c r="JM72" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JN72" t="n">
+        <v>16.76</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -60528,8 +60744,11 @@
       <c r="JL73" s="2" t="n">
         <v>14.35</v>
       </c>
-      <c r="JM73" t="n">
+      <c r="JM73" s="2" t="n">
         <v>15.53</v>
+      </c>
+      <c r="JN73" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -61351,8 +61570,11 @@
       <c r="JL74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JM74" t="n">
+      <c r="JM74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JN74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -62174,8 +62396,11 @@
       <c r="JL75" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JM75" t="n">
+      <c r="JM75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JN75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -62997,8 +63222,11 @@
       <c r="JL76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JM76" t="n">
+      <c r="JM76" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JN76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -63820,8 +64048,11 @@
       <c r="JL77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JM77" t="n">
+      <c r="JM77" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JN77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -64643,8 +64874,11 @@
       <c r="JL78" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="JM78" t="n">
+      <c r="JM78" s="2" t="n">
         <v>2.35</v>
+      </c>
+      <c r="JN78" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -65466,8 +65700,11 @@
       <c r="JL79" s="2" t="n">
         <v>6.86</v>
       </c>
-      <c r="JM79" t="n">
+      <c r="JM79" s="2" t="n">
         <v>3.64</v>
+      </c>
+      <c r="JN79" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -66289,8 +66526,11 @@
       <c r="JL80" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="JM80" t="n">
+      <c r="JM80" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JN80" t="n">
+        <v>49.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -67112,8 +67352,11 @@
       <c r="JL81" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="JM81" t="n">
+      <c r="JM81" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="JN81" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -67935,8 +68178,11 @@
       <c r="JL82" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="JM82" t="n">
+      <c r="JM82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JN82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -68758,8 +69004,11 @@
       <c r="JL83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="JM83" t="n">
+      <c r="JM83" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="JN83" t="n">
+        <v>88.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -69581,8 +69830,11 @@
       <c r="JL84" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JM84" t="n">
+      <c r="JM84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JN84" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -70404,8 +70656,11 @@
       <c r="JL85" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="JM85" t="n">
+      <c r="JM85" s="2" t="n">
         <v>103.7</v>
+      </c>
+      <c r="JN85" t="n">
+        <v>121.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -71227,8 +71482,11 @@
       <c r="JL86" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JM86" t="n">
+      <c r="JM86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JN86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -72050,8 +72308,11 @@
       <c r="JL87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM87" t="n">
+      <c r="JM87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -72873,8 +73134,11 @@
       <c r="JL88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JM88" t="n">
+      <c r="JM88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JN88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -73696,8 +73960,11 @@
       <c r="JL89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JM89" t="n">
+      <c r="JM89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JN89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -74519,8 +74786,11 @@
       <c r="JL90" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="JM90" t="n">
+      <c r="JM90" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="JN90" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -75342,8 +75612,11 @@
       <c r="JL91" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="JM91" t="n">
+      <c r="JM91" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="JN91" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -76165,8 +76438,11 @@
       <c r="JL92" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="JM92" t="n">
+      <c r="JM92" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="JN92" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -76988,8 +77264,11 @@
       <c r="JL93" s="2" t="n">
         <v>63.1</v>
       </c>
-      <c r="JM93" t="n">
+      <c r="JM93" s="2" t="n">
         <v>68.59999999999999</v>
+      </c>
+      <c r="JN93" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -77811,8 +78090,11 @@
       <c r="JL94" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JM94" t="n">
+      <c r="JM94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JN94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -78634,8 +78916,11 @@
       <c r="JL95" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JM95" t="n">
+      <c r="JM95" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -79457,8 +79742,11 @@
       <c r="JL96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JM96" t="n">
+      <c r="JM96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JN96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -80280,8 +80568,11 @@
       <c r="JL97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JM97" t="n">
+      <c r="JM97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JN97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -81103,8 +81394,11 @@
       <c r="JL98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JM98" t="n">
+      <c r="JM98" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JN98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -81926,8 +82220,11 @@
       <c r="JL99" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JM99" t="n">
+      <c r="JM99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JN99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -82749,8 +83046,11 @@
       <c r="JL100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JM100" t="n">
+      <c r="JM100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -83572,8 +83872,11 @@
       <c r="JL101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JM101" t="n">
+      <c r="JM101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JN101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -84395,8 +84698,11 @@
       <c r="JL102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JM102" t="n">
+      <c r="JM102" s="2" t="n">
         <v>36.4</v>
+      </c>
+      <c r="JN102" t="n">
+        <v>76.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JN102"/>
+  <dimension ref="A1:JO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1275,8 +1275,11 @@
       <c r="JM1" s="2" t="n">
         <v>10754</v>
       </c>
-      <c r="JN1" t="n">
+      <c r="JN1" s="2" t="n">
         <v>10762</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>10774</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2101,7 +2104,10 @@
       <c r="JM2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2927,8 +2933,11 @@
       <c r="JM3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JN3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3753,8 +3762,11 @@
       <c r="JM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JN4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4579,8 +4591,11 @@
       <c r="JM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JN5" t="n">
+      <c r="JN5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5405,8 +5420,11 @@
       <c r="JM6" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="JN6" t="n">
+      <c r="JN6" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6231,8 +6249,11 @@
       <c r="JM7" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JN7" t="n">
+      <c r="JN7" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7057,8 +7078,11 @@
       <c r="JM8" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JN8" t="n">
+      <c r="JN8" s="2" t="n">
         <v>-71</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>-31</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7883,7 +7907,10 @@
       <c r="JM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN9" t="n">
+      <c r="JN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8709,8 +8736,11 @@
       <c r="JM10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JN10" t="n">
+      <c r="JN10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9535,8 +9565,11 @@
       <c r="JM11" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="JN11" t="n">
+      <c r="JN11" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10361,8 +10394,11 @@
       <c r="JM12" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="JN12" t="n">
+      <c r="JN12" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11187,8 +11223,11 @@
       <c r="JM13" s="2" t="n">
         <v>405</v>
       </c>
-      <c r="JN13" t="n">
+      <c r="JN13" s="2" t="n">
         <v>302</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -12013,8 +12052,11 @@
       <c r="JM14" s="2" t="n">
         <v>1.31</v>
       </c>
-      <c r="JN14" t="n">
+      <c r="JN14" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12839,8 +12881,11 @@
       <c r="JM15" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JN15" t="n">
+      <c r="JN15" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13665,8 +13710,11 @@
       <c r="JM16" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JN16" t="n">
+      <c r="JN16" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14491,8 +14539,11 @@
       <c r="JM17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JN17" t="n">
+      <c r="JN17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15317,8 +15368,11 @@
       <c r="JM18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JN18" t="n">
+      <c r="JN18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JO18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16143,8 +16197,11 @@
       <c r="JM19" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JN19" t="n">
+      <c r="JN19" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16969,8 +17026,11 @@
       <c r="JM20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JN20" t="n">
+      <c r="JN20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17795,8 +17855,11 @@
       <c r="JM21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JN21" t="n">
+      <c r="JN21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18621,8 +18684,11 @@
       <c r="JM22" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JN22" t="n">
+      <c r="JN22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JO22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19447,7 +19513,10 @@
       <c r="JM23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JN23" t="n">
+      <c r="JN23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20273,8 +20342,11 @@
       <c r="JM24" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JN24" t="n">
+      <c r="JN24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -21099,8 +21171,11 @@
       <c r="JM25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JN25" t="n">
+      <c r="JN25" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21925,8 +22000,11 @@
       <c r="JM26" s="2" t="n">
         <v>22.5</v>
       </c>
-      <c r="JN26" t="n">
+      <c r="JN26" s="2" t="n">
         <v>33.56</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>22.85</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22751,8 +22829,11 @@
       <c r="JM27" s="2" t="n">
         <v>11.25</v>
       </c>
-      <c r="JN27" t="n">
+      <c r="JN27" s="2" t="n">
         <v>15.89</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>14.14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23577,8 +23658,11 @@
       <c r="JM28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JN28" t="n">
+      <c r="JN28" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JO28" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24403,8 +24487,11 @@
       <c r="JM29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JN29" t="n">
+      <c r="JN29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -25229,8 +25316,11 @@
       <c r="JM30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JN30" t="n">
+      <c r="JN30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -26055,8 +26145,11 @@
       <c r="JM31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JN31" t="n">
+      <c r="JN31" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JO31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26881,8 +26974,11 @@
       <c r="JM32" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="JN32" t="n">
+      <c r="JN32" s="2" t="n">
         <v>2.47</v>
+      </c>
+      <c r="JO32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27707,8 +27803,11 @@
       <c r="JM33" s="2" t="n">
         <v>3.61</v>
       </c>
-      <c r="JN33" t="n">
+      <c r="JN33" s="2" t="n">
         <v>5.22</v>
+      </c>
+      <c r="JO33" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28533,8 +28632,11 @@
       <c r="JM34" s="2" t="n">
         <v>52.3</v>
       </c>
-      <c r="JN34" t="n">
+      <c r="JN34" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="JO34" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -29359,8 +29461,11 @@
       <c r="JM35" s="2" t="n">
         <v>27.7</v>
       </c>
-      <c r="JN35" t="n">
+      <c r="JN35" s="2" t="n">
         <v>19.1</v>
+      </c>
+      <c r="JO35" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -30185,8 +30290,11 @@
       <c r="JM36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JN36" t="n">
+      <c r="JN36" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="JO36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -31011,8 +31119,11 @@
       <c r="JM37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="JN37" t="n">
+      <c r="JN37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="JO37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -31837,8 +31948,11 @@
       <c r="JM38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="JN38" t="n">
+      <c r="JN38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="JO38" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32663,8 +32777,11 @@
       <c r="JM39" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JN39" t="n">
+      <c r="JN39" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="JO39" t="n">
+        <v>108.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33489,8 +33606,11 @@
       <c r="JM40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN40" t="n">
+      <c r="JN40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -34315,8 +34435,11 @@
       <c r="JM41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JN41" t="n">
+      <c r="JN41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JO41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -35141,7 +35264,10 @@
       <c r="JM42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN42" t="n">
+      <c r="JN42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35967,7 +36093,10 @@
       <c r="JM43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN43" t="n">
+      <c r="JN43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36793,8 +36922,11 @@
       <c r="JM44" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="JN44" t="n">
+      <c r="JN44" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -37619,8 +37751,11 @@
       <c r="JM45" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="JN45" t="n">
+      <c r="JN45" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -38445,8 +38580,11 @@
       <c r="JM46" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="JN46" t="n">
+      <c r="JN46" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="JO46" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -39271,8 +39409,11 @@
       <c r="JM47" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="JN47" t="n">
+      <c r="JN47" s="2" t="n">
         <v>74.8</v>
+      </c>
+      <c r="JO47" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -40097,8 +40238,11 @@
       <c r="JM48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JN48" t="n">
+      <c r="JN48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JO48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -40923,8 +41067,11 @@
       <c r="JM49" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JN49" t="n">
+      <c r="JN49" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JO49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -41749,8 +41896,11 @@
       <c r="JM50" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JN50" t="n">
+      <c r="JN50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JO50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -42575,8 +42725,11 @@
       <c r="JM51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JN51" t="n">
+      <c r="JN51" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JO51" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -43401,8 +43554,11 @@
       <c r="JM52" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JN52" t="n">
+      <c r="JN52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -44227,8 +44383,11 @@
       <c r="JM53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JN53" t="n">
+      <c r="JN53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -45053,8 +45212,11 @@
       <c r="JM54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN54" t="n">
+      <c r="JN54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -45879,8 +46041,11 @@
       <c r="JM55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JN55" t="n">
+      <c r="JN55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -46705,8 +46870,11 @@
       <c r="JM56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JN56" t="n">
+      <c r="JN56" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="JO56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -47531,8 +47699,11 @@
       <c r="JM57" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="JN57" t="n">
+      <c r="JN57" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="JO57" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -48357,8 +48528,11 @@
       <c r="JM58" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="JN58" t="n">
+      <c r="JN58" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="JO58" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -49183,8 +49357,11 @@
       <c r="JM59" s="2" t="n">
         <v>264</v>
       </c>
-      <c r="JN59" t="n">
+      <c r="JN59" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -50009,8 +50186,11 @@
       <c r="JM60" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="JN60" t="n">
+      <c r="JN60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JO60" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -50835,8 +51015,11 @@
       <c r="JM61" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JN61" t="n">
+      <c r="JN61" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="JO61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -51661,8 +51844,11 @@
       <c r="JM62" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JN62" t="n">
+      <c r="JN62" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JO62" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -52487,8 +52673,11 @@
       <c r="JM63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JN63" t="n">
+      <c r="JN63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JO63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -53313,8 +53502,11 @@
       <c r="JM64" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JN64" t="n">
+      <c r="JN64" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JO64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -54139,8 +54331,11 @@
       <c r="JM65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JN65" t="n">
+      <c r="JN65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JO65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -54965,8 +55160,11 @@
       <c r="JM66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JN66" t="n">
+      <c r="JN66" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JO66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -55791,8 +55989,11 @@
       <c r="JM67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN67" t="n">
+      <c r="JN67" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JO67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -56617,8 +56818,11 @@
       <c r="JM68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN68" t="n">
+      <c r="JN68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -57443,8 +57647,11 @@
       <c r="JM69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN69" t="n">
+      <c r="JN69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JO69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -58269,8 +58476,11 @@
       <c r="JM70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JN70" t="n">
+      <c r="JN70" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JO70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -59095,8 +59305,11 @@
       <c r="JM71" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="JN71" t="n">
+      <c r="JN71" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JO71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -59921,8 +60134,11 @@
       <c r="JM72" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JN72" t="n">
+      <c r="JN72" s="2" t="n">
         <v>16.76</v>
+      </c>
+      <c r="JO72" t="n">
+        <v>18.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -60747,8 +60963,11 @@
       <c r="JM73" s="2" t="n">
         <v>15.53</v>
       </c>
-      <c r="JN73" t="n">
+      <c r="JN73" s="2" t="n">
         <v>11.73</v>
+      </c>
+      <c r="JO73" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -61573,7 +61792,10 @@
       <c r="JM74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JN74" t="n">
+      <c r="JN74" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO74" t="n">
         <v>39</v>
       </c>
     </row>
@@ -62399,8 +62621,11 @@
       <c r="JM75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JN75" t="n">
+      <c r="JN75" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JO75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -63225,8 +63450,11 @@
       <c r="JM76" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JN76" t="n">
+      <c r="JN76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -64051,8 +64279,11 @@
       <c r="JM77" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JN77" t="n">
+      <c r="JN77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JO77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -64877,8 +65108,11 @@
       <c r="JM78" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="JN78" t="n">
+      <c r="JN78" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="JO78" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -65703,8 +65937,11 @@
       <c r="JM79" s="2" t="n">
         <v>3.64</v>
       </c>
-      <c r="JN79" t="n">
+      <c r="JN79" s="2" t="n">
         <v>2.71</v>
+      </c>
+      <c r="JO79" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -66529,8 +66766,11 @@
       <c r="JM80" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JN80" t="n">
+      <c r="JN80" s="2" t="n">
         <v>49.1</v>
+      </c>
+      <c r="JO80" t="n">
+        <v>44.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -67355,8 +67595,11 @@
       <c r="JM81" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="JN81" t="n">
+      <c r="JN81" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="JO81" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -68181,8 +68424,11 @@
       <c r="JM82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="JN82" t="n">
+      <c r="JN82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JO82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -69007,8 +69253,11 @@
       <c r="JM83" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="JN83" t="n">
+      <c r="JN83" s="2" t="n">
         <v>88.5</v>
+      </c>
+      <c r="JO83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -69833,8 +70082,11 @@
       <c r="JM84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JN84" t="n">
+      <c r="JN84" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="JO84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -70659,8 +70911,11 @@
       <c r="JM85" s="2" t="n">
         <v>103.7</v>
       </c>
-      <c r="JN85" t="n">
+      <c r="JN85" s="2" t="n">
         <v>121.1</v>
+      </c>
+      <c r="JO85" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -71485,8 +71740,11 @@
       <c r="JM86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN86" t="n">
+      <c r="JN86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JO86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -72311,8 +72569,11 @@
       <c r="JM87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN87" t="n">
+      <c r="JN87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JO87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -73137,8 +73398,11 @@
       <c r="JM88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN88" t="n">
+      <c r="JN88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JO88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -73963,8 +74227,11 @@
       <c r="JM89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN89" t="n">
+      <c r="JN89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JO89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -74789,8 +75056,11 @@
       <c r="JM90" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="JN90" t="n">
+      <c r="JN90" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="JO90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -75615,8 +75885,11 @@
       <c r="JM91" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="JN91" t="n">
+      <c r="JN91" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="JO91" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -76441,8 +76714,11 @@
       <c r="JM92" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="JN92" t="n">
+      <c r="JN92" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="JO92" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -77267,8 +77543,11 @@
       <c r="JM93" s="2" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="JN93" t="n">
+      <c r="JN93" s="2" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="JO93" t="n">
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -78093,8 +78372,11 @@
       <c r="JM94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JN94" t="n">
+      <c r="JN94" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JO94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -78919,8 +79201,11 @@
       <c r="JM95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN95" t="n">
+      <c r="JN95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JO95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -79745,8 +80030,11 @@
       <c r="JM96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN96" t="n">
+      <c r="JN96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JO96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -80571,7 +80859,10 @@
       <c r="JM97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JN97" t="n">
+      <c r="JN97" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO97" t="n">
         <v>39</v>
       </c>
     </row>
@@ -81397,8 +81688,11 @@
       <c r="JM98" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JN98" t="n">
+      <c r="JN98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JO98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -82223,8 +82517,11 @@
       <c r="JM99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JN99" t="n">
+      <c r="JN99" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JO99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -83049,8 +83346,11 @@
       <c r="JM100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN100" t="n">
+      <c r="JN100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -83875,8 +84175,11 @@
       <c r="JM101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN101" t="n">
+      <c r="JN101" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JO101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -84701,8 +85004,11 @@
       <c r="JM102" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="JN102" t="n">
+      <c r="JN102" s="2" t="n">
         <v>76.2</v>
+      </c>
+      <c r="JO102" t="n">
+        <v>72.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JO102"/>
+  <dimension ref="A1:JP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1278,8 +1278,11 @@
       <c r="JN1" s="2" t="n">
         <v>10762</v>
       </c>
-      <c r="JO1" t="n">
+      <c r="JO1" s="2" t="n">
         <v>10774</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>10783</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2107,7 +2110,10 @@
       <c r="JN2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2936,8 +2942,11 @@
       <c r="JN3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO3" t="n">
+      <c r="JO3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3765,8 +3774,11 @@
       <c r="JN4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JO4" t="n">
+      <c r="JO4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4594,7 +4606,10 @@
       <c r="JN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO5" t="n">
+      <c r="JO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,8 +5438,11 @@
       <c r="JN6" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JO6" t="n">
+      <c r="JO6" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6252,8 +6270,11 @@
       <c r="JN7" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JO7" t="n">
+      <c r="JO7" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7081,8 +7102,11 @@
       <c r="JN8" s="2" t="n">
         <v>-71</v>
       </c>
-      <c r="JO8" t="n">
+      <c r="JO8" s="2" t="n">
         <v>-31</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7910,8 +7934,11 @@
       <c r="JN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO9" t="n">
+      <c r="JO9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8739,8 +8766,11 @@
       <c r="JN10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JO10" t="n">
+      <c r="JO10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9568,8 +9598,11 @@
       <c r="JN11" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="JO11" t="n">
+      <c r="JO11" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10397,8 +10430,11 @@
       <c r="JN12" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="JO12" t="n">
+      <c r="JO12" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11226,8 +11262,11 @@
       <c r="JN13" s="2" t="n">
         <v>302</v>
       </c>
-      <c r="JO13" t="n">
+      <c r="JO13" s="2" t="n">
         <v>297</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -12055,8 +12094,11 @@
       <c r="JN14" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="JO14" t="n">
+      <c r="JO14" s="2" t="n">
         <v>1.72</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12884,8 +12926,11 @@
       <c r="JN15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JO15" t="n">
+      <c r="JO15" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13713,8 +13758,11 @@
       <c r="JN16" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JO16" t="n">
+      <c r="JO16" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14542,8 +14590,11 @@
       <c r="JN17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JO17" t="n">
+      <c r="JO17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15371,8 +15422,11 @@
       <c r="JN18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JO18" t="n">
+      <c r="JO18" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16200,8 +16254,11 @@
       <c r="JN19" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JO19" t="n">
+      <c r="JO19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -17029,8 +17086,11 @@
       <c r="JN20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO20" t="n">
+      <c r="JO20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17858,8 +17918,11 @@
       <c r="JN21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO21" t="n">
+      <c r="JO21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18687,8 +18750,11 @@
       <c r="JN22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JO22" t="n">
+      <c r="JO22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19516,7 +19582,10 @@
       <c r="JN23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO23" t="n">
+      <c r="JO23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20345,7 +20414,10 @@
       <c r="JN24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JO24" t="n">
+      <c r="JO24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JP24" t="n">
         <v>21</v>
       </c>
     </row>
@@ -21174,8 +21246,11 @@
       <c r="JN25" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="JO25" t="n">
+      <c r="JO25" s="2" t="n">
         <v>61.9</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -22003,8 +22078,11 @@
       <c r="JN26" s="2" t="n">
         <v>33.56</v>
       </c>
-      <c r="JO26" t="n">
+      <c r="JO26" s="2" t="n">
         <v>22.85</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>37.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22832,8 +22910,11 @@
       <c r="JN27" s="2" t="n">
         <v>15.89</v>
       </c>
-      <c r="JO27" t="n">
+      <c r="JO27" s="2" t="n">
         <v>14.14</v>
+      </c>
+      <c r="JP27" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23661,8 +23742,11 @@
       <c r="JN28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JO28" t="n">
+      <c r="JO28" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JP28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24490,8 +24574,11 @@
       <c r="JN29" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JO29" t="n">
+      <c r="JO29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JP29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -25319,8 +25406,11 @@
       <c r="JN30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JO30" t="n">
+      <c r="JO30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JP30" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -26148,8 +26238,11 @@
       <c r="JN31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JO31" t="n">
+      <c r="JO31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JP31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26977,8 +27070,11 @@
       <c r="JN32" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="JO32" t="n">
+      <c r="JO32" s="2" t="n">
         <v>2.33</v>
+      </c>
+      <c r="JP32" t="n">
+        <v>2.14</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27806,8 +27902,11 @@
       <c r="JN33" s="2" t="n">
         <v>5.22</v>
       </c>
-      <c r="JO33" t="n">
+      <c r="JO33" s="2" t="n">
         <v>3.77</v>
+      </c>
+      <c r="JP33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28635,8 +28734,11 @@
       <c r="JN34" s="2" t="n">
         <v>36.2</v>
       </c>
-      <c r="JO34" t="n">
+      <c r="JO34" s="2" t="n">
         <v>38.8</v>
+      </c>
+      <c r="JP34" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -29464,8 +29566,11 @@
       <c r="JN35" s="2" t="n">
         <v>19.1</v>
       </c>
-      <c r="JO35" t="n">
+      <c r="JO35" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="JP35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -30293,8 +30398,11 @@
       <c r="JN36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JO36" t="n">
+      <c r="JO36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="JP36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -31122,8 +31230,11 @@
       <c r="JN37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="JO37" t="n">
+      <c r="JO37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JP37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -31951,8 +32062,11 @@
       <c r="JN38" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="JO38" t="n">
+      <c r="JO38" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="JP38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32780,8 +32894,11 @@
       <c r="JN39" s="2" t="n">
         <v>102.9</v>
       </c>
-      <c r="JO39" t="n">
+      <c r="JO39" s="2" t="n">
         <v>108.8</v>
+      </c>
+      <c r="JP39" t="n">
+        <v>102.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33609,8 +33726,11 @@
       <c r="JN40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO40" t="n">
+      <c r="JO40" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JP40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -34438,8 +34558,11 @@
       <c r="JN41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JO41" t="n">
+      <c r="JO41" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JP41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -35267,7 +35390,10 @@
       <c r="JN42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO42" t="n">
+      <c r="JO42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36096,7 +36222,10 @@
       <c r="JN43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO43" t="n">
+      <c r="JO43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36925,8 +37054,11 @@
       <c r="JN44" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="JO44" t="n">
+      <c r="JO44" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -37754,8 +37886,11 @@
       <c r="JN45" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="JO45" t="n">
+      <c r="JO45" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="JP45" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -38583,8 +38718,11 @@
       <c r="JN46" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="JO46" t="n">
+      <c r="JO46" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="JP46" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -39412,8 +39550,11 @@
       <c r="JN47" s="2" t="n">
         <v>74.8</v>
       </c>
-      <c r="JO47" t="n">
+      <c r="JO47" s="2" t="n">
         <v>72.40000000000001</v>
+      </c>
+      <c r="JP47" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -40241,8 +40382,11 @@
       <c r="JN48" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JO48" t="n">
+      <c r="JO48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JP48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -41070,8 +41214,11 @@
       <c r="JN49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JO49" t="n">
+      <c r="JO49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -41899,7 +42046,10 @@
       <c r="JN50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JO50" t="n">
+      <c r="JO50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP50" t="n">
         <v>9</v>
       </c>
     </row>
@@ -42728,8 +42878,11 @@
       <c r="JN51" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JO51" t="n">
+      <c r="JO51" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JP51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -43557,8 +43710,11 @@
       <c r="JN52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JO52" t="n">
+      <c r="JO52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JP52" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -44386,8 +44542,11 @@
       <c r="JN53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JO53" t="n">
+      <c r="JO53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JP53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -45215,8 +45374,11 @@
       <c r="JN54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JO54" t="n">
+      <c r="JO54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JP54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -46044,8 +46206,11 @@
       <c r="JN55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO55" t="n">
+      <c r="JO55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JP55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -46873,8 +47038,11 @@
       <c r="JN56" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="JO56" t="n">
+      <c r="JO56" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="JP56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -47702,8 +47870,11 @@
       <c r="JN57" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="JO57" t="n">
+      <c r="JO57" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="JP57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -48531,8 +48702,11 @@
       <c r="JN58" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="JO58" t="n">
+      <c r="JO58" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JP58" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -49360,8 +49534,11 @@
       <c r="JN59" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="JO59" t="n">
+      <c r="JO59" s="2" t="n">
         <v>332</v>
+      </c>
+      <c r="JP59" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -50189,8 +50366,11 @@
       <c r="JN60" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="JO60" t="n">
+      <c r="JO60" s="2" t="n">
         <v>1.77</v>
+      </c>
+      <c r="JP60" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -51018,8 +51198,11 @@
       <c r="JN61" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JO61" t="n">
+      <c r="JO61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JP61" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -51847,8 +52030,11 @@
       <c r="JN62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JO62" t="n">
+      <c r="JO62" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JP62" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -52676,8 +52862,11 @@
       <c r="JN63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JO63" t="n">
+      <c r="JO63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JP63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -53505,8 +53694,11 @@
       <c r="JN64" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JO64" t="n">
+      <c r="JO64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JP64" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -54334,8 +54526,11 @@
       <c r="JN65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JO65" t="n">
+      <c r="JO65" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JP65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -55163,8 +55358,11 @@
       <c r="JN66" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JO66" t="n">
+      <c r="JO66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JP66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -55992,8 +56190,11 @@
       <c r="JN67" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JO67" t="n">
+      <c r="JO67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -56821,8 +57022,11 @@
       <c r="JN68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO68" t="n">
+      <c r="JO68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -57650,8 +57854,11 @@
       <c r="JN69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO69" t="n">
+      <c r="JO69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -58479,8 +58686,11 @@
       <c r="JN70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JO70" t="n">
+      <c r="JO70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JP70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -59308,8 +59518,11 @@
       <c r="JN71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JO71" t="n">
+      <c r="JO71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JP71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -60137,8 +60350,11 @@
       <c r="JN72" s="2" t="n">
         <v>16.76</v>
       </c>
-      <c r="JO72" t="n">
+      <c r="JO72" s="2" t="n">
         <v>18.44</v>
+      </c>
+      <c r="JP72" t="n">
+        <v>38.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -60966,8 +61182,11 @@
       <c r="JN73" s="2" t="n">
         <v>11.73</v>
       </c>
-      <c r="JO73" t="n">
+      <c r="JO73" s="2" t="n">
         <v>12.3</v>
+      </c>
+      <c r="JP73" t="n">
+        <v>18.21</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -61795,8 +62014,11 @@
       <c r="JN74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JO74" t="n">
+      <c r="JO74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JP74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -62624,8 +62846,11 @@
       <c r="JN75" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JO75" t="n">
+      <c r="JO75" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JP75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -63453,7 +63678,10 @@
       <c r="JN76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JO76" t="n">
+      <c r="JO76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JP76" t="n">
         <v>36</v>
       </c>
     </row>
@@ -64282,8 +64510,11 @@
       <c r="JN77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JO77" t="n">
+      <c r="JO77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JP77" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -65111,8 +65342,11 @@
       <c r="JN78" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="JO78" t="n">
+      <c r="JO78" s="2" t="n">
         <v>2.19</v>
+      </c>
+      <c r="JP78" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -65940,8 +66174,11 @@
       <c r="JN79" s="2" t="n">
         <v>2.71</v>
       </c>
-      <c r="JO79" t="n">
+      <c r="JO79" s="2" t="n">
         <v>3.28</v>
+      </c>
+      <c r="JP79" t="n">
+        <v>7.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -66769,8 +67006,11 @@
       <c r="JN80" s="2" t="n">
         <v>49.1</v>
       </c>
-      <c r="JO80" t="n">
+      <c r="JO80" s="2" t="n">
         <v>44.1</v>
+      </c>
+      <c r="JP80" t="n">
+        <v>28.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -67598,8 +67838,11 @@
       <c r="JN81" s="2" t="n">
         <v>36.8</v>
       </c>
-      <c r="JO81" t="n">
+      <c r="JO81" s="2" t="n">
         <v>30.5</v>
+      </c>
+      <c r="JP81" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -68427,7 +68670,10 @@
       <c r="JN82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="JO82" t="n">
+      <c r="JO82" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JP82" t="n">
         <v>187.3</v>
       </c>
     </row>
@@ -69256,8 +69502,11 @@
       <c r="JN83" s="2" t="n">
         <v>88.5</v>
       </c>
-      <c r="JO83" t="n">
+      <c r="JO83" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JP83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -70085,8 +70334,11 @@
       <c r="JN84" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="JO84" t="n">
+      <c r="JO84" s="2" t="n">
         <v>24.58</v>
+      </c>
+      <c r="JP84" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -70914,8 +71166,11 @@
       <c r="JN85" s="2" t="n">
         <v>121.1</v>
       </c>
-      <c r="JO85" t="n">
+      <c r="JO85" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JP85" t="n">
+        <v>111.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -71743,8 +71998,11 @@
       <c r="JN86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO86" t="n">
+      <c r="JO86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JP86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -72572,8 +72830,11 @@
       <c r="JN87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO87" t="n">
+      <c r="JO87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -73401,8 +73662,11 @@
       <c r="JN88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JO88" t="n">
+      <c r="JO88" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JP88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -74230,8 +74494,11 @@
       <c r="JN89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO89" t="n">
+      <c r="JO89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JP89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -75059,8 +75326,11 @@
       <c r="JN90" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="JO90" t="n">
+      <c r="JO90" s="2" t="n">
         <v>146</v>
+      </c>
+      <c r="JP90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -75888,8 +76158,11 @@
       <c r="JN91" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="JO91" t="n">
+      <c r="JO91" s="2" t="n">
         <v>183</v>
+      </c>
+      <c r="JP91" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -76717,8 +76990,11 @@
       <c r="JN92" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="JO92" t="n">
+      <c r="JO92" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="JP92" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -77546,8 +77822,11 @@
       <c r="JN93" s="2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="JO93" t="n">
+      <c r="JO93" s="2" t="n">
         <v>75.59999999999999</v>
+      </c>
+      <c r="JP93" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -78375,8 +78654,11 @@
       <c r="JN94" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JO94" t="n">
+      <c r="JO94" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JP94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -79204,7 +79486,10 @@
       <c r="JN95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JO95" t="n">
+      <c r="JO95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -80033,8 +80318,11 @@
       <c r="JN96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JO96" t="n">
+      <c r="JO96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -80862,8 +81150,11 @@
       <c r="JN97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JO97" t="n">
+      <c r="JO97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JP97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -81691,7 +81982,10 @@
       <c r="JN98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JO98" t="n">
+      <c r="JO98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JP98" t="n">
         <v>36</v>
       </c>
     </row>
@@ -82520,8 +82814,11 @@
       <c r="JN99" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JO99" t="n">
+      <c r="JO99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JP99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -83349,8 +83646,11 @@
       <c r="JN100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO100" t="n">
+      <c r="JO100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -84178,8 +84478,11 @@
       <c r="JN101" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JO101" t="n">
+      <c r="JO101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -85007,8 +85310,11 @@
       <c r="JN102" s="2" t="n">
         <v>76.2</v>
       </c>
-      <c r="JO102" t="n">
+      <c r="JO102" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="JP102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JP102"/>
+  <dimension ref="A1:JQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1281,8 +1281,11 @@
       <c r="JO1" s="2" t="n">
         <v>10774</v>
       </c>
-      <c r="JP1" t="n">
+      <c r="JP1" s="2" t="n">
         <v>10783</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10792</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2113,7 +2116,10 @@
       <c r="JO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2945,8 +2951,11 @@
       <c r="JO3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JP3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3777,8 +3786,11 @@
       <c r="JO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JP4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4609,8 +4621,11 @@
       <c r="JO5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP5" t="n">
+      <c r="JP5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5441,8 +5456,11 @@
       <c r="JO6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JP6" t="n">
+      <c r="JP6" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6273,8 +6291,11 @@
       <c r="JO7" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JP7" t="n">
+      <c r="JP7" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7105,8 +7126,11 @@
       <c r="JO8" s="2" t="n">
         <v>-31</v>
       </c>
-      <c r="JP8" t="n">
+      <c r="JP8" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7937,7 +7961,10 @@
       <c r="JO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JP9" t="n">
+      <c r="JP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8769,8 +8796,11 @@
       <c r="JO10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP10" t="n">
+      <c r="JP10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9601,8 +9631,11 @@
       <c r="JO11" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JP11" t="n">
+      <c r="JP11" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10433,8 +10466,11 @@
       <c r="JO12" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="JP12" t="n">
+      <c r="JP12" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -11265,8 +11301,11 @@
       <c r="JO13" s="2" t="n">
         <v>297</v>
       </c>
-      <c r="JP13" t="n">
+      <c r="JP13" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -12097,8 +12136,11 @@
       <c r="JO14" s="2" t="n">
         <v>1.72</v>
       </c>
-      <c r="JP14" t="n">
+      <c r="JP14" s="2" t="n">
         <v>1.42</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12929,8 +12971,11 @@
       <c r="JO15" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JP15" t="n">
+      <c r="JP15" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13761,8 +13806,11 @@
       <c r="JO16" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JP16" t="n">
+      <c r="JP16" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14593,8 +14641,11 @@
       <c r="JO17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JP17" t="n">
+      <c r="JP17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -15425,8 +15476,11 @@
       <c r="JO18" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JP18" t="n">
+      <c r="JP18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -16257,8 +16311,11 @@
       <c r="JO19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JP19" t="n">
+      <c r="JP19" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -17089,8 +17146,11 @@
       <c r="JO20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP20" t="n">
+      <c r="JP20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17921,8 +17981,11 @@
       <c r="JO21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JP21" t="n">
+      <c r="JP21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18753,8 +18816,11 @@
       <c r="JO22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP22" t="n">
+      <c r="JP22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19585,7 +19651,10 @@
       <c r="JO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP23" t="n">
+      <c r="JP23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20417,8 +20486,11 @@
       <c r="JO24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JP24" t="n">
+      <c r="JP24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -21249,8 +21321,11 @@
       <c r="JO25" s="2" t="n">
         <v>61.9</v>
       </c>
-      <c r="JP25" t="n">
+      <c r="JP25" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -22081,8 +22156,11 @@
       <c r="JO26" s="2" t="n">
         <v>22.85</v>
       </c>
-      <c r="JP26" t="n">
+      <c r="JP26" s="2" t="n">
         <v>37.33</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22913,8 +22991,11 @@
       <c r="JO27" s="2" t="n">
         <v>14.14</v>
       </c>
-      <c r="JP27" t="n">
+      <c r="JP27" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>16.15</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23745,8 +23826,11 @@
       <c r="JO28" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JP28" t="n">
+      <c r="JP28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -24577,8 +24661,11 @@
       <c r="JO29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JP29" t="n">
+      <c r="JP29" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -25409,8 +25496,11 @@
       <c r="JO30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JP30" t="n">
+      <c r="JP30" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -26241,8 +26331,11 @@
       <c r="JO31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JP31" t="n">
+      <c r="JP31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -27073,8 +27166,11 @@
       <c r="JO32" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="JP32" t="n">
+      <c r="JP32" s="2" t="n">
         <v>2.14</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27905,8 +28001,11 @@
       <c r="JO33" s="2" t="n">
         <v>3.77</v>
       </c>
-      <c r="JP33" t="n">
+      <c r="JP33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -28737,8 +28836,11 @@
       <c r="JO34" s="2" t="n">
         <v>38.8</v>
       </c>
-      <c r="JP34" t="n">
+      <c r="JP34" s="2" t="n">
         <v>42.2</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -29569,8 +29671,11 @@
       <c r="JO35" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="JP35" t="n">
+      <c r="JP35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -30401,8 +30506,11 @@
       <c r="JO36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JP36" t="n">
+      <c r="JP36" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -31233,7 +31341,10 @@
       <c r="JO37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="JP37" t="n">
+      <c r="JP37" s="2" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="JQ37" t="n">
         <v>87.2</v>
       </c>
     </row>
@@ -32065,8 +32176,11 @@
       <c r="JO38" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="JP38" t="n">
+      <c r="JP38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -32897,8 +33011,11 @@
       <c r="JO39" s="2" t="n">
         <v>108.8</v>
       </c>
-      <c r="JP39" t="n">
+      <c r="JP39" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -33729,7 +33846,10 @@
       <c r="JO40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JP40" t="n">
+      <c r="JP40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34561,7 +34681,10 @@
       <c r="JO41" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JP41" t="n">
+      <c r="JP41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -35393,8 +35516,11 @@
       <c r="JO42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP42" t="n">
+      <c r="JP42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -36225,8 +36351,11 @@
       <c r="JO43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP43" t="n">
+      <c r="JP43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -37057,8 +37186,11 @@
       <c r="JO44" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="JP44" t="n">
+      <c r="JP44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -37889,8 +38021,11 @@
       <c r="JO45" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="JP45" t="n">
+      <c r="JP45" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -38721,8 +38856,11 @@
       <c r="JO46" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="JP46" t="n">
+      <c r="JP46" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -39553,8 +39691,11 @@
       <c r="JO47" s="2" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="JP47" t="n">
+      <c r="JP47" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -40385,8 +40526,11 @@
       <c r="JO48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JP48" t="n">
+      <c r="JP48" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -41217,8 +41361,11 @@
       <c r="JO49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP49" t="n">
+      <c r="JP49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -42049,8 +42196,11 @@
       <c r="JO50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP50" t="n">
+      <c r="JP50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -42881,8 +43031,11 @@
       <c r="JO51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JP51" t="n">
+      <c r="JP51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -43713,8 +43866,11 @@
       <c r="JO52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JP52" t="n">
+      <c r="JP52" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -44545,8 +44701,11 @@
       <c r="JO53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JP53" t="n">
+      <c r="JP53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -45377,8 +45536,11 @@
       <c r="JO54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP54" t="n">
+      <c r="JP54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -46209,8 +46371,11 @@
       <c r="JO55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JP55" t="n">
+      <c r="JP55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -47041,8 +47206,11 @@
       <c r="JO56" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JP56" t="n">
+      <c r="JP56" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -47873,8 +48041,11 @@
       <c r="JO57" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="JP57" t="n">
+      <c r="JP57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -48705,8 +48876,11 @@
       <c r="JO58" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="JP58" t="n">
+      <c r="JP58" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -49537,8 +49711,11 @@
       <c r="JO59" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="JP59" t="n">
+      <c r="JP59" s="2" t="n">
         <v>346</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -50369,8 +50546,11 @@
       <c r="JO60" s="2" t="n">
         <v>1.77</v>
       </c>
-      <c r="JP60" t="n">
+      <c r="JP60" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -51201,8 +51381,11 @@
       <c r="JO61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JP61" t="n">
+      <c r="JP61" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -52033,8 +52216,11 @@
       <c r="JO62" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JP62" t="n">
+      <c r="JP62" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -52865,8 +53051,11 @@
       <c r="JO63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JP63" t="n">
+      <c r="JP63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -53697,8 +53886,11 @@
       <c r="JO64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JP64" t="n">
+      <c r="JP64" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -54529,7 +54721,10 @@
       <c r="JO65" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JP65" t="n">
+      <c r="JP65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JQ65" t="n">
         <v>23</v>
       </c>
     </row>
@@ -55361,8 +55556,11 @@
       <c r="JO66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JP66" t="n">
+      <c r="JP66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -56193,7 +56391,10 @@
       <c r="JO67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP67" t="n">
+      <c r="JP67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -57025,8 +57226,11 @@
       <c r="JO68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP68" t="n">
+      <c r="JP68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -57857,8 +58061,11 @@
       <c r="JO69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP69" t="n">
+      <c r="JP69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -58689,8 +58896,11 @@
       <c r="JO70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JP70" t="n">
+      <c r="JP70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -59521,8 +59731,11 @@
       <c r="JO71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JP71" t="n">
+      <c r="JP71" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -60353,8 +60566,11 @@
       <c r="JO72" s="2" t="n">
         <v>18.44</v>
       </c>
-      <c r="JP72" t="n">
+      <c r="JP72" s="2" t="n">
         <v>38.44</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>44.12</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -61185,8 +61401,11 @@
       <c r="JO73" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="JP73" t="n">
+      <c r="JP73" s="2" t="n">
         <v>18.21</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>22.06</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -62017,8 +62236,11 @@
       <c r="JO74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JP74" t="n">
+      <c r="JP74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -62849,8 +63071,11 @@
       <c r="JO75" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JP75" t="n">
+      <c r="JP75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -63681,8 +63906,11 @@
       <c r="JO76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JP76" t="n">
+      <c r="JP76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -64513,8 +64741,11 @@
       <c r="JO77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JP77" t="n">
+      <c r="JP77" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -65345,8 +65576,11 @@
       <c r="JO78" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="JP78" t="n">
+      <c r="JP78" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -66177,8 +66411,11 @@
       <c r="JO79" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="JP79" t="n">
+      <c r="JP79" s="2" t="n">
         <v>7.44</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -67009,8 +67246,11 @@
       <c r="JO80" s="2" t="n">
         <v>44.1</v>
       </c>
-      <c r="JP80" t="n">
+      <c r="JP80" s="2" t="n">
         <v>28.4</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -67841,8 +68081,11 @@
       <c r="JO81" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="JP81" t="n">
+      <c r="JP81" s="2" t="n">
         <v>13.4</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -68673,8 +68916,11 @@
       <c r="JO82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="JP82" t="n">
+      <c r="JP82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -69505,8 +69751,11 @@
       <c r="JO83" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="JP83" t="n">
+      <c r="JP83" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -70337,8 +70586,11 @@
       <c r="JO84" s="2" t="n">
         <v>24.58</v>
       </c>
-      <c r="JP84" t="n">
+      <c r="JP84" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -71169,8 +71421,11 @@
       <c r="JO85" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JP85" t="n">
+      <c r="JP85" s="2" t="n">
         <v>111.5</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>118.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -72001,8 +72256,11 @@
       <c r="JO86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JP86" t="n">
+      <c r="JP86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -72833,8 +73091,11 @@
       <c r="JO87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP87" t="n">
+      <c r="JP87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -73665,8 +73926,11 @@
       <c r="JO88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JP88" t="n">
+      <c r="JP88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -74497,8 +74761,11 @@
       <c r="JO89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP89" t="n">
+      <c r="JP89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -75329,8 +75596,11 @@
       <c r="JO90" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="JP90" t="n">
+      <c r="JP90" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -76161,8 +76431,11 @@
       <c r="JO91" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="JP91" t="n">
+      <c r="JP91" s="2" t="n">
         <v>196</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -76993,8 +77266,11 @@
       <c r="JO92" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="JP92" t="n">
+      <c r="JP92" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -77825,8 +78101,11 @@
       <c r="JO93" s="2" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="JP93" t="n">
+      <c r="JP93" s="2" t="n">
         <v>71.7</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -78657,8 +78936,11 @@
       <c r="JO94" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JP94" t="n">
+      <c r="JP94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -79489,8 +79771,11 @@
       <c r="JO95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP95" t="n">
+      <c r="JP95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -80321,8 +80606,11 @@
       <c r="JO96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP96" t="n">
+      <c r="JP96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -81153,8 +81441,11 @@
       <c r="JO97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JP97" t="n">
+      <c r="JP97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -81985,8 +82276,11 @@
       <c r="JO98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JP98" t="n">
+      <c r="JP98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -82817,8 +83111,11 @@
       <c r="JO99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JP99" t="n">
+      <c r="JP99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -83649,8 +83946,11 @@
       <c r="JO100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP100" t="n">
+      <c r="JP100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -84481,7 +84781,10 @@
       <c r="JO101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP101" t="n">
+      <c r="JP101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -85313,8 +85616,11 @@
       <c r="JO102" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="JP102" t="n">
+      <c r="JP102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KG102"/>
+  <dimension ref="A1:KH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1338,8 +1338,11 @@
       <c r="KF1" s="2" t="n">
         <v>10832</v>
       </c>
-      <c r="KG1" t="n">
+      <c r="KG1" s="2" t="n">
         <v>10847</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>10851</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2221,7 +2224,10 @@
       <c r="KF2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KG2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3104,8 +3110,11 @@
       <c r="KF3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KG3" t="n">
+      <c r="KG3" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3987,8 +3996,11 @@
       <c r="KF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KG4" t="n">
+      <c r="KG4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4870,8 +4882,11 @@
       <c r="KF5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KG5" t="n">
+      <c r="KG5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KH5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5753,8 +5768,11 @@
       <c r="KF6" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KG6" t="n">
+      <c r="KG6" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6636,8 +6654,11 @@
       <c r="KF7" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KG7" t="n">
+      <c r="KG7" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7519,8 +7540,11 @@
       <c r="KF8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG8" t="n">
+      <c r="KG8" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KH8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8402,7 +8426,10 @@
       <c r="KF9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KG9" t="n">
+      <c r="KG9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9285,8 +9312,11 @@
       <c r="KF10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KG10" t="n">
+      <c r="KG10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10168,8 +10198,11 @@
       <c r="KF11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KG11" t="n">
+      <c r="KG11" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11051,8 +11084,11 @@
       <c r="KF12" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KG12" t="n">
+      <c r="KG12" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11934,8 +11970,11 @@
       <c r="KF13" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="KG13" t="n">
+      <c r="KG13" s="2" t="n">
         <v>347</v>
+      </c>
+      <c r="KH13" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12817,8 +12856,11 @@
       <c r="KF14" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="KG14" t="n">
+      <c r="KG14" s="2" t="n">
         <v>1.82</v>
+      </c>
+      <c r="KH14" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13700,8 +13742,11 @@
       <c r="KF15" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KG15" t="n">
+      <c r="KG15" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14583,8 +14628,11 @@
       <c r="KF16" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KG16" t="n">
+      <c r="KG16" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15466,8 +15514,11 @@
       <c r="KF17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KG17" t="n">
+      <c r="KG17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16349,8 +16400,11 @@
       <c r="KF18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KG18" t="n">
+      <c r="KG18" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KH18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17232,8 +17286,11 @@
       <c r="KF19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KG19" t="n">
+      <c r="KG19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KH19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18115,8 +18172,11 @@
       <c r="KF20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KG20" t="n">
+      <c r="KG20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KH20" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18998,8 +19058,11 @@
       <c r="KF21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG21" t="n">
+      <c r="KG21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KH21" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19881,7 +19944,10 @@
       <c r="KF22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KG22" t="n">
+      <c r="KG22" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KH22" t="n">
         <v>12</v>
       </c>
     </row>
@@ -20764,8 +20830,11 @@
       <c r="KF23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KG23" t="n">
+      <c r="KG23" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21647,8 +21716,11 @@
       <c r="KF24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KG24" t="n">
+      <c r="KG24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22530,8 +22602,11 @@
       <c r="KF25" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KG25" t="n">
+      <c r="KG25" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KH25" t="n">
+        <v>63.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23413,8 +23488,11 @@
       <c r="KF26" s="2" t="n">
         <v>32.36</v>
       </c>
-      <c r="KG26" t="n">
+      <c r="KG26" s="2" t="n">
         <v>34.7</v>
+      </c>
+      <c r="KH26" t="n">
+        <v>15.48</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24296,8 +24374,11 @@
       <c r="KF27" s="2" t="n">
         <v>14.24</v>
       </c>
-      <c r="KG27" t="n">
+      <c r="KG27" s="2" t="n">
         <v>12.85</v>
+      </c>
+      <c r="KH27" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25179,8 +25260,11 @@
       <c r="KF28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KG28" t="n">
+      <c r="KG28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KH28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26062,8 +26146,11 @@
       <c r="KF29" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KG29" t="n">
+      <c r="KG29" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KH29" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26945,8 +27032,11 @@
       <c r="KF30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KG30" t="n">
+      <c r="KG30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KH30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27828,8 +27918,11 @@
       <c r="KF31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KG31" t="n">
+      <c r="KG31" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KH31" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28711,8 +28804,11 @@
       <c r="KF32" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="KG32" t="n">
+      <c r="KG32" s="2" t="n">
         <v>2.48</v>
+      </c>
+      <c r="KH32" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29594,8 +29690,11 @@
       <c r="KF33" s="2" t="n">
         <v>5.55</v>
       </c>
-      <c r="KG33" t="n">
+      <c r="KG33" s="2" t="n">
         <v>6.7</v>
+      </c>
+      <c r="KH33" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30477,8 +30576,11 @@
       <c r="KF34" s="2" t="n">
         <v>39.3</v>
       </c>
-      <c r="KG34" t="n">
+      <c r="KG34" s="2" t="n">
         <v>32.8</v>
+      </c>
+      <c r="KH34" t="n">
+        <v>49.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31360,8 +31462,11 @@
       <c r="KF35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KG35" t="n">
+      <c r="KG35" s="2" t="n">
         <v>14.9</v>
+      </c>
+      <c r="KH35" t="n">
+        <v>32.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32243,8 +32348,11 @@
       <c r="KF36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="KG36" t="n">
+      <c r="KG36" s="2" t="n">
         <v>187.1</v>
+      </c>
+      <c r="KH36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33126,8 +33234,11 @@
       <c r="KF37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KG37" t="n">
+      <c r="KG37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KH37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34009,8 +34120,11 @@
       <c r="KF38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KG38" t="n">
+      <c r="KG38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KH38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -34892,8 +35006,11 @@
       <c r="KF39" s="2" t="n">
         <v>100.3</v>
       </c>
-      <c r="KG39" t="n">
+      <c r="KG39" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KH39" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35775,8 +35892,11 @@
       <c r="KF40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG40" t="n">
+      <c r="KG40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KH40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36658,8 +36778,11 @@
       <c r="KF41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KG41" t="n">
+      <c r="KG41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KH41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37541,7 +37664,10 @@
       <c r="KF42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KG42" t="n">
+      <c r="KG42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38424,7 +38550,10 @@
       <c r="KF43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KG43" t="n">
+      <c r="KG43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -39307,8 +39436,11 @@
       <c r="KF44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KG44" t="n">
+      <c r="KG44" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KH44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40190,8 +40322,11 @@
       <c r="KF45" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KG45" t="n">
+      <c r="KG45" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KH45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41073,8 +41208,11 @@
       <c r="KF46" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="KG46" t="n">
+      <c r="KG46" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="KH46" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -41956,8 +42094,11 @@
       <c r="KF47" s="2" t="n">
         <v>64.90000000000001</v>
       </c>
-      <c r="KG47" t="n">
+      <c r="KG47" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KH47" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42839,8 +42980,11 @@
       <c r="KF48" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KG48" t="n">
+      <c r="KG48" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KH48" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43722,8 +43866,11 @@
       <c r="KF49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KG49" t="n">
+      <c r="KG49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KH49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44605,8 +44752,11 @@
       <c r="KF50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KG50" t="n">
+      <c r="KG50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KH50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45488,8 +45638,11 @@
       <c r="KF51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KG51" t="n">
+      <c r="KG51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KH51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46371,8 +46524,11 @@
       <c r="KF52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KG52" t="n">
+      <c r="KG52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KH52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47254,8 +47410,11 @@
       <c r="KF53" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KG53" t="n">
+      <c r="KG53" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KH53" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48137,8 +48296,11 @@
       <c r="KF54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KG54" t="n">
+      <c r="KG54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KH54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49020,8 +49182,11 @@
       <c r="KF55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG55" t="n">
+      <c r="KG55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KH55" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -49903,8 +50068,11 @@
       <c r="KF56" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="KG56" t="n">
+      <c r="KG56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KH56" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50786,7 +50954,10 @@
       <c r="KF57" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="KG57" t="n">
+      <c r="KG57" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="KH57" t="n">
         <v>204</v>
       </c>
     </row>
@@ -51669,8 +51840,11 @@
       <c r="KF58" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="KG58" t="n">
+      <c r="KG58" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KH58" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52552,8 +52726,11 @@
       <c r="KF59" s="2" t="n">
         <v>324</v>
       </c>
-      <c r="KG59" t="n">
+      <c r="KG59" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="KH59" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53435,8 +53612,11 @@
       <c r="KF60" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="KG60" t="n">
+      <c r="KG60" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="KH60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54318,8 +54498,11 @@
       <c r="KF61" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KG61" t="n">
+      <c r="KG61" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KH61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55201,8 +55384,11 @@
       <c r="KF62" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KG62" t="n">
+      <c r="KG62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KH62" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56084,8 +56270,11 @@
       <c r="KF63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KG63" t="n">
+      <c r="KG63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KH63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -56967,8 +57156,11 @@
       <c r="KF64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KG64" t="n">
+      <c r="KG64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KH64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -57850,8 +58042,11 @@
       <c r="KF65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KG65" t="n">
+      <c r="KG65" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KH65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58733,8 +58928,11 @@
       <c r="KF66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KG66" t="n">
+      <c r="KG66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KH66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59616,8 +59814,11 @@
       <c r="KF67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG67" t="n">
+      <c r="KG67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KH67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60499,8 +60700,11 @@
       <c r="KF68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG68" t="n">
+      <c r="KG68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KH68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61382,8 +61586,11 @@
       <c r="KF69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KG69" t="n">
+      <c r="KG69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KH69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62265,8 +62472,11 @@
       <c r="KF70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KG70" t="n">
+      <c r="KG70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KH70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63148,8 +63358,11 @@
       <c r="KF71" s="2" t="n">
         <v>52.4</v>
       </c>
-      <c r="KG71" t="n">
+      <c r="KG71" s="2" t="n">
         <v>40.9</v>
+      </c>
+      <c r="KH71" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64031,8 +64244,11 @@
       <c r="KF72" s="2" t="n">
         <v>29.45</v>
       </c>
-      <c r="KG72" t="n">
+      <c r="KG72" s="2" t="n">
         <v>39.78</v>
+      </c>
+      <c r="KH72" t="n">
+        <v>29.21</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -64914,8 +65130,11 @@
       <c r="KF73" s="2" t="n">
         <v>15.43</v>
       </c>
-      <c r="KG73" t="n">
+      <c r="KG73" s="2" t="n">
         <v>16.27</v>
+      </c>
+      <c r="KH73" t="n">
+        <v>15.73</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -65797,8 +66016,11 @@
       <c r="KF74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KG74" t="n">
+      <c r="KG74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KH74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66680,8 +66902,11 @@
       <c r="KF75" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KG75" t="n">
+      <c r="KG75" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KH75" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67563,8 +67788,11 @@
       <c r="KF76" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KG76" t="n">
+      <c r="KG76" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KH76" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68446,8 +68674,11 @@
       <c r="KF77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KG77" t="n">
+      <c r="KG77" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KH77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69329,8 +69560,11 @@
       <c r="KF78" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="KG78" t="n">
+      <c r="KG78" s="2" t="n">
         <v>2.05</v>
+      </c>
+      <c r="KH78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70212,8 +70446,11 @@
       <c r="KF79" s="2" t="n">
         <v>4.36</v>
       </c>
-      <c r="KG79" t="n">
+      <c r="KG79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KH79" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71095,8 +71332,11 @@
       <c r="KF80" s="2" t="n">
         <v>37.5</v>
       </c>
-      <c r="KG80" t="n">
+      <c r="KG80" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="KH80" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -71978,8 +72218,11 @@
       <c r="KF81" s="2" t="n">
         <v>22.9</v>
       </c>
-      <c r="KG81" t="n">
+      <c r="KG81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KH81" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -72861,8 +73104,11 @@
       <c r="KF82" s="2" t="n">
         <v>186.5</v>
       </c>
-      <c r="KG82" t="n">
+      <c r="KG82" s="2" t="n">
         <v>187.1</v>
+      </c>
+      <c r="KH82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -73744,8 +73990,11 @@
       <c r="KF83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KG83" t="n">
+      <c r="KG83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="KH83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74627,8 +74876,11 @@
       <c r="KF84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KG84" t="n">
+      <c r="KG84" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KH84" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75510,8 +75762,11 @@
       <c r="KF85" s="2" t="n">
         <v>123.7</v>
       </c>
-      <c r="KG85" t="n">
+      <c r="KG85" s="2" t="n">
         <v>119.3</v>
+      </c>
+      <c r="KH85" t="n">
+        <v>65.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76393,8 +76648,11 @@
       <c r="KF86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG86" t="n">
+      <c r="KG86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KH86" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77276,8 +77534,11 @@
       <c r="KF87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KG87" t="n">
+      <c r="KG87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KH87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78159,8 +78420,11 @@
       <c r="KF88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KG88" t="n">
+      <c r="KG88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KH88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79042,8 +79306,11 @@
       <c r="KF89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KG89" t="n">
+      <c r="KG89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KH89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -79925,8 +80192,11 @@
       <c r="KF90" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KG90" t="n">
+      <c r="KG90" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KH90" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -80808,8 +81078,11 @@
       <c r="KF91" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="KG91" t="n">
+      <c r="KG91" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KH91" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81691,8 +81964,11 @@
       <c r="KF92" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="KG92" t="n">
+      <c r="KG92" s="2" t="n">
         <v>262</v>
+      </c>
+      <c r="KH92" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82574,8 +82850,11 @@
       <c r="KF93" s="2" t="n">
         <v>65.7</v>
       </c>
-      <c r="KG93" t="n">
+      <c r="KG93" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="KH93" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -83457,8 +83736,11 @@
       <c r="KF94" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KG94" t="n">
+      <c r="KG94" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KH94" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84340,8 +84622,11 @@
       <c r="KF95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KG95" t="n">
+      <c r="KG95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KH95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -85223,8 +85508,11 @@
       <c r="KF96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KG96" t="n">
+      <c r="KG96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KH96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86106,8 +86394,11 @@
       <c r="KF97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KG97" t="n">
+      <c r="KG97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KH97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -86989,8 +87280,11 @@
       <c r="KF98" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KG98" t="n">
+      <c r="KG98" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KH98" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -87872,8 +88166,11 @@
       <c r="KF99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KG99" t="n">
+      <c r="KG99" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KH99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -88755,8 +89052,11 @@
       <c r="KF100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KG100" t="n">
+      <c r="KG100" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KH100" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89638,8 +89938,11 @@
       <c r="KF101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KG101" t="n">
+      <c r="KG101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KH101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -90521,8 +90824,11 @@
       <c r="KF102" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="KG102" t="n">
+      <c r="KG102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KH102" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KH102"/>
+  <dimension ref="A1:KI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1341,8 +1341,11 @@
       <c r="KG1" s="2" t="n">
         <v>10847</v>
       </c>
-      <c r="KH1" t="n">
+      <c r="KH1" s="2" t="n">
         <v>10851</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>10858</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2227,7 +2230,10 @@
       <c r="KG2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KH2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KI2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3113,8 +3119,11 @@
       <c r="KG3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KH3" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3999,8 +4008,11 @@
       <c r="KG4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KH4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4885,8 +4897,11 @@
       <c r="KG5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH5" t="n">
+      <c r="KH5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KI5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5771,8 +5786,11 @@
       <c r="KG6" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KH6" t="n">
+      <c r="KH6" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6657,8 +6675,11 @@
       <c r="KG7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KH7" t="n">
+      <c r="KH7" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7543,8 +7564,11 @@
       <c r="KG8" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH8" t="n">
+      <c r="KH8" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8429,7 +8453,10 @@
       <c r="KG9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH9" t="n">
+      <c r="KH9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9315,8 +9342,11 @@
       <c r="KG10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KH10" t="n">
+      <c r="KH10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10201,8 +10231,11 @@
       <c r="KG11" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KH11" t="n">
+      <c r="KH11" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11087,8 +11120,11 @@
       <c r="KG12" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="KH12" t="n">
+      <c r="KH12" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11973,8 +12009,11 @@
       <c r="KG13" s="2" t="n">
         <v>347</v>
       </c>
-      <c r="KH13" t="n">
+      <c r="KH13" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12859,8 +12898,11 @@
       <c r="KG14" s="2" t="n">
         <v>1.82</v>
       </c>
-      <c r="KH14" t="n">
+      <c r="KH14" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13745,8 +13787,11 @@
       <c r="KG15" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KH15" t="n">
+      <c r="KH15" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14631,8 +14676,11 @@
       <c r="KG16" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KH16" t="n">
+      <c r="KH16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15517,8 +15565,11 @@
       <c r="KG17" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KH17" t="n">
+      <c r="KH17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16403,8 +16454,11 @@
       <c r="KG18" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KH18" t="n">
+      <c r="KH18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17289,8 +17343,11 @@
       <c r="KG19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KH19" t="n">
+      <c r="KH19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18175,8 +18232,11 @@
       <c r="KG20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH20" t="n">
+      <c r="KH20" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19061,8 +19121,11 @@
       <c r="KG21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH21" t="n">
+      <c r="KH21" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KI21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19947,8 +20010,11 @@
       <c r="KG22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH22" t="n">
+      <c r="KH22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KI22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20833,8 +20899,11 @@
       <c r="KG23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH23" t="n">
+      <c r="KH23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21719,8 +21788,11 @@
       <c r="KG24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KH24" t="n">
+      <c r="KH24" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22605,8 +22677,11 @@
       <c r="KG25" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KH25" t="n">
+      <c r="KH25" s="2" t="n">
         <v>63.9</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>59.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23491,8 +23566,11 @@
       <c r="KG26" s="2" t="n">
         <v>34.7</v>
       </c>
-      <c r="KH26" t="n">
+      <c r="KH26" s="2" t="n">
         <v>15.48</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>19.44</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24377,8 +24455,11 @@
       <c r="KG27" s="2" t="n">
         <v>12.85</v>
       </c>
-      <c r="KH27" t="n">
+      <c r="KH27" s="2" t="n">
         <v>9.890000000000001</v>
+      </c>
+      <c r="KI27" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25263,8 +25344,11 @@
       <c r="KG28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KH28" t="n">
+      <c r="KH28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KI28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26149,8 +26233,11 @@
       <c r="KG29" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KH29" t="n">
+      <c r="KH29" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KI29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27035,8 +27122,11 @@
       <c r="KG30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KH30" t="n">
+      <c r="KH30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27921,8 +28011,11 @@
       <c r="KG31" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KH31" t="n">
+      <c r="KH31" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KI31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28807,8 +28900,11 @@
       <c r="KG32" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="KH32" t="n">
+      <c r="KH32" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="KI32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29693,8 +29789,11 @@
       <c r="KG33" s="2" t="n">
         <v>6.7</v>
       </c>
-      <c r="KH33" t="n">
+      <c r="KH33" s="2" t="n">
         <v>3.09</v>
+      </c>
+      <c r="KI33" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30579,8 +30678,11 @@
       <c r="KG34" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="KH34" t="n">
+      <c r="KH34" s="2" t="n">
         <v>49.3</v>
+      </c>
+      <c r="KI34" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31465,8 +31567,11 @@
       <c r="KG35" s="2" t="n">
         <v>14.9</v>
       </c>
-      <c r="KH35" t="n">
+      <c r="KH35" s="2" t="n">
         <v>32.4</v>
+      </c>
+      <c r="KI35" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32351,8 +32456,11 @@
       <c r="KG36" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KH36" t="n">
+      <c r="KH36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="KI36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33237,8 +33345,11 @@
       <c r="KG37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KH37" t="n">
+      <c r="KH37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KI37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34123,8 +34234,11 @@
       <c r="KG38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="KH38" t="n">
+      <c r="KH38" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KI38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35009,8 +35123,11 @@
       <c r="KG39" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KH39" t="n">
+      <c r="KH39" s="2" t="n">
         <v>84.5</v>
+      </c>
+      <c r="KI39" t="n">
+        <v>102.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35895,8 +36012,11 @@
       <c r="KG40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH40" t="n">
+      <c r="KH40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36781,7 +36901,10 @@
       <c r="KG41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH41" t="n">
+      <c r="KH41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37667,8 +37790,11 @@
       <c r="KG42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH42" t="n">
+      <c r="KH42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38553,8 +38679,11 @@
       <c r="KG43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH43" t="n">
+      <c r="KH43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KI43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39439,8 +39568,11 @@
       <c r="KG44" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KH44" t="n">
+      <c r="KH44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40325,8 +40457,11 @@
       <c r="KG45" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KH45" t="n">
+      <c r="KH45" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KI45" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41211,8 +41346,11 @@
       <c r="KG46" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="KH46" t="n">
+      <c r="KH46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="KI46" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42097,8 +42235,11 @@
       <c r="KG47" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KH47" t="n">
+      <c r="KH47" s="2" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="KI47" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42983,8 +43124,11 @@
       <c r="KG48" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KH48" t="n">
+      <c r="KH48" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KI48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43869,7 +44013,10 @@
       <c r="KG49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH49" t="n">
+      <c r="KH49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KI49" t="n">
         <v>13</v>
       </c>
     </row>
@@ -44755,7 +44902,10 @@
       <c r="KG50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH50" t="n">
+      <c r="KH50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI50" t="n">
         <v>15</v>
       </c>
     </row>
@@ -45641,8 +45791,11 @@
       <c r="KG51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KH51" t="n">
+      <c r="KH51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KI51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46527,8 +46680,11 @@
       <c r="KG52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KH52" t="n">
+      <c r="KH52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47413,8 +47569,11 @@
       <c r="KG53" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KH53" t="n">
+      <c r="KH53" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KI53" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48299,8 +48458,11 @@
       <c r="KG54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH54" t="n">
+      <c r="KH54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49185,8 +49347,11 @@
       <c r="KG55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH55" t="n">
+      <c r="KH55" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KI55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50071,8 +50236,11 @@
       <c r="KG56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KH56" t="n">
+      <c r="KH56" s="2" t="n">
         <v>78.3</v>
+      </c>
+      <c r="KI56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50957,8 +51125,11 @@
       <c r="KG57" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KH57" t="n">
+      <c r="KH57" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KI57" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51843,8 +52014,11 @@
       <c r="KG58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KH58" t="n">
+      <c r="KH58" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KI58" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52729,8 +52903,11 @@
       <c r="KG59" s="2" t="n">
         <v>358</v>
       </c>
-      <c r="KH59" t="n">
+      <c r="KH59" s="2" t="n">
         <v>409</v>
+      </c>
+      <c r="KI59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53615,8 +53792,11 @@
       <c r="KG60" s="2" t="n">
         <v>1.32</v>
       </c>
-      <c r="KH60" t="n">
+      <c r="KH60" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI60" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54501,8 +54681,11 @@
       <c r="KG61" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KH61" t="n">
+      <c r="KH61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KI61" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55387,8 +55570,11 @@
       <c r="KG62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KH62" t="n">
+      <c r="KH62" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KI62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56273,8 +56459,11 @@
       <c r="KG63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KH63" t="n">
+      <c r="KH63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KI63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57159,8 +57348,11 @@
       <c r="KG64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KH64" t="n">
+      <c r="KH64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58045,8 +58237,11 @@
       <c r="KG65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KH65" t="n">
+      <c r="KH65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KI65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58931,8 +59126,11 @@
       <c r="KG66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH66" t="n">
+      <c r="KH66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KI66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59817,7 +60015,10 @@
       <c r="KG67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH67" t="n">
+      <c r="KH67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KI67" t="n">
         <v>11</v>
       </c>
     </row>
@@ -60703,8 +60904,11 @@
       <c r="KG68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH68" t="n">
+      <c r="KH68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61589,8 +61793,11 @@
       <c r="KG69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH69" t="n">
+      <c r="KH69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62475,8 +62682,11 @@
       <c r="KG70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KH70" t="n">
+      <c r="KH70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KI70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63361,8 +63571,11 @@
       <c r="KG71" s="2" t="n">
         <v>40.9</v>
       </c>
-      <c r="KH71" t="n">
+      <c r="KH71" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="KI71" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64247,8 +64460,11 @@
       <c r="KG72" s="2" t="n">
         <v>39.78</v>
       </c>
-      <c r="KH72" t="n">
+      <c r="KH72" s="2" t="n">
         <v>29.21</v>
+      </c>
+      <c r="KI72" t="n">
+        <v>29.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65133,8 +65349,11 @@
       <c r="KG73" s="2" t="n">
         <v>16.27</v>
       </c>
-      <c r="KH73" t="n">
+      <c r="KH73" s="2" t="n">
         <v>15.73</v>
+      </c>
+      <c r="KI73" t="n">
+        <v>19.05</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66019,8 +66238,11 @@
       <c r="KG74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KH74" t="n">
+      <c r="KH74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KI74" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66905,8 +67127,11 @@
       <c r="KG75" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KH75" t="n">
+      <c r="KH75" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KI75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67791,8 +68016,11 @@
       <c r="KG76" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KH76" t="n">
+      <c r="KH76" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KI76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68677,8 +68905,11 @@
       <c r="KG77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KH77" t="n">
+      <c r="KH77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KI77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69563,8 +69794,11 @@
       <c r="KG78" s="2" t="n">
         <v>2.05</v>
       </c>
-      <c r="KH78" t="n">
+      <c r="KH78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70449,8 +70683,11 @@
       <c r="KG79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH79" t="n">
+      <c r="KH79" s="2" t="n">
         <v>3.71</v>
+      </c>
+      <c r="KI79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71335,8 +71572,11 @@
       <c r="KG80" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="KH80" t="n">
+      <c r="KH80" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="KI80" t="n">
+        <v>39.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72221,8 +72461,11 @@
       <c r="KG81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KH81" t="n">
+      <c r="KH81" s="2" t="n">
         <v>26.9</v>
+      </c>
+      <c r="KI81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73107,7 +73350,10 @@
       <c r="KG82" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="KH82" t="n">
+      <c r="KH82" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="KI82" t="n">
         <v>189</v>
       </c>
     </row>
@@ -73993,8 +74239,11 @@
       <c r="KG83" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="KH83" t="n">
+      <c r="KH83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KI83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74879,8 +75128,11 @@
       <c r="KG84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KH84" t="n">
+      <c r="KH84" s="2" t="n">
         <v>23.91</v>
+      </c>
+      <c r="KI84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75765,8 +76017,11 @@
       <c r="KG85" s="2" t="n">
         <v>119.3</v>
       </c>
-      <c r="KH85" t="n">
+      <c r="KH85" s="2" t="n">
         <v>65.5</v>
+      </c>
+      <c r="KI85" t="n">
+        <v>111.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76651,8 +76906,11 @@
       <c r="KG86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH86" t="n">
+      <c r="KH86" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KI86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77537,8 +77795,11 @@
       <c r="KG87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH87" t="n">
+      <c r="KH87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78423,8 +78684,11 @@
       <c r="KG88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH88" t="n">
+      <c r="KH88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79309,8 +79573,11 @@
       <c r="KG89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH89" t="n">
+      <c r="KH89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KI89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80195,8 +80462,11 @@
       <c r="KG90" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="KH90" t="n">
+      <c r="KH90" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KI90" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81081,8 +81351,11 @@
       <c r="KG91" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KH91" t="n">
+      <c r="KH91" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KI91" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81967,8 +82240,11 @@
       <c r="KG92" s="2" t="n">
         <v>262</v>
       </c>
-      <c r="KH92" t="n">
+      <c r="KH92" s="2" t="n">
         <v>312</v>
+      </c>
+      <c r="KI92" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82853,8 +83129,11 @@
       <c r="KG93" s="2" t="n">
         <v>73.2</v>
       </c>
-      <c r="KH93" t="n">
+      <c r="KH93" s="2" t="n">
         <v>76.3</v>
+      </c>
+      <c r="KI93" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -83739,8 +84018,11 @@
       <c r="KG94" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KH94" t="n">
+      <c r="KH94" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KI94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84625,8 +84907,11 @@
       <c r="KG95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH95" t="n">
+      <c r="KH95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KI95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -85511,8 +85796,11 @@
       <c r="KG96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KH96" t="n">
+      <c r="KH96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86397,8 +86685,11 @@
       <c r="KG97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KH97" t="n">
+      <c r="KH97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KI97" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87283,8 +87574,11 @@
       <c r="KG98" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KH98" t="n">
+      <c r="KH98" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KI98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88169,8 +88463,11 @@
       <c r="KG99" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KH99" t="n">
+      <c r="KH99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KI99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89055,8 +89352,11 @@
       <c r="KG100" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH100" t="n">
+      <c r="KH100" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KI100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89941,7 +90241,10 @@
       <c r="KG101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH101" t="n">
+      <c r="KH101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KI101" t="n">
         <v>11</v>
       </c>
     </row>
@@ -90827,8 +91130,11 @@
       <c r="KG102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KH102" t="n">
+      <c r="KH102" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="KI102" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KI102"/>
+  <dimension ref="A1:KJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1344,8 +1344,11 @@
       <c r="KH1" s="2" t="n">
         <v>10851</v>
       </c>
-      <c r="KI1" t="n">
+      <c r="KI1" s="2" t="n">
         <v>10858</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>10865</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2233,7 +2236,10 @@
       <c r="KH2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KI2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KJ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3122,8 +3128,11 @@
       <c r="KH3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KI3" t="n">
+      <c r="KI3" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4011,8 +4020,11 @@
       <c r="KH4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KI4" t="n">
+      <c r="KI4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4900,8 +4912,11 @@
       <c r="KH5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KI5" t="n">
+      <c r="KI5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5789,8 +5804,11 @@
       <c r="KH6" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KI6" t="n">
+      <c r="KI6" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6678,8 +6696,11 @@
       <c r="KH7" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="KI7" t="n">
+      <c r="KI7" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7567,8 +7588,11 @@
       <c r="KH8" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KI8" t="n">
+      <c r="KI8" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KJ8" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8456,7 +8480,10 @@
       <c r="KH9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KI9" t="n">
+      <c r="KI9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9345,8 +9372,11 @@
       <c r="KH10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KI10" t="n">
+      <c r="KI10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10234,8 +10264,11 @@
       <c r="KH11" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KI11" t="n">
+      <c r="KI11" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11123,8 +11156,11 @@
       <c r="KH12" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="KI12" t="n">
+      <c r="KI12" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="KJ12" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12012,8 +12048,11 @@
       <c r="KH13" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="KI13" t="n">
+      <c r="KI13" s="2" t="n">
         <v>311</v>
+      </c>
+      <c r="KJ13" t="n">
+        <v>325</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12901,8 +12940,11 @@
       <c r="KH14" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="KI14" t="n">
+      <c r="KI14" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13790,8 +13832,11 @@
       <c r="KH15" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KI15" t="n">
+      <c r="KI15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14679,8 +14724,11 @@
       <c r="KH16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KI16" t="n">
+      <c r="KI16" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15568,8 +15616,11 @@
       <c r="KH17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KI17" t="n">
+      <c r="KI17" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16457,8 +16508,11 @@
       <c r="KH18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KI18" t="n">
+      <c r="KI18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KJ18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17346,7 +17400,10 @@
       <c r="KH19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KI19" t="n">
+      <c r="KI19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KJ19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -18235,7 +18292,10 @@
       <c r="KH20" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KI20" t="n">
+      <c r="KI20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KJ20" t="n">
         <v>16</v>
       </c>
     </row>
@@ -19124,8 +19184,11 @@
       <c r="KH21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KI21" t="n">
+      <c r="KI21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KJ21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20013,8 +20076,11 @@
       <c r="KH22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KI22" t="n">
+      <c r="KI22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KJ22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20902,8 +20968,11 @@
       <c r="KH23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KI23" t="n">
+      <c r="KI23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21791,8 +21860,11 @@
       <c r="KH24" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KI24" t="n">
+      <c r="KI24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22680,8 +22752,11 @@
       <c r="KH25" s="2" t="n">
         <v>63.9</v>
       </c>
-      <c r="KI25" t="n">
+      <c r="KI25" s="2" t="n">
         <v>59.3</v>
+      </c>
+      <c r="KJ25" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23569,8 +23644,11 @@
       <c r="KH26" s="2" t="n">
         <v>15.48</v>
       </c>
-      <c r="KI26" t="n">
+      <c r="KI26" s="2" t="n">
         <v>19.44</v>
+      </c>
+      <c r="KJ26" t="n">
+        <v>20.31</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24458,8 +24536,11 @@
       <c r="KH27" s="2" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="KI27" t="n">
+      <c r="KI27" s="2" t="n">
         <v>11.52</v>
+      </c>
+      <c r="KJ27" t="n">
+        <v>10.83</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25347,8 +25428,11 @@
       <c r="KH28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KI28" t="n">
+      <c r="KI28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KJ28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26236,8 +26320,11 @@
       <c r="KH29" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KI29" t="n">
+      <c r="KI29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KJ29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27125,8 +27212,11 @@
       <c r="KH30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KI30" t="n">
+      <c r="KI30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KJ30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28014,8 +28104,11 @@
       <c r="KH31" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KI31" t="n">
+      <c r="KI31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KJ31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28903,8 +28996,11 @@
       <c r="KH32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="KI32" t="n">
+      <c r="KI32" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KJ32" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29792,8 +29888,11 @@
       <c r="KH33" s="2" t="n">
         <v>3.09</v>
       </c>
-      <c r="KI33" t="n">
+      <c r="KI33" s="2" t="n">
         <v>3.38</v>
+      </c>
+      <c r="KJ33" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30681,8 +30780,11 @@
       <c r="KH34" s="2" t="n">
         <v>49.3</v>
       </c>
-      <c r="KI34" t="n">
+      <c r="KI34" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="KJ34" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31570,8 +31672,11 @@
       <c r="KH35" s="2" t="n">
         <v>32.4</v>
       </c>
-      <c r="KI35" t="n">
+      <c r="KI35" s="2" t="n">
         <v>29.6</v>
+      </c>
+      <c r="KJ35" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32459,8 +32564,11 @@
       <c r="KH36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KI36" t="n">
+      <c r="KI36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KJ36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33348,8 +33456,11 @@
       <c r="KH37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KI37" t="n">
+      <c r="KI37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KJ37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34237,8 +34348,11 @@
       <c r="KH38" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KI38" t="n">
+      <c r="KI38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KJ38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35126,8 +35240,11 @@
       <c r="KH39" s="2" t="n">
         <v>84.5</v>
       </c>
-      <c r="KI39" t="n">
+      <c r="KI39" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="KJ39" t="n">
+        <v>107.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36015,7 +36132,10 @@
       <c r="KH40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KI40" t="n">
+      <c r="KI40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36904,8 +37024,11 @@
       <c r="KH41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KI41" t="n">
+      <c r="KI41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KJ41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37793,8 +37916,11 @@
       <c r="KH42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KI42" t="n">
+      <c r="KI42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38682,7 +38808,10 @@
       <c r="KH43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KI43" t="n">
+      <c r="KI43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39571,7 +39700,10 @@
       <c r="KH44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KI44" t="n">
+      <c r="KI44" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KJ44" t="n">
         <v>133</v>
       </c>
     </row>
@@ -40460,8 +40592,11 @@
       <c r="KH45" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KI45" t="n">
+      <c r="KI45" s="2" t="n">
         <v>171</v>
+      </c>
+      <c r="KJ45" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41349,8 +41484,11 @@
       <c r="KH46" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="KI46" t="n">
+      <c r="KI46" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="KJ46" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42238,8 +42376,11 @@
       <c r="KH47" s="2" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="KI47" t="n">
+      <c r="KI47" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KJ47" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43127,8 +43268,11 @@
       <c r="KH48" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KI48" t="n">
+      <c r="KI48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KJ48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44016,8 +44160,11 @@
       <c r="KH49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KI49" t="n">
+      <c r="KI49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KJ49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44905,8 +45052,11 @@
       <c r="KH50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KI50" t="n">
+      <c r="KI50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KJ50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45794,8 +45944,11 @@
       <c r="KH51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KI51" t="n">
+      <c r="KI51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KJ51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46683,8 +46836,11 @@
       <c r="KH52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KI52" t="n">
+      <c r="KI52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KJ52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47572,8 +47728,11 @@
       <c r="KH53" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KI53" t="n">
+      <c r="KI53" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48461,8 +48620,11 @@
       <c r="KH54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KI54" t="n">
+      <c r="KI54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KJ54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49350,8 +49512,11 @@
       <c r="KH55" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KI55" t="n">
+      <c r="KI55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KJ55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50239,8 +50404,11 @@
       <c r="KH56" s="2" t="n">
         <v>78.3</v>
       </c>
-      <c r="KI56" t="n">
+      <c r="KI56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KJ56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51128,8 +51296,11 @@
       <c r="KH57" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KI57" t="n">
+      <c r="KI57" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="KJ57" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52017,8 +52188,11 @@
       <c r="KH58" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KI58" t="n">
+      <c r="KI58" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="KJ58" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52906,8 +53080,11 @@
       <c r="KH59" s="2" t="n">
         <v>409</v>
       </c>
-      <c r="KI59" t="n">
+      <c r="KI59" s="2" t="n">
         <v>381</v>
+      </c>
+      <c r="KJ59" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53795,8 +53972,11 @@
       <c r="KH60" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KI60" t="n">
+      <c r="KI60" s="2" t="n">
         <v>1.27</v>
+      </c>
+      <c r="KJ60" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54684,8 +54864,11 @@
       <c r="KH61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KI61" t="n">
+      <c r="KI61" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="KJ61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55573,8 +55756,11 @@
       <c r="KH62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KI62" t="n">
+      <c r="KI62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KJ62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56462,8 +56648,11 @@
       <c r="KH63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KI63" t="n">
+      <c r="KI63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KJ63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57351,7 +57540,10 @@
       <c r="KH64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KI64" t="n">
+      <c r="KI64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KJ64" t="n">
         <v>19</v>
       </c>
     </row>
@@ -58240,8 +58432,11 @@
       <c r="KH65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KI65" t="n">
+      <c r="KI65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KJ65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59129,8 +59324,11 @@
       <c r="KH66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KI66" t="n">
+      <c r="KI66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KJ66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60018,8 +60216,11 @@
       <c r="KH67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KI67" t="n">
+      <c r="KI67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KJ67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60907,8 +61108,11 @@
       <c r="KH68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KI68" t="n">
+      <c r="KI68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KJ68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61796,8 +62000,11 @@
       <c r="KH69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KI69" t="n">
+      <c r="KI69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KJ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62685,8 +62892,11 @@
       <c r="KH70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KI70" t="n">
+      <c r="KI70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KJ70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63574,8 +63784,11 @@
       <c r="KH71" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="KI71" t="n">
+      <c r="KI71" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KJ71" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64463,8 +64676,11 @@
       <c r="KH72" s="2" t="n">
         <v>29.21</v>
       </c>
-      <c r="KI72" t="n">
+      <c r="KI72" s="2" t="n">
         <v>29.31</v>
+      </c>
+      <c r="KJ72" t="n">
+        <v>28.73</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65352,8 +65568,11 @@
       <c r="KH73" s="2" t="n">
         <v>15.73</v>
       </c>
-      <c r="KI73" t="n">
+      <c r="KI73" s="2" t="n">
         <v>19.05</v>
+      </c>
+      <c r="KJ73" t="n">
+        <v>18.59</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66241,8 +66460,11 @@
       <c r="KH74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KI74" t="n">
+      <c r="KI74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KJ74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67130,8 +67352,11 @@
       <c r="KH75" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KI75" t="n">
+      <c r="KI75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KJ75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68019,8 +68244,11 @@
       <c r="KH76" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KI76" t="n">
+      <c r="KI76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KJ76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68908,8 +69136,11 @@
       <c r="KH77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KI77" t="n">
+      <c r="KI77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KJ77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69797,8 +70028,11 @@
       <c r="KH78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KI78" t="n">
+      <c r="KI78" s="2" t="n">
         <v>2.55</v>
+      </c>
+      <c r="KJ78" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70686,8 +70920,11 @@
       <c r="KH79" s="2" t="n">
         <v>3.71</v>
       </c>
-      <c r="KI79" t="n">
+      <c r="KI79" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="KJ79" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71575,8 +71812,11 @@
       <c r="KH80" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="KI80" t="n">
+      <c r="KI80" s="2" t="n">
         <v>39.2</v>
+      </c>
+      <c r="KJ80" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72464,8 +72704,11 @@
       <c r="KH81" s="2" t="n">
         <v>26.9</v>
       </c>
-      <c r="KI81" t="n">
+      <c r="KI81" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="KJ81" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73353,8 +73596,11 @@
       <c r="KH82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KI82" t="n">
+      <c r="KI82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KJ82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74242,8 +74488,11 @@
       <c r="KH83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KI83" t="n">
+      <c r="KI83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KJ83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75131,8 +75380,11 @@
       <c r="KH84" s="2" t="n">
         <v>23.91</v>
       </c>
-      <c r="KI84" t="n">
+      <c r="KI84" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="KJ84" t="n">
+        <v>27.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76020,8 +76272,11 @@
       <c r="KH85" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="KI85" t="n">
+      <c r="KI85" s="2" t="n">
         <v>111.6</v>
+      </c>
+      <c r="KJ85" t="n">
+        <v>147.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76909,8 +77164,11 @@
       <c r="KH86" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KI86" t="n">
+      <c r="KI86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KJ86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77798,8 +78056,11 @@
       <c r="KH87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KI87" t="n">
+      <c r="KI87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KJ87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78687,7 +78948,10 @@
       <c r="KH88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KI88" t="n">
+      <c r="KI88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -79576,8 +79840,11 @@
       <c r="KH89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KI89" t="n">
+      <c r="KI89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KJ89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80465,8 +80732,11 @@
       <c r="KH90" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KI90" t="n">
+      <c r="KI90" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KJ90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81354,8 +81624,11 @@
       <c r="KH91" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KI91" t="n">
+      <c r="KI91" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="KJ91" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82243,8 +82516,11 @@
       <c r="KH92" s="2" t="n">
         <v>312</v>
       </c>
-      <c r="KI92" t="n">
+      <c r="KI92" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="KJ92" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83132,8 +83408,11 @@
       <c r="KH93" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="KI93" t="n">
+      <c r="KI93" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="KJ93" t="n">
+        <v>67.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84021,8 +84300,11 @@
       <c r="KH94" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KI94" t="n">
+      <c r="KI94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KJ94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84910,7 +85192,10 @@
       <c r="KH95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KI95" t="n">
+      <c r="KI95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ95" t="n">
         <v>7</v>
       </c>
     </row>
@@ -85799,8 +86084,11 @@
       <c r="KH96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KI96" t="n">
+      <c r="KI96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KJ96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86688,8 +86976,11 @@
       <c r="KH97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KI97" t="n">
+      <c r="KI97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KJ97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87577,8 +87868,11 @@
       <c r="KH98" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KI98" t="n">
+      <c r="KI98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KJ98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88466,8 +88760,11 @@
       <c r="KH99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KI99" t="n">
+      <c r="KI99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KJ99" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89355,8 +89652,11 @@
       <c r="KH100" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KI100" t="n">
+      <c r="KI100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90244,8 +90544,11 @@
       <c r="KH101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KI101" t="n">
+      <c r="KI101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KJ101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91133,8 +91436,11 @@
       <c r="KH102" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="KI102" t="n">
+      <c r="KI102" s="2" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="KJ102" t="n">
+        <v>63.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KJ102"/>
+  <dimension ref="A1:KK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1347,8 +1347,11 @@
       <c r="KI1" s="2" t="n">
         <v>10858</v>
       </c>
-      <c r="KJ1" t="n">
+      <c r="KJ1" s="2" t="n">
         <v>10865</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>10878</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2239,7 +2242,10 @@
       <c r="KI2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KJ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KK2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3131,8 +3137,11 @@
       <c r="KI3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KJ3" t="n">
+      <c r="KJ3" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4023,8 +4032,11 @@
       <c r="KI4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KJ4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4915,8 +4927,11 @@
       <c r="KI5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ5" t="n">
+      <c r="KJ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KK5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5807,8 +5822,11 @@
       <c r="KI6" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KJ6" t="n">
+      <c r="KJ6" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6699,8 +6717,11 @@
       <c r="KI7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KJ7" t="n">
+      <c r="KJ7" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7591,8 +7612,11 @@
       <c r="KI8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KJ8" t="n">
+      <c r="KJ8" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8483,7 +8507,10 @@
       <c r="KI9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ9" t="n">
+      <c r="KJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9375,8 +9402,11 @@
       <c r="KI10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KJ10" t="n">
+      <c r="KJ10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10267,8 +10297,11 @@
       <c r="KI11" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KJ11" t="n">
+      <c r="KJ11" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11159,8 +11192,11 @@
       <c r="KI12" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KJ12" t="n">
+      <c r="KJ12" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12051,8 +12087,11 @@
       <c r="KI13" s="2" t="n">
         <v>311</v>
       </c>
-      <c r="KJ13" t="n">
+      <c r="KJ13" s="2" t="n">
         <v>325</v>
+      </c>
+      <c r="KK13" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12943,8 +12982,11 @@
       <c r="KI14" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="KJ14" t="n">
+      <c r="KJ14" s="2" t="n">
         <v>1.62</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13835,8 +13877,11 @@
       <c r="KI15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KJ15" t="n">
+      <c r="KJ15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14727,8 +14772,11 @@
       <c r="KI16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KJ16" t="n">
+      <c r="KJ16" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15619,8 +15667,11 @@
       <c r="KI17" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KJ17" t="n">
+      <c r="KJ17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16511,8 +16562,11 @@
       <c r="KI18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KJ18" t="n">
+      <c r="KJ18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17403,8 +17457,11 @@
       <c r="KI19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KJ19" t="n">
+      <c r="KJ19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KK19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18295,8 +18352,11 @@
       <c r="KI20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KJ20" t="n">
+      <c r="KJ20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KK20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19187,8 +19247,11 @@
       <c r="KI21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KJ21" t="n">
+      <c r="KJ21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KK21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20079,8 +20142,11 @@
       <c r="KI22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ22" t="n">
+      <c r="KJ22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KK22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20971,8 +21037,11 @@
       <c r="KI23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ23" t="n">
+      <c r="KJ23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21863,8 +21932,11 @@
       <c r="KI24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KJ24" t="n">
+      <c r="KJ24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22755,8 +22827,11 @@
       <c r="KI25" s="2" t="n">
         <v>59.3</v>
       </c>
-      <c r="KJ25" t="n">
+      <c r="KJ25" s="2" t="n">
         <v>53.3</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23647,8 +23722,11 @@
       <c r="KI26" s="2" t="n">
         <v>19.44</v>
       </c>
-      <c r="KJ26" t="n">
+      <c r="KJ26" s="2" t="n">
         <v>20.31</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>28.45</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24539,8 +24617,11 @@
       <c r="KI27" s="2" t="n">
         <v>11.52</v>
       </c>
-      <c r="KJ27" t="n">
+      <c r="KJ27" s="2" t="n">
         <v>10.83</v>
+      </c>
+      <c r="KK27" t="n">
+        <v>13.61</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25431,8 +25512,11 @@
       <c r="KI28" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KJ28" t="n">
+      <c r="KJ28" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KK28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26323,8 +26407,11 @@
       <c r="KI29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KJ29" t="n">
+      <c r="KJ29" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KK29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27215,8 +27302,11 @@
       <c r="KI30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KJ30" t="n">
+      <c r="KJ30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KK30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28107,8 +28197,11 @@
       <c r="KI31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KJ31" t="n">
+      <c r="KJ31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KK31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28999,8 +29092,11 @@
       <c r="KI32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KJ32" t="n">
+      <c r="KJ32" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="KK32" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29891,8 +29987,11 @@
       <c r="KI33" s="2" t="n">
         <v>3.38</v>
       </c>
-      <c r="KJ33" t="n">
+      <c r="KJ33" s="2" t="n">
         <v>3.69</v>
+      </c>
+      <c r="KK33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30783,8 +30882,11 @@
       <c r="KI34" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="KJ34" t="n">
+      <c r="KJ34" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="KK34" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31675,8 +31777,11 @@
       <c r="KI35" s="2" t="n">
         <v>29.6</v>
       </c>
-      <c r="KJ35" t="n">
+      <c r="KJ35" s="2" t="n">
         <v>27.1</v>
+      </c>
+      <c r="KK35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32567,8 +32672,11 @@
       <c r="KI36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="KJ36" t="n">
+      <c r="KJ36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KK36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33459,8 +33567,11 @@
       <c r="KI37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KJ37" t="n">
+      <c r="KJ37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KK37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34351,8 +34462,11 @@
       <c r="KI38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KJ38" t="n">
+      <c r="KJ38" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KK38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35243,8 +35357,11 @@
       <c r="KI39" s="2" t="n">
         <v>102.9</v>
       </c>
-      <c r="KJ39" t="n">
+      <c r="KJ39" s="2" t="n">
         <v>107.3</v>
+      </c>
+      <c r="KK39" t="n">
+        <v>102.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36135,8 +36252,11 @@
       <c r="KI40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ40" t="n">
+      <c r="KJ40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KK40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37027,7 +37147,10 @@
       <c r="KI41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KJ41" t="n">
+      <c r="KJ41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37919,8 +38042,11 @@
       <c r="KI42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ42" t="n">
+      <c r="KJ42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KK42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38811,7 +38937,10 @@
       <c r="KI43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KJ43" t="n">
+      <c r="KJ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39703,8 +39832,11 @@
       <c r="KI44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KJ44" t="n">
+      <c r="KJ44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KK44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40595,8 +40727,11 @@
       <c r="KI45" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="KJ45" t="n">
+      <c r="KJ45" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KK45" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41487,8 +41622,11 @@
       <c r="KI46" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="KJ46" t="n">
+      <c r="KJ46" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="KK46" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42379,8 +42517,11 @@
       <c r="KI47" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KJ47" t="n">
+      <c r="KJ47" s="2" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="KK47" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43271,8 +43412,11 @@
       <c r="KI48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KJ48" t="n">
+      <c r="KJ48" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KK48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44163,8 +44307,11 @@
       <c r="KI49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KJ49" t="n">
+      <c r="KJ49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KK49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45055,8 +45202,11 @@
       <c r="KI50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KJ50" t="n">
+      <c r="KJ50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KK50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45947,8 +46097,11 @@
       <c r="KI51" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KJ51" t="n">
+      <c r="KJ51" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KK51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46839,8 +46992,11 @@
       <c r="KI52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KJ52" t="n">
+      <c r="KJ52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KK52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47731,7 +47887,10 @@
       <c r="KI53" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ53" t="n">
+      <c r="KJ53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KK53" t="n">
         <v>46</v>
       </c>
     </row>
@@ -48623,8 +48782,11 @@
       <c r="KI54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ54" t="n">
+      <c r="KJ54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KK54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49515,8 +49677,11 @@
       <c r="KI55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KJ55" t="n">
+      <c r="KJ55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KK55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50407,8 +50572,11 @@
       <c r="KI56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KJ56" t="n">
+      <c r="KJ56" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="KK56" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51299,8 +51467,11 @@
       <c r="KI57" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="KJ57" t="n">
+      <c r="KJ57" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="KK57" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52191,8 +52362,11 @@
       <c r="KI58" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="KJ58" t="n">
+      <c r="KJ58" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KK58" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53083,8 +53257,11 @@
       <c r="KI59" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="KJ59" t="n">
+      <c r="KJ59" s="2" t="n">
         <v>316</v>
+      </c>
+      <c r="KK59" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53975,8 +54152,11 @@
       <c r="KI60" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="KJ60" t="n">
+      <c r="KJ60" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="KK60" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54867,8 +55047,11 @@
       <c r="KI61" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="KJ61" t="n">
+      <c r="KJ61" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KK61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55759,8 +55942,11 @@
       <c r="KI62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KJ62" t="n">
+      <c r="KJ62" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KK62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56651,8 +56837,11 @@
       <c r="KI63" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KJ63" t="n">
+      <c r="KJ63" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KK63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57543,8 +57732,11 @@
       <c r="KI64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KJ64" t="n">
+      <c r="KJ64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KK64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58435,8 +58627,11 @@
       <c r="KI65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KJ65" t="n">
+      <c r="KJ65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59327,8 +59522,11 @@
       <c r="KI66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KJ66" t="n">
+      <c r="KJ66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KK66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60219,7 +60417,10 @@
       <c r="KI67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KJ67" t="n">
+      <c r="KJ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -61111,8 +61312,11 @@
       <c r="KI68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ68" t="n">
+      <c r="KJ68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KK68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62003,8 +62207,11 @@
       <c r="KI69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KJ69" t="n">
+      <c r="KJ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KK69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62895,8 +63102,11 @@
       <c r="KI70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KJ70" t="n">
+      <c r="KJ70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KK70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63787,8 +63997,11 @@
       <c r="KI71" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KJ71" t="n">
+      <c r="KJ71" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="KK71" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64679,8 +64892,11 @@
       <c r="KI72" s="2" t="n">
         <v>29.31</v>
       </c>
-      <c r="KJ72" t="n">
+      <c r="KJ72" s="2" t="n">
         <v>28.73</v>
+      </c>
+      <c r="KK72" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65571,8 +65787,11 @@
       <c r="KI73" s="2" t="n">
         <v>19.05</v>
       </c>
-      <c r="KJ73" t="n">
+      <c r="KJ73" s="2" t="n">
         <v>18.59</v>
+      </c>
+      <c r="KK73" t="n">
+        <v>14.62</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66463,8 +66682,11 @@
       <c r="KI74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KJ74" t="n">
+      <c r="KJ74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KK74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67355,8 +67577,11 @@
       <c r="KI75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KJ75" t="n">
+      <c r="KJ75" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KK75" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68247,8 +68472,11 @@
       <c r="KI76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KJ76" t="n">
+      <c r="KJ76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KK76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69139,8 +69367,11 @@
       <c r="KI77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KJ77" t="n">
+      <c r="KJ77" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KK77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70031,8 +70262,11 @@
       <c r="KI78" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="KJ78" t="n">
+      <c r="KJ78" s="2" t="n">
         <v>2.53</v>
+      </c>
+      <c r="KK78" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70923,8 +71157,11 @@
       <c r="KI79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="KJ79" t="n">
+      <c r="KJ79" s="2" t="n">
         <v>3.91</v>
+      </c>
+      <c r="KK79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71815,8 +72052,11 @@
       <c r="KI80" s="2" t="n">
         <v>39.2</v>
       </c>
-      <c r="KJ80" t="n">
+      <c r="KJ80" s="2" t="n">
         <v>37.2</v>
+      </c>
+      <c r="KK80" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72707,8 +72947,11 @@
       <c r="KI81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="KJ81" t="n">
+      <c r="KJ81" s="2" t="n">
         <v>25.6</v>
+      </c>
+      <c r="KK81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73599,8 +73842,11 @@
       <c r="KI82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KJ82" t="n">
+      <c r="KJ82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KK82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74491,8 +74737,11 @@
       <c r="KI83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KJ83" t="n">
+      <c r="KJ83" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="KK83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75383,8 +75632,11 @@
       <c r="KI84" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="KJ84" t="n">
+      <c r="KJ84" s="2" t="n">
         <v>27.74</v>
+      </c>
+      <c r="KK84" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76275,8 +76527,11 @@
       <c r="KI85" s="2" t="n">
         <v>111.6</v>
       </c>
-      <c r="KJ85" t="n">
+      <c r="KJ85" s="2" t="n">
         <v>147.4</v>
+      </c>
+      <c r="KK85" t="n">
+        <v>100.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77167,8 +77422,11 @@
       <c r="KI86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KJ86" t="n">
+      <c r="KJ86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KK86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78059,8 +78317,11 @@
       <c r="KI87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ87" t="n">
+      <c r="KJ87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KK87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78951,8 +79212,11 @@
       <c r="KI88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ88" t="n">
+      <c r="KJ88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KK88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79843,8 +80107,11 @@
       <c r="KI89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KJ89" t="n">
+      <c r="KJ89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KK89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80735,8 +81002,11 @@
       <c r="KI90" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KJ90" t="n">
+      <c r="KJ90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KK90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81627,8 +81897,11 @@
       <c r="KI91" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="KJ91" t="n">
+      <c r="KJ91" s="2" t="n">
         <v>183</v>
+      </c>
+      <c r="KK91" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82519,8 +82792,11 @@
       <c r="KI92" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="KJ92" t="n">
+      <c r="KJ92" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="KK92" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83411,8 +83687,11 @@
       <c r="KI93" s="2" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="KJ93" t="n">
+      <c r="KJ93" s="2" t="n">
         <v>67.7</v>
+      </c>
+      <c r="KK93" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84303,8 +84582,11 @@
       <c r="KI94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KJ94" t="n">
+      <c r="KJ94" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KK94" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85195,8 +85477,11 @@
       <c r="KI95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ95" t="n">
+      <c r="KJ95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KK95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86087,8 +86372,11 @@
       <c r="KI96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KJ96" t="n">
+      <c r="KJ96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KK96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86979,8 +87267,11 @@
       <c r="KI97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KJ97" t="n">
+      <c r="KJ97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KK97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87871,8 +88162,11 @@
       <c r="KI98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KJ98" t="n">
+      <c r="KJ98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KK98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88763,8 +89057,11 @@
       <c r="KI99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KJ99" t="n">
+      <c r="KJ99" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KK99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89655,8 +89952,11 @@
       <c r="KI100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KJ100" t="n">
+      <c r="KJ100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KK100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90547,7 +90847,10 @@
       <c r="KI101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KJ101" t="n">
+      <c r="KJ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -91439,8 +91742,11 @@
       <c r="KI102" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="KJ102" t="n">
+      <c r="KJ102" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="KK102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KK102"/>
+  <dimension ref="A1:KL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1350,8 +1350,11 @@
       <c r="KJ1" s="2" t="n">
         <v>10865</v>
       </c>
-      <c r="KK1" t="n">
+      <c r="KK1" s="2" t="n">
         <v>10878</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>10893</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2245,7 +2248,10 @@
       <c r="KJ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KK2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KL2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3140,8 +3146,11 @@
       <c r="KJ3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KK3" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4035,8 +4044,11 @@
       <c r="KJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KK4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4930,8 +4942,11 @@
       <c r="KJ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK5" t="n">
+      <c r="KK5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5825,8 +5840,11 @@
       <c r="KJ6" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KK6" t="n">
+      <c r="KK6" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6720,8 +6738,11 @@
       <c r="KJ7" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KK7" t="n">
+      <c r="KK7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7615,8 +7636,11 @@
       <c r="KJ8" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KK8" t="n">
+      <c r="KK8" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8510,7 +8534,10 @@
       <c r="KJ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KK9" t="n">
+      <c r="KK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9405,8 +9432,11 @@
       <c r="KJ10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK10" t="n">
+      <c r="KK10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10300,8 +10330,11 @@
       <c r="KJ11" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KK11" t="n">
+      <c r="KK11" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11195,7 +11228,10 @@
       <c r="KJ12" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KK12" t="n">
+      <c r="KK12" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="KL12" t="n">
         <v>118</v>
       </c>
     </row>
@@ -12090,8 +12126,11 @@
       <c r="KJ13" s="2" t="n">
         <v>325</v>
       </c>
-      <c r="KK13" t="n">
+      <c r="KK13" s="2" t="n">
         <v>313</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12985,8 +13024,11 @@
       <c r="KJ14" s="2" t="n">
         <v>1.62</v>
       </c>
-      <c r="KK14" t="n">
+      <c r="KK14" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13880,8 +13922,11 @@
       <c r="KJ15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KK15" t="n">
+      <c r="KK15" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14775,8 +14820,11 @@
       <c r="KJ16" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KK16" t="n">
+      <c r="KK16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15670,8 +15718,11 @@
       <c r="KJ17" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KK17" t="n">
+      <c r="KK17" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16565,8 +16616,11 @@
       <c r="KJ18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK18" t="n">
+      <c r="KK18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17460,8 +17514,11 @@
       <c r="KJ19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KK19" t="n">
+      <c r="KK19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18355,8 +18412,11 @@
       <c r="KJ20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KK20" t="n">
+      <c r="KK20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KL20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19250,8 +19310,11 @@
       <c r="KJ21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK21" t="n">
+      <c r="KK21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20145,7 +20208,10 @@
       <c r="KJ22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KK22" t="n">
+      <c r="KK22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -21040,8 +21106,11 @@
       <c r="KJ23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KK23" t="n">
+      <c r="KK23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21935,8 +22004,11 @@
       <c r="KJ24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KK24" t="n">
+      <c r="KK24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22830,8 +22902,11 @@
       <c r="KJ25" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="KK25" t="n">
+      <c r="KK25" s="2" t="n">
         <v>47.8</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23725,8 +23800,11 @@
       <c r="KJ26" s="2" t="n">
         <v>20.31</v>
       </c>
-      <c r="KK26" t="n">
+      <c r="KK26" s="2" t="n">
         <v>28.45</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>21.19</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24620,8 +24698,11 @@
       <c r="KJ27" s="2" t="n">
         <v>10.83</v>
       </c>
-      <c r="KK27" t="n">
+      <c r="KK27" s="2" t="n">
         <v>13.61</v>
+      </c>
+      <c r="KL27" t="n">
+        <v>13.04</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25515,8 +25596,11 @@
       <c r="KJ28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KK28" t="n">
+      <c r="KK28" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KL28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26410,8 +26494,11 @@
       <c r="KJ29" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KK29" t="n">
+      <c r="KK29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KL29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27305,8 +27392,11 @@
       <c r="KJ30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KK30" t="n">
+      <c r="KK30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KL30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28200,8 +28290,11 @@
       <c r="KJ31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KK31" t="n">
+      <c r="KK31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KL31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29095,8 +29188,11 @@
       <c r="KJ32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="KK32" t="n">
+      <c r="KK32" s="2" t="n">
         <v>2.39</v>
+      </c>
+      <c r="KL32" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29990,8 +30086,11 @@
       <c r="KJ33" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="KK33" t="n">
+      <c r="KK33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL33" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30885,8 +30984,11 @@
       <c r="KJ34" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="KK34" t="n">
+      <c r="KK34" s="2" t="n">
         <v>34.5</v>
+      </c>
+      <c r="KL34" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31780,8 +31882,11 @@
       <c r="KJ35" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="KK35" t="n">
+      <c r="KK35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KL35" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32675,8 +32780,11 @@
       <c r="KJ36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KK36" t="n">
+      <c r="KK36" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KL36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33570,8 +33678,11 @@
       <c r="KJ37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KK37" t="n">
+      <c r="KK37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KL37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34465,8 +34576,11 @@
       <c r="KJ38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KK38" t="n">
+      <c r="KK38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KL38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35360,8 +35474,11 @@
       <c r="KJ39" s="2" t="n">
         <v>107.3</v>
       </c>
-      <c r="KK39" t="n">
+      <c r="KK39" s="2" t="n">
         <v>102.4</v>
+      </c>
+      <c r="KL39" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36255,7 +36372,10 @@
       <c r="KJ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK40" t="n">
+      <c r="KK40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37150,8 +37270,11 @@
       <c r="KJ41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK41" t="n">
+      <c r="KK41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38045,8 +38168,11 @@
       <c r="KJ42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK42" t="n">
+      <c r="KK42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38940,7 +39066,10 @@
       <c r="KJ43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK43" t="n">
+      <c r="KK43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39835,8 +39964,11 @@
       <c r="KJ44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KK44" t="n">
+      <c r="KK44" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40730,8 +40862,11 @@
       <c r="KJ45" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KK45" t="n">
+      <c r="KK45" s="2" t="n">
         <v>173</v>
+      </c>
+      <c r="KL45" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41625,8 +41760,11 @@
       <c r="KJ46" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="KK46" t="n">
+      <c r="KK46" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="KL46" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42520,8 +42658,11 @@
       <c r="KJ47" s="2" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="KK47" t="n">
+      <c r="KK47" s="2" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KL47" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43415,8 +43556,11 @@
       <c r="KJ48" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KK48" t="n">
+      <c r="KK48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KL48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44310,8 +44454,11 @@
       <c r="KJ49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK49" t="n">
+      <c r="KK49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KL49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45205,8 +45352,11 @@
       <c r="KJ50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KK50" t="n">
+      <c r="KK50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KL50" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46100,8 +46250,11 @@
       <c r="KJ51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KK51" t="n">
+      <c r="KK51" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KL51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46995,8 +47148,11 @@
       <c r="KJ52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KK52" t="n">
+      <c r="KK52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KL52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47890,8 +48046,11 @@
       <c r="KJ53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KK53" t="n">
+      <c r="KK53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KL53" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48785,7 +48944,10 @@
       <c r="KJ54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KK54" t="n">
+      <c r="KK54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL54" t="n">
         <v>6</v>
       </c>
     </row>
@@ -49680,8 +49842,11 @@
       <c r="KJ55" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK55" t="n">
+      <c r="KK55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50575,8 +50740,11 @@
       <c r="KJ56" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="KK56" t="n">
+      <c r="KK56" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="KL56" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51470,8 +51638,11 @@
       <c r="KJ57" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KK57" t="n">
+      <c r="KK57" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="KL57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52365,8 +52536,11 @@
       <c r="KJ58" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="KK58" t="n">
+      <c r="KK58" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KL58" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53260,8 +53434,11 @@
       <c r="KJ59" s="2" t="n">
         <v>316</v>
       </c>
-      <c r="KK59" t="n">
+      <c r="KK59" s="2" t="n">
         <v>351</v>
+      </c>
+      <c r="KL59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54155,8 +54332,11 @@
       <c r="KJ60" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="KK60" t="n">
+      <c r="KK60" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="KL60" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55050,8 +55230,11 @@
       <c r="KJ61" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="KK61" t="n">
+      <c r="KK61" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KL61" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55945,8 +56128,11 @@
       <c r="KJ62" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KK62" t="n">
+      <c r="KK62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KL62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56840,8 +57026,11 @@
       <c r="KJ63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KK63" t="n">
+      <c r="KK63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KL63" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57735,8 +57924,11 @@
       <c r="KJ64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KK64" t="n">
+      <c r="KK64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KL64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58630,8 +58822,11 @@
       <c r="KJ65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK65" t="n">
+      <c r="KK65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59525,8 +59720,11 @@
       <c r="KJ66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KK66" t="n">
+      <c r="KK66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KL66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60420,8 +60618,11 @@
       <c r="KJ67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK67" t="n">
+      <c r="KK67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61315,8 +61516,11 @@
       <c r="KJ68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK68" t="n">
+      <c r="KK68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KL68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62210,7 +62414,10 @@
       <c r="KJ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KK69" t="n">
+      <c r="KK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -63105,8 +63312,11 @@
       <c r="KJ70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KK70" t="n">
+      <c r="KK70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KL70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64000,8 +64210,11 @@
       <c r="KJ71" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="KK71" t="n">
+      <c r="KK71" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="KL71" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64895,8 +65108,11 @@
       <c r="KJ72" s="2" t="n">
         <v>28.73</v>
       </c>
-      <c r="KK72" t="n">
+      <c r="KK72" s="2" t="n">
         <v>35.1</v>
+      </c>
+      <c r="KL72" t="n">
+        <v>31.82</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65790,8 +66006,11 @@
       <c r="KJ73" s="2" t="n">
         <v>18.59</v>
       </c>
-      <c r="KK73" t="n">
+      <c r="KK73" s="2" t="n">
         <v>14.62</v>
+      </c>
+      <c r="KL73" t="n">
+        <v>19.44</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66685,8 +66904,11 @@
       <c r="KJ74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KK74" t="n">
+      <c r="KK74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KL74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67580,8 +67802,11 @@
       <c r="KJ75" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KK75" t="n">
+      <c r="KK75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KL75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68475,8 +68700,11 @@
       <c r="KJ76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KK76" t="n">
+      <c r="KK76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KL76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69370,8 +69598,11 @@
       <c r="KJ77" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KK77" t="n">
+      <c r="KK77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KL77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70265,8 +70496,11 @@
       <c r="KJ78" s="2" t="n">
         <v>2.53</v>
       </c>
-      <c r="KK78" t="n">
+      <c r="KK78" s="2" t="n">
         <v>2.08</v>
+      </c>
+      <c r="KL78" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71160,8 +71394,11 @@
       <c r="KJ79" s="2" t="n">
         <v>3.91</v>
       </c>
-      <c r="KK79" t="n">
+      <c r="KK79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL79" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72055,8 +72292,11 @@
       <c r="KJ80" s="2" t="n">
         <v>37.2</v>
       </c>
-      <c r="KK80" t="n">
+      <c r="KK80" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KL80" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72950,8 +73190,11 @@
       <c r="KJ81" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="KK81" t="n">
+      <c r="KK81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KL81" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73845,7 +74088,10 @@
       <c r="KJ82" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KK82" t="n">
+      <c r="KK82" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="KL82" t="n">
         <v>188</v>
       </c>
     </row>
@@ -74740,8 +74986,11 @@
       <c r="KJ83" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="KK83" t="n">
+      <c r="KK83" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KL83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75635,8 +75884,11 @@
       <c r="KJ84" s="2" t="n">
         <v>27.74</v>
       </c>
-      <c r="KK84" t="n">
+      <c r="KK84" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="KL84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76530,8 +76782,11 @@
       <c r="KJ85" s="2" t="n">
         <v>147.4</v>
       </c>
-      <c r="KK85" t="n">
+      <c r="KK85" s="2" t="n">
         <v>100.1</v>
+      </c>
+      <c r="KL85" t="n">
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77425,8 +77680,11 @@
       <c r="KJ86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KK86" t="n">
+      <c r="KK86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78320,8 +78578,11 @@
       <c r="KJ87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK87" t="n">
+      <c r="KK87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79215,8 +79476,11 @@
       <c r="KJ88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KK88" t="n">
+      <c r="KK88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80110,8 +80374,11 @@
       <c r="KJ89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KK89" t="n">
+      <c r="KK89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KL89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81005,8 +81272,11 @@
       <c r="KJ90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KK90" t="n">
+      <c r="KK90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="KL90" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81900,8 +82170,11 @@
       <c r="KJ91" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="KK91" t="n">
+      <c r="KK91" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KL91" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82795,8 +83068,11 @@
       <c r="KJ92" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="KK92" t="n">
+      <c r="KK92" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="KL92" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83690,8 +83966,11 @@
       <c r="KJ93" s="2" t="n">
         <v>67.7</v>
       </c>
-      <c r="KK93" t="n">
+      <c r="KK93" s="2" t="n">
         <v>71.5</v>
+      </c>
+      <c r="KL93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84585,8 +84864,11 @@
       <c r="KJ94" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KK94" t="n">
+      <c r="KK94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KL94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85480,8 +85762,11 @@
       <c r="KJ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK95" t="n">
+      <c r="KK95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KL95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86375,8 +86660,11 @@
       <c r="KJ96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK96" t="n">
+      <c r="KK96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KL96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87270,8 +87558,11 @@
       <c r="KJ97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KK97" t="n">
+      <c r="KK97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KL97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88165,8 +88456,11 @@
       <c r="KJ98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KK98" t="n">
+      <c r="KK98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KL98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89060,8 +89354,11 @@
       <c r="KJ99" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KK99" t="n">
+      <c r="KK99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KL99" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89955,8 +90252,11 @@
       <c r="KJ100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KK100" t="n">
+      <c r="KK100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KL100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90850,8 +91150,11 @@
       <c r="KJ101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK101" t="n">
+      <c r="KK101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91745,8 +92048,11 @@
       <c r="KJ102" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="KK102" t="n">
+      <c r="KK102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KL102" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KL102"/>
+  <dimension ref="A1:KM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1353,8 +1353,11 @@
       <c r="KK1" s="2" t="n">
         <v>10878</v>
       </c>
-      <c r="KL1" t="n">
+      <c r="KL1" s="2" t="n">
         <v>10893</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>10895</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2251,7 +2254,10 @@
       <c r="KK2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KL2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KM2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3149,8 +3155,11 @@
       <c r="KK3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KL3" t="n">
+      <c r="KL3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4047,8 +4056,11 @@
       <c r="KK4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL4" t="n">
+      <c r="KL4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4945,7 +4957,10 @@
       <c r="KK5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL5" t="n">
+      <c r="KL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5843,8 +5858,11 @@
       <c r="KK6" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KL6" t="n">
+      <c r="KL6" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6741,8 +6759,11 @@
       <c r="KK7" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KL7" t="n">
+      <c r="KL7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7639,8 +7660,11 @@
       <c r="KK8" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KL8" t="n">
+      <c r="KL8" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8537,8 +8561,11 @@
       <c r="KK9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL9" t="n">
+      <c r="KL9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KM9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9435,8 +9462,11 @@
       <c r="KK10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL10" t="n">
+      <c r="KL10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10333,8 +10363,11 @@
       <c r="KK11" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="KL11" t="n">
+      <c r="KL11" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11231,8 +11264,11 @@
       <c r="KK12" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KL12" t="n">
+      <c r="KL12" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12129,8 +12165,11 @@
       <c r="KK13" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="KL13" t="n">
+      <c r="KL13" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13027,8 +13066,11 @@
       <c r="KK14" s="2" t="n">
         <v>1.65</v>
       </c>
-      <c r="KL14" t="n">
+      <c r="KL14" s="2" t="n">
         <v>1.87</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13925,8 +13967,11 @@
       <c r="KK15" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KL15" t="n">
+      <c r="KL15" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14823,8 +14868,11 @@
       <c r="KK16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KL16" t="n">
+      <c r="KL16" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15721,8 +15769,11 @@
       <c r="KK17" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KL17" t="n">
+      <c r="KL17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16619,8 +16670,11 @@
       <c r="KK18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL18" t="n">
+      <c r="KL18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KM18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17517,8 +17571,11 @@
       <c r="KK19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KL19" t="n">
+      <c r="KL19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KM19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18415,8 +18472,11 @@
       <c r="KK20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KL20" t="n">
+      <c r="KL20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KM20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19313,8 +19373,11 @@
       <c r="KK21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL21" t="n">
+      <c r="KL21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KM21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20211,8 +20274,11 @@
       <c r="KK22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL22" t="n">
+      <c r="KL22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21109,7 +21175,10 @@
       <c r="KK23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KL23" t="n">
+      <c r="KL23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22007,8 +22076,11 @@
       <c r="KK24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KL24" t="n">
+      <c r="KL24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22905,8 +22977,11 @@
       <c r="KK25" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="KL25" t="n">
+      <c r="KL25" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23803,8 +23878,11 @@
       <c r="KK26" s="2" t="n">
         <v>28.45</v>
       </c>
-      <c r="KL26" t="n">
+      <c r="KL26" s="2" t="n">
         <v>21.19</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24701,8 +24779,11 @@
       <c r="KK27" s="2" t="n">
         <v>13.61</v>
       </c>
-      <c r="KL27" t="n">
+      <c r="KL27" s="2" t="n">
         <v>13.04</v>
+      </c>
+      <c r="KM27" t="n">
+        <v>16.41</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25599,8 +25680,11 @@
       <c r="KK28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KL28" t="n">
+      <c r="KL28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KM28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26497,8 +26581,11 @@
       <c r="KK29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KL29" t="n">
+      <c r="KL29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KM29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27395,8 +27482,11 @@
       <c r="KK30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KL30" t="n">
+      <c r="KL30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KM30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28293,8 +28383,11 @@
       <c r="KK31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KL31" t="n">
+      <c r="KL31" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KM31" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29191,8 +29284,11 @@
       <c r="KK32" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="KL32" t="n">
+      <c r="KL32" s="2" t="n">
         <v>2.42</v>
+      </c>
+      <c r="KM32" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30089,8 +30185,11 @@
       <c r="KK33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL33" t="n">
+      <c r="KL33" s="2" t="n">
         <v>3.94</v>
+      </c>
+      <c r="KM33" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30987,8 +31086,11 @@
       <c r="KK34" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="KL34" t="n">
+      <c r="KL34" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KM34" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31885,8 +31987,11 @@
       <c r="KK35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KL35" t="n">
+      <c r="KL35" s="2" t="n">
         <v>25.4</v>
+      </c>
+      <c r="KM35" t="n">
+        <v>16.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32783,8 +32888,11 @@
       <c r="KK36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="KL36" t="n">
+      <c r="KL36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KM36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33681,8 +33789,11 @@
       <c r="KK37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KL37" t="n">
+      <c r="KL37" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KM37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34579,8 +34690,11 @@
       <c r="KK38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KL38" t="n">
+      <c r="KL38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="KM38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35477,8 +35591,11 @@
       <c r="KK39" s="2" t="n">
         <v>102.4</v>
       </c>
-      <c r="KL39" t="n">
+      <c r="KL39" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="KM39" t="n">
+        <v>101.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36375,8 +36492,11 @@
       <c r="KK40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL40" t="n">
+      <c r="KL40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KM40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37273,8 +37393,11 @@
       <c r="KK41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL41" t="n">
+      <c r="KL41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38171,8 +38294,11 @@
       <c r="KK42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KL42" t="n">
+      <c r="KL42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39069,8 +39195,11 @@
       <c r="KK43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL43" t="n">
+      <c r="KL43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39967,8 +40096,11 @@
       <c r="KK44" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="KL44" t="n">
+      <c r="KL44" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="KM44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40865,8 +40997,11 @@
       <c r="KK45" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="KL45" t="n">
+      <c r="KL45" s="2" t="n">
         <v>177</v>
+      </c>
+      <c r="KM45" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41763,8 +41898,11 @@
       <c r="KK46" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KL46" t="n">
+      <c r="KL46" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="KM46" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42661,8 +42799,11 @@
       <c r="KK47" s="2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KL47" t="n">
+      <c r="KL47" s="2" t="n">
         <v>70.8</v>
+      </c>
+      <c r="KM47" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43559,8 +43700,11 @@
       <c r="KK48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KL48" t="n">
+      <c r="KL48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KM48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44457,8 +44601,11 @@
       <c r="KK49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KL49" t="n">
+      <c r="KL49" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KM49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45355,8 +45502,11 @@
       <c r="KK50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KL50" t="n">
+      <c r="KL50" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KM50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46253,8 +46403,11 @@
       <c r="KK51" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KL51" t="n">
+      <c r="KL51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KM51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47151,8 +47304,11 @@
       <c r="KK52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KL52" t="n">
+      <c r="KL52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KM52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48049,8 +48205,11 @@
       <c r="KK53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KL53" t="n">
+      <c r="KL53" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KM53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48947,8 +49106,11 @@
       <c r="KK54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL54" t="n">
+      <c r="KL54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49845,8 +50007,11 @@
       <c r="KK55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL55" t="n">
+      <c r="KL55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KM55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50743,8 +50908,11 @@
       <c r="KK56" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="KL56" t="n">
+      <c r="KL56" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KM56" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51641,8 +51809,11 @@
       <c r="KK57" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KL57" t="n">
+      <c r="KL57" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="KM57" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52539,8 +52710,11 @@
       <c r="KK58" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KL58" t="n">
+      <c r="KL58" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="KM58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53437,8 +53611,11 @@
       <c r="KK59" s="2" t="n">
         <v>351</v>
       </c>
-      <c r="KL59" t="n">
+      <c r="KL59" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="KM59" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54335,8 +54512,11 @@
       <c r="KK60" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="KL60" t="n">
+      <c r="KL60" s="2" t="n">
         <v>1.67</v>
+      </c>
+      <c r="KM60" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55233,8 +55413,11 @@
       <c r="KK61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KL61" t="n">
+      <c r="KL61" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KM61" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56131,8 +56314,11 @@
       <c r="KK62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KL62" t="n">
+      <c r="KL62" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KM62" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57029,8 +57215,11 @@
       <c r="KK63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KL63" t="n">
+      <c r="KL63" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KM63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57927,8 +58116,11 @@
       <c r="KK64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KL64" t="n">
+      <c r="KL64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KM64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58825,7 +59017,10 @@
       <c r="KK65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL65" t="n">
+      <c r="KL65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KM65" t="n">
         <v>15</v>
       </c>
     </row>
@@ -59723,8 +59918,11 @@
       <c r="KK66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KL66" t="n">
+      <c r="KL66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KM66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60621,8 +60819,11 @@
       <c r="KK67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL67" t="n">
+      <c r="KL67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61519,8 +61720,11 @@
       <c r="KK68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KL68" t="n">
+      <c r="KL68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62417,7 +62621,10 @@
       <c r="KK69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KL69" t="n">
+      <c r="KL69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -63315,8 +63522,11 @@
       <c r="KK70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KL70" t="n">
+      <c r="KL70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KM70" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64213,8 +64423,11 @@
       <c r="KK71" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="KL71" t="n">
+      <c r="KL71" s="2" t="n">
         <v>61.1</v>
+      </c>
+      <c r="KM71" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65111,8 +65324,11 @@
       <c r="KK72" s="2" t="n">
         <v>35.1</v>
       </c>
-      <c r="KL72" t="n">
+      <c r="KL72" s="2" t="n">
         <v>31.82</v>
+      </c>
+      <c r="KM72" t="n">
+        <v>19.61</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66009,8 +66225,11 @@
       <c r="KK73" s="2" t="n">
         <v>14.62</v>
       </c>
-      <c r="KL73" t="n">
+      <c r="KL73" s="2" t="n">
         <v>19.44</v>
+      </c>
+      <c r="KM73" t="n">
+        <v>11.03</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66907,8 +67126,11 @@
       <c r="KK74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KL74" t="n">
+      <c r="KL74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KM74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67805,8 +68027,11 @@
       <c r="KK75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KL75" t="n">
+      <c r="KL75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KM75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68703,8 +68928,11 @@
       <c r="KK76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KL76" t="n">
+      <c r="KL76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KM76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69601,8 +69829,11 @@
       <c r="KK77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KL77" t="n">
+      <c r="KL77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KM77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70499,8 +70730,11 @@
       <c r="KK78" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="KL78" t="n">
+      <c r="KL78" s="2" t="n">
         <v>2.83</v>
+      </c>
+      <c r="KM78" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71397,8 +71631,11 @@
       <c r="KK79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL79" t="n">
+      <c r="KL79" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="KM79" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72295,8 +72532,11 @@
       <c r="KK80" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KL80" t="n">
+      <c r="KL80" s="2" t="n">
         <v>31.4</v>
+      </c>
+      <c r="KM80" t="n">
+        <v>50.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73193,8 +73433,11 @@
       <c r="KK81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KL81" t="n">
+      <c r="KL81" s="2" t="n">
         <v>21.6</v>
+      </c>
+      <c r="KM81" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74091,8 +74334,11 @@
       <c r="KK82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KL82" t="n">
+      <c r="KL82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KM82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74989,8 +75235,11 @@
       <c r="KK83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KL83" t="n">
+      <c r="KL83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KM83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75887,8 +76136,11 @@
       <c r="KK84" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="KL84" t="n">
+      <c r="KL84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KM84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76785,8 +77037,11 @@
       <c r="KK85" s="2" t="n">
         <v>100.1</v>
       </c>
-      <c r="KL85" t="n">
+      <c r="KL85" s="2" t="n">
         <v>99.90000000000001</v>
+      </c>
+      <c r="KM85" t="n">
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77683,8 +77938,11 @@
       <c r="KK86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL86" t="n">
+      <c r="KL86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78581,8 +78839,11 @@
       <c r="KK87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL87" t="n">
+      <c r="KL87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79479,8 +79740,11 @@
       <c r="KK88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL88" t="n">
+      <c r="KL88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM88" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80377,8 +80641,11 @@
       <c r="KK89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KL89" t="n">
+      <c r="KL89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81275,8 +81542,11 @@
       <c r="KK90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KL90" t="n">
+      <c r="KL90" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KM90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82173,8 +82443,11 @@
       <c r="KK91" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KL91" t="n">
+      <c r="KL91" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="KM91" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83071,8 +83344,11 @@
       <c r="KK92" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="KL92" t="n">
+      <c r="KL92" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KM92" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83969,8 +84245,11 @@
       <c r="KK93" s="2" t="n">
         <v>71.5</v>
       </c>
-      <c r="KL93" t="n">
+      <c r="KL93" s="2" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KM93" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84867,8 +85146,11 @@
       <c r="KK94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KL94" t="n">
+      <c r="KL94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KM94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85765,8 +86047,11 @@
       <c r="KK95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KL95" t="n">
+      <c r="KL95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KM95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86663,8 +86948,11 @@
       <c r="KK96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KL96" t="n">
+      <c r="KL96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KM96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87561,8 +87849,11 @@
       <c r="KK97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KL97" t="n">
+      <c r="KL97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KM97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88459,8 +88750,11 @@
       <c r="KK98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KL98" t="n">
+      <c r="KL98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KM98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89357,8 +89651,11 @@
       <c r="KK99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KL99" t="n">
+      <c r="KL99" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KM99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90255,8 +90552,11 @@
       <c r="KK100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL100" t="n">
+      <c r="KL100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KM100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91153,8 +91453,11 @@
       <c r="KK101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL101" t="n">
+      <c r="KL101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92051,8 +92354,11 @@
       <c r="KK102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KL102" t="n">
+      <c r="KL102" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="KM102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KM102"/>
+  <dimension ref="A1:KN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1356,8 +1356,11 @@
       <c r="KL1" s="2" t="n">
         <v>10893</v>
       </c>
-      <c r="KM1" t="n">
+      <c r="KM1" s="2" t="n">
         <v>10895</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>10911</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2257,7 +2260,10 @@
       <c r="KL2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KM2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KN2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3158,8 +3164,11 @@
       <c r="KL3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KM3" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4059,8 +4068,11 @@
       <c r="KL4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KM4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4960,8 +4972,11 @@
       <c r="KL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KM5" t="n">
+      <c r="KM5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5861,8 +5876,11 @@
       <c r="KL6" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="KM6" t="n">
+      <c r="KM6" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6762,8 +6780,11 @@
       <c r="KL7" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KM7" t="n">
+      <c r="KM7" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7663,8 +7684,11 @@
       <c r="KL8" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KM8" t="n">
+      <c r="KM8" s="2" t="n">
         <v>-50</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8564,7 +8588,10 @@
       <c r="KL9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM9" t="n">
+      <c r="KM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9465,8 +9492,11 @@
       <c r="KL10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM10" t="n">
+      <c r="KM10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10366,8 +10396,11 @@
       <c r="KL11" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="KM11" t="n">
+      <c r="KM11" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11267,8 +11300,11 @@
       <c r="KL12" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KM12" t="n">
+      <c r="KM12" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12168,8 +12204,11 @@
       <c r="KL13" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="KM13" t="n">
+      <c r="KM13" s="2" t="n">
         <v>361</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13069,8 +13108,11 @@
       <c r="KL14" s="2" t="n">
         <v>1.87</v>
       </c>
-      <c r="KM14" t="n">
+      <c r="KM14" s="2" t="n">
         <v>1.21</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13970,8 +14012,11 @@
       <c r="KL15" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KM15" t="n">
+      <c r="KM15" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14871,8 +14916,11 @@
       <c r="KL16" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KM16" t="n">
+      <c r="KM16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15772,8 +15820,11 @@
       <c r="KL17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KM17" t="n">
+      <c r="KM17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16673,8 +16724,11 @@
       <c r="KL18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KM18" t="n">
+      <c r="KM18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KN18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17574,8 +17628,11 @@
       <c r="KL19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KM19" t="n">
+      <c r="KM19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KN19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18475,8 +18532,11 @@
       <c r="KL20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KM20" t="n">
+      <c r="KM20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19376,8 +19436,11 @@
       <c r="KL21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KM21" t="n">
+      <c r="KM21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20277,8 +20340,11 @@
       <c r="KL22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM22" t="n">
+      <c r="KM22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21178,7 +21244,10 @@
       <c r="KL23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KM23" t="n">
+      <c r="KM23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22079,8 +22148,11 @@
       <c r="KL24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KM24" t="n">
+      <c r="KM24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22980,8 +23052,11 @@
       <c r="KL25" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KM25" t="n">
+      <c r="KM25" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>52.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23881,8 +23956,11 @@
       <c r="KL26" s="2" t="n">
         <v>21.19</v>
       </c>
-      <c r="KM26" t="n">
+      <c r="KM26" s="2" t="n">
         <v>36.1</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24782,8 +24860,11 @@
       <c r="KL27" s="2" t="n">
         <v>13.04</v>
       </c>
-      <c r="KM27" t="n">
+      <c r="KM27" s="2" t="n">
         <v>16.41</v>
+      </c>
+      <c r="KN27" t="n">
+        <v>14.61</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25683,8 +25764,11 @@
       <c r="KL28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KM28" t="n">
+      <c r="KM28" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KN28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26584,8 +26668,11 @@
       <c r="KL29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KM29" t="n">
+      <c r="KM29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KN29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27485,8 +27572,11 @@
       <c r="KL30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KM30" t="n">
+      <c r="KM30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KN30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28386,8 +28476,11 @@
       <c r="KL31" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KM31" t="n">
+      <c r="KM31" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KN31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29287,8 +29380,11 @@
       <c r="KL32" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="KM32" t="n">
+      <c r="KM32" s="2" t="n">
         <v>2.82</v>
+      </c>
+      <c r="KN32" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30188,8 +30284,11 @@
       <c r="KL33" s="2" t="n">
         <v>3.94</v>
       </c>
-      <c r="KM33" t="n">
+      <c r="KM33" s="2" t="n">
         <v>6.2</v>
+      </c>
+      <c r="KN33" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31089,8 +31188,11 @@
       <c r="KL34" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="KM34" t="n">
+      <c r="KM34" s="2" t="n">
         <v>32.3</v>
+      </c>
+      <c r="KN34" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31990,8 +32092,11 @@
       <c r="KL35" s="2" t="n">
         <v>25.4</v>
       </c>
-      <c r="KM35" t="n">
+      <c r="KM35" s="2" t="n">
         <v>16.1</v>
+      </c>
+      <c r="KN35" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32891,8 +32996,11 @@
       <c r="KL36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="KM36" t="n">
+      <c r="KM36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="KN36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33792,8 +33900,11 @@
       <c r="KL37" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KM37" t="n">
+      <c r="KM37" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="KN37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34693,8 +34804,11 @@
       <c r="KL38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KM38" t="n">
+      <c r="KM38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KN38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35594,8 +35708,11 @@
       <c r="KL39" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KM39" t="n">
+      <c r="KM39" s="2" t="n">
         <v>101.5</v>
+      </c>
+      <c r="KN39" t="n">
+        <v>104.9</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36495,8 +36612,11 @@
       <c r="KL40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KM40" t="n">
+      <c r="KM40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KN40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37396,8 +37516,11 @@
       <c r="KL41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KM41" t="n">
+      <c r="KM41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KN41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38297,7 +38420,10 @@
       <c r="KL42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM42" t="n">
+      <c r="KM42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39198,7 +39324,10 @@
       <c r="KL43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM43" t="n">
+      <c r="KM43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KN43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40099,8 +40228,11 @@
       <c r="KL44" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="KM44" t="n">
+      <c r="KM44" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="KN44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41000,8 +41132,11 @@
       <c r="KL45" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KM45" t="n">
+      <c r="KM45" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KN45" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41901,8 +42036,11 @@
       <c r="KL46" s="2" t="n">
         <v>240</v>
       </c>
-      <c r="KM46" t="n">
+      <c r="KM46" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KN46" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42802,8 +42940,11 @@
       <c r="KL47" s="2" t="n">
         <v>70.8</v>
       </c>
-      <c r="KM47" t="n">
+      <c r="KM47" s="2" t="n">
         <v>70.09999999999999</v>
+      </c>
+      <c r="KN47" t="n">
+        <v>69.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43703,8 +43844,11 @@
       <c r="KL48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KM48" t="n">
+      <c r="KM48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KN48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44604,8 +44748,11 @@
       <c r="KL49" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KM49" t="n">
+      <c r="KM49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45505,8 +45652,11 @@
       <c r="KL50" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KM50" t="n">
+      <c r="KM50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KN50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46406,8 +46556,11 @@
       <c r="KL51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KM51" t="n">
+      <c r="KM51" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KN51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47307,8 +47460,11 @@
       <c r="KL52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KM52" t="n">
+      <c r="KM52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KN52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48208,8 +48364,11 @@
       <c r="KL53" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KM53" t="n">
+      <c r="KM53" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KN53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49109,7 +49268,10 @@
       <c r="KL54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KM54" t="n">
+      <c r="KM54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -50010,8 +50172,11 @@
       <c r="KL55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KM55" t="n">
+      <c r="KM55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50911,8 +51076,11 @@
       <c r="KL56" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KM56" t="n">
+      <c r="KM56" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KN56" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51812,7 +51980,10 @@
       <c r="KL57" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KM57" t="n">
+      <c r="KM57" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="KN57" t="n">
         <v>203</v>
       </c>
     </row>
@@ -52713,8 +52884,11 @@
       <c r="KL58" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="KM58" t="n">
+      <c r="KM58" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="KN58" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53614,8 +53788,11 @@
       <c r="KL59" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="KM59" t="n">
+      <c r="KM59" s="2" t="n">
         <v>353</v>
+      </c>
+      <c r="KN59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54515,8 +54692,11 @@
       <c r="KL60" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="KM60" t="n">
+      <c r="KM60" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="KN60" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55416,8 +55596,11 @@
       <c r="KL61" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KM61" t="n">
+      <c r="KM61" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KN61" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56317,8 +56500,11 @@
       <c r="KL62" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KM62" t="n">
+      <c r="KM62" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KN62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57218,8 +57404,11 @@
       <c r="KL63" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KM63" t="n">
+      <c r="KM63" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KN63" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58119,8 +58308,11 @@
       <c r="KL64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KM64" t="n">
+      <c r="KM64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KN64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59020,8 +59212,11 @@
       <c r="KL65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KM65" t="n">
+      <c r="KM65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KN65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59921,8 +60116,11 @@
       <c r="KL66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KM66" t="n">
+      <c r="KM66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KN66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60822,8 +61020,11 @@
       <c r="KL67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KM67" t="n">
+      <c r="KM67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61723,8 +61924,11 @@
       <c r="KL68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM68" t="n">
+      <c r="KM68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KN68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62624,8 +62828,11 @@
       <c r="KL69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KM69" t="n">
+      <c r="KM69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KN69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63525,8 +63732,11 @@
       <c r="KL70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KM70" t="n">
+      <c r="KM70" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KN70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64426,8 +64636,11 @@
       <c r="KL71" s="2" t="n">
         <v>61.1</v>
       </c>
-      <c r="KM71" t="n">
+      <c r="KM71" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KN71" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65327,8 +65540,11 @@
       <c r="KL72" s="2" t="n">
         <v>31.82</v>
       </c>
-      <c r="KM72" t="n">
+      <c r="KM72" s="2" t="n">
         <v>19.61</v>
+      </c>
+      <c r="KN72" t="n">
+        <v>26.92</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66228,8 +66444,11 @@
       <c r="KL73" s="2" t="n">
         <v>19.44</v>
       </c>
-      <c r="KM73" t="n">
+      <c r="KM73" s="2" t="n">
         <v>11.03</v>
+      </c>
+      <c r="KN73" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67129,8 +67348,11 @@
       <c r="KL74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KM74" t="n">
+      <c r="KM74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KN74" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68030,8 +68252,11 @@
       <c r="KL75" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KM75" t="n">
+      <c r="KM75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KN75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68931,8 +69156,11 @@
       <c r="KL76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KM76" t="n">
+      <c r="KM76" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KN76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69832,8 +70060,11 @@
       <c r="KL77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KM77" t="n">
+      <c r="KM77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KN77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70733,8 +70964,11 @@
       <c r="KL78" s="2" t="n">
         <v>2.83</v>
       </c>
-      <c r="KM78" t="n">
+      <c r="KM78" s="2" t="n">
         <v>1.84</v>
+      </c>
+      <c r="KN78" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71634,8 +71868,11 @@
       <c r="KL79" s="2" t="n">
         <v>4.64</v>
       </c>
-      <c r="KM79" t="n">
+      <c r="KM79" s="2" t="n">
         <v>3.28</v>
+      </c>
+      <c r="KN79" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72535,8 +72772,11 @@
       <c r="KL80" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="KM80" t="n">
+      <c r="KM80" s="2" t="n">
         <v>50.8</v>
+      </c>
+      <c r="KN80" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73436,8 +73676,11 @@
       <c r="KL81" s="2" t="n">
         <v>21.6</v>
       </c>
-      <c r="KM81" t="n">
+      <c r="KM81" s="2" t="n">
         <v>30.5</v>
+      </c>
+      <c r="KN81" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74337,8 +74580,11 @@
       <c r="KL82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KM82" t="n">
+      <c r="KM82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KN82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75238,8 +75484,11 @@
       <c r="KL83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="KM83" t="n">
+      <c r="KM83" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KN83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76139,8 +76388,11 @@
       <c r="KL84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KM84" t="n">
+      <c r="KM84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KN84" t="n">
+        <v>27.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77040,8 +77292,11 @@
       <c r="KL85" s="2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="KM85" t="n">
+      <c r="KM85" s="2" t="n">
         <v>92.40000000000001</v>
+      </c>
+      <c r="KN85" t="n">
+        <v>140.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77941,8 +78196,11 @@
       <c r="KL86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM86" t="n">
+      <c r="KM86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KN86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78842,8 +79100,11 @@
       <c r="KL87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM87" t="n">
+      <c r="KM87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KN87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79743,8 +80004,11 @@
       <c r="KL88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM88" t="n">
+      <c r="KM88" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80644,8 +80908,11 @@
       <c r="KL89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM89" t="n">
+      <c r="KM89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KN89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81545,8 +81812,11 @@
       <c r="KL90" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KM90" t="n">
+      <c r="KM90" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KN90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82446,8 +82716,11 @@
       <c r="KL91" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KM91" t="n">
+      <c r="KM91" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="KN91" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83347,8 +83620,11 @@
       <c r="KL92" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KM92" t="n">
+      <c r="KM92" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KN92" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84248,8 +84524,11 @@
       <c r="KL93" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="KM93" t="n">
+      <c r="KM93" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="KN93" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85149,8 +85428,11 @@
       <c r="KL94" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KM94" t="n">
+      <c r="KM94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KN94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86050,8 +86332,11 @@
       <c r="KL95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KM95" t="n">
+      <c r="KM95" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KN95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86951,8 +87236,11 @@
       <c r="KL96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM96" t="n">
+      <c r="KM96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KN96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87852,8 +88140,11 @@
       <c r="KL97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KM97" t="n">
+      <c r="KM97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KN97" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88753,8 +89044,11 @@
       <c r="KL98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KM98" t="n">
+      <c r="KM98" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KN98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89654,8 +89948,11 @@
       <c r="KL99" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KM99" t="n">
+      <c r="KM99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KN99" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90555,8 +90852,11 @@
       <c r="KL100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KM100" t="n">
+      <c r="KM100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KN100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91456,8 +91756,11 @@
       <c r="KL101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KM101" t="n">
+      <c r="KM101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92357,8 +92660,11 @@
       <c r="KL102" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="KM102" t="n">
+      <c r="KM102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KN102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1359,8 +1359,11 @@
       <c r="KM1" s="2" t="n">
         <v>10895</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="2" t="n">
         <v>10911</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>10920</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2263,7 +2266,10 @@
       <c r="KM2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3167,8 +3173,11 @@
       <c r="KM3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4071,8 +4080,11 @@
       <c r="KM4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4975,8 +4987,11 @@
       <c r="KM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5879,8 +5894,11 @@
       <c r="KM6" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6783,8 +6801,11 @@
       <c r="KM7" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7687,8 +7708,11 @@
       <c r="KM8" s="2" t="n">
         <v>-50</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="2" t="n">
         <v>-2</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>-47</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8591,7 +8615,10 @@
       <c r="KM9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9495,8 +9522,11 @@
       <c r="KM10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10399,8 +10429,11 @@
       <c r="KM11" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11303,8 +11336,11 @@
       <c r="KM12" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12207,8 +12243,11 @@
       <c r="KM13" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="2" t="n">
         <v>336</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13111,8 +13150,11 @@
       <c r="KM14" s="2" t="n">
         <v>1.21</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="2" t="n">
         <v>1.85</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14015,8 +14057,11 @@
       <c r="KM15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14919,8 +14964,11 @@
       <c r="KM16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15823,8 +15871,11 @@
       <c r="KM17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16727,8 +16778,11 @@
       <c r="KM18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17631,8 +17685,11 @@
       <c r="KM19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18535,8 +18592,11 @@
       <c r="KM20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19439,8 +19499,11 @@
       <c r="KM21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20343,8 +20406,11 @@
       <c r="KM22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21247,8 +21313,11 @@
       <c r="KM23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22151,8 +22220,11 @@
       <c r="KM24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23055,8 +23127,11 @@
       <c r="KM25" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="2" t="n">
         <v>52.2</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23959,8 +24034,11 @@
       <c r="KM26" s="2" t="n">
         <v>36.1</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>35.56</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24863,8 +24941,11 @@
       <c r="KM27" s="2" t="n">
         <v>16.41</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="2" t="n">
         <v>14.61</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25767,8 +25848,11 @@
       <c r="KM28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KO28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26671,8 +26755,11 @@
       <c r="KM29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27575,8 +27662,11 @@
       <c r="KM30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28479,8 +28569,11 @@
       <c r="KM31" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29383,8 +29476,11 @@
       <c r="KM32" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="2" t="n">
         <v>2.48</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30287,8 +30383,11 @@
       <c r="KM33" s="2" t="n">
         <v>6.2</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="2" t="n">
         <v>4.75</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>7.22</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31191,8 +31290,11 @@
       <c r="KM34" s="2" t="n">
         <v>32.3</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32095,8 +32197,11 @@
       <c r="KM35" s="2" t="n">
         <v>16.1</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="2" t="n">
         <v>21.1</v>
+      </c>
+      <c r="KO35" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32999,8 +33104,11 @@
       <c r="KM36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KO36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33903,8 +34011,11 @@
       <c r="KM37" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KO37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34807,8 +34918,11 @@
       <c r="KM38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KO38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35711,8 +35825,11 @@
       <c r="KM39" s="2" t="n">
         <v>101.5</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="2" t="n">
         <v>104.9</v>
+      </c>
+      <c r="KO39" t="n">
+        <v>104.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36615,8 +36732,11 @@
       <c r="KM40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37519,8 +37639,11 @@
       <c r="KM41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38423,7 +38546,10 @@
       <c r="KM42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39327,8 +39453,11 @@
       <c r="KM43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40231,8 +40360,11 @@
       <c r="KM44" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41135,8 +41267,11 @@
       <c r="KM45" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="2" t="n">
         <v>180</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42039,8 +42174,11 @@
       <c r="KM46" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="KO46" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42943,8 +43081,11 @@
       <c r="KM47" s="2" t="n">
         <v>70.09999999999999</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="2" t="n">
         <v>69.3</v>
+      </c>
+      <c r="KO47" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43847,8 +43988,11 @@
       <c r="KM48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KO48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44751,8 +44895,11 @@
       <c r="KM49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45655,8 +45802,11 @@
       <c r="KM50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46559,8 +46709,11 @@
       <c r="KM51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KO51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47463,8 +47616,11 @@
       <c r="KM52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48367,8 +48523,11 @@
       <c r="KM53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49271,8 +49430,11 @@
       <c r="KM54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KO54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50175,8 +50337,11 @@
       <c r="KM55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51079,8 +51244,11 @@
       <c r="KM56" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="KO56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51983,8 +52151,11 @@
       <c r="KM57" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="2" t="n">
         <v>203</v>
+      </c>
+      <c r="KO57" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52887,8 +53058,11 @@
       <c r="KM58" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KO58" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53791,8 +53965,11 @@
       <c r="KM59" s="2" t="n">
         <v>353</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="KO59" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54695,8 +54872,11 @@
       <c r="KM60" s="2" t="n">
         <v>1.35</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="KO60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55599,8 +55779,11 @@
       <c r="KM61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KO61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56503,8 +56686,11 @@
       <c r="KM62" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KO62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57407,8 +57593,11 @@
       <c r="KM63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KO63" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58311,8 +58500,11 @@
       <c r="KM64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KO64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59215,8 +59407,11 @@
       <c r="KM65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60119,8 +60314,11 @@
       <c r="KM66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61023,8 +61221,11 @@
       <c r="KM67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61927,8 +62128,11 @@
       <c r="KM68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO68" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62831,8 +63035,11 @@
       <c r="KM69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KO69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63735,8 +63942,11 @@
       <c r="KM70" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO70" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64639,8 +64849,11 @@
       <c r="KM71" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KO71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65543,8 +65756,11 @@
       <c r="KM72" s="2" t="n">
         <v>19.61</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="2" t="n">
         <v>26.92</v>
+      </c>
+      <c r="KO72" t="n">
+        <v>24.19</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66447,8 +66663,11 @@
       <c r="KM73" s="2" t="n">
         <v>11.03</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="KO73" t="n">
+        <v>12.09</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67351,8 +67570,11 @@
       <c r="KM74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KO74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68255,8 +68477,11 @@
       <c r="KM75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KO75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69159,8 +69384,11 @@
       <c r="KM76" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KO76" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70063,8 +70291,11 @@
       <c r="KM77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KO77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70967,8 +71198,11 @@
       <c r="KM78" s="2" t="n">
         <v>1.84</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="2" t="n">
         <v>2.2</v>
+      </c>
+      <c r="KO78" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71871,8 +72105,11 @@
       <c r="KM79" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="2" t="n">
         <v>3.38</v>
+      </c>
+      <c r="KO79" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72775,8 +73012,11 @@
       <c r="KM80" s="2" t="n">
         <v>50.8</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="2" t="n">
         <v>38.6</v>
+      </c>
+      <c r="KO80" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73679,8 +73919,11 @@
       <c r="KM81" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="2" t="n">
         <v>29.5</v>
+      </c>
+      <c r="KO81" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74583,8 +74826,11 @@
       <c r="KM82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KO82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75487,8 +75733,11 @@
       <c r="KM83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KO83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76391,8 +76640,11 @@
       <c r="KM84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="2" t="n">
         <v>27.74</v>
+      </c>
+      <c r="KO84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77295,8 +77547,11 @@
       <c r="KM85" s="2" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="2" t="n">
         <v>140.3</v>
+      </c>
+      <c r="KO85" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78199,8 +78454,11 @@
       <c r="KM86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79103,8 +79361,11 @@
       <c r="KM87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80007,7 +80268,10 @@
       <c r="KM88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -80911,8 +81175,11 @@
       <c r="KM89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KO89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81815,8 +82082,11 @@
       <c r="KM90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="KO90" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82719,8 +82989,11 @@
       <c r="KM91" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="KO91" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83623,8 +83896,11 @@
       <c r="KM92" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="KO92" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84527,8 +84803,11 @@
       <c r="KM93" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KO93" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85431,8 +85710,11 @@
       <c r="KM94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KO94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86335,8 +86617,11 @@
       <c r="KM95" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87239,8 +87524,11 @@
       <c r="KM96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88143,8 +88431,11 @@
       <c r="KM97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KO97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89047,8 +89338,11 @@
       <c r="KM98" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KO98" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89951,8 +90245,11 @@
       <c r="KM99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KO99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90855,8 +91152,11 @@
       <c r="KM100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91759,8 +92059,11 @@
       <c r="KM101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KO101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92663,8 +92966,11 @@
       <c r="KM102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KO102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KO102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1362,8 +1362,11 @@
       <c r="KN1" s="2" t="n">
         <v>10911</v>
       </c>
-      <c r="KO1" t="n">
+      <c r="KO1" s="2" t="n">
         <v>10920</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>10923</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2269,7 +2272,10 @@
       <c r="KN2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3176,8 +3182,11 @@
       <c r="KN3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KO3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4083,7 +4092,10 @@
       <c r="KN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,7 +5002,10 @@
       <c r="KN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5897,8 +5912,11 @@
       <c r="KN6" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KO6" t="n">
+      <c r="KO6" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6804,8 +6822,11 @@
       <c r="KN7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KO7" t="n">
+      <c r="KO7" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7711,8 +7732,11 @@
       <c r="KN8" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="KO8" t="n">
+      <c r="KO8" s="2" t="n">
         <v>-47</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8618,7 +8642,10 @@
       <c r="KN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO9" t="n">
+      <c r="KO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9525,8 +9552,11 @@
       <c r="KN10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO10" t="n">
+      <c r="KO10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10432,8 +10462,11 @@
       <c r="KN11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KO11" t="n">
+      <c r="KO11" s="2" t="n">
         <v>196</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11339,7 +11372,10 @@
       <c r="KN12" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KO12" t="n">
+      <c r="KO12" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="KP12" t="n">
         <v>124</v>
       </c>
     </row>
@@ -12246,8 +12282,11 @@
       <c r="KN13" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="KO13" t="n">
+      <c r="KO13" s="2" t="n">
         <v>320</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13153,8 +13192,11 @@
       <c r="KN14" s="2" t="n">
         <v>1.85</v>
       </c>
-      <c r="KO14" t="n">
+      <c r="KO14" s="2" t="n">
         <v>1.58</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14060,8 +14102,11 @@
       <c r="KN15" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KO15" t="n">
+      <c r="KO15" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14967,8 +15012,11 @@
       <c r="KN16" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="KO16" t="n">
+      <c r="KO16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15874,8 +15922,11 @@
       <c r="KN17" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KO17" t="n">
+      <c r="KO17" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16781,8 +16832,11 @@
       <c r="KN18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO18" t="n">
+      <c r="KO18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17688,8 +17742,11 @@
       <c r="KN19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KO19" t="n">
+      <c r="KO19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18595,8 +18652,11 @@
       <c r="KN20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO20" t="n">
+      <c r="KO20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19502,8 +19562,11 @@
       <c r="KN21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO21" t="n">
+      <c r="KO21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20409,8 +20472,11 @@
       <c r="KN22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO22" t="n">
+      <c r="KO22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21316,8 +21382,11 @@
       <c r="KN23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KO23" t="n">
+      <c r="KO23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22223,8 +22292,11 @@
       <c r="KN24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KO24" t="n">
+      <c r="KO24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23130,8 +23202,11 @@
       <c r="KN25" s="2" t="n">
         <v>52.2</v>
       </c>
-      <c r="KO25" t="n">
+      <c r="KO25" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24037,8 +24112,11 @@
       <c r="KN26" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KO26" t="n">
+      <c r="KO26" s="2" t="n">
         <v>35.56</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>27.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24944,8 +25022,11 @@
       <c r="KN27" s="2" t="n">
         <v>14.61</v>
       </c>
-      <c r="KO27" t="n">
+      <c r="KO27" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>13.12</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25851,8 +25932,11 @@
       <c r="KN28" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KO28" t="n">
+      <c r="KO28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26758,8 +26842,11 @@
       <c r="KN29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KO29" t="n">
+      <c r="KO29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27665,8 +27752,11 @@
       <c r="KN30" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KO30" t="n">
+      <c r="KO30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28572,8 +28662,11 @@
       <c r="KN31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KO31" t="n">
+      <c r="KO31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KP31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29479,8 +29572,11 @@
       <c r="KN32" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="KO32" t="n">
+      <c r="KO32" s="2" t="n">
         <v>3.25</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30386,8 +30482,11 @@
       <c r="KN33" s="2" t="n">
         <v>4.75</v>
       </c>
-      <c r="KO33" t="n">
+      <c r="KO33" s="2" t="n">
         <v>7.22</v>
+      </c>
+      <c r="KP33" t="n">
+        <v>4.17</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31293,8 +31392,11 @@
       <c r="KN34" s="2" t="n">
         <v>36.8</v>
       </c>
-      <c r="KO34" t="n">
+      <c r="KO34" s="2" t="n">
         <v>29.2</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32200,8 +32302,11 @@
       <c r="KN35" s="2" t="n">
         <v>21.1</v>
       </c>
-      <c r="KO35" t="n">
+      <c r="KO35" s="2" t="n">
         <v>13.8</v>
+      </c>
+      <c r="KP35" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33107,8 +33212,11 @@
       <c r="KN36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="KO36" t="n">
+      <c r="KO36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KP36" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34014,8 +34122,11 @@
       <c r="KN37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KO37" t="n">
+      <c r="KO37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KP37" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34921,8 +35032,11 @@
       <c r="KN38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KO38" t="n">
+      <c r="KO38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KP38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35828,8 +35942,11 @@
       <c r="KN39" s="2" t="n">
         <v>104.9</v>
       </c>
-      <c r="KO39" t="n">
+      <c r="KO39" s="2" t="n">
         <v>104.1</v>
+      </c>
+      <c r="KP39" t="n">
+        <v>97.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36735,8 +36852,11 @@
       <c r="KN40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO40" t="n">
+      <c r="KO40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37642,7 +37762,10 @@
       <c r="KN41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO41" t="n">
+      <c r="KO41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38549,8 +38672,11 @@
       <c r="KN42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO42" t="n">
+      <c r="KO42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39456,7 +39582,10 @@
       <c r="KN43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO43" t="n">
+      <c r="KO43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40363,8 +40492,11 @@
       <c r="KN44" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KO44" t="n">
+      <c r="KO44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41270,8 +41402,11 @@
       <c r="KN45" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="KO45" t="n">
+      <c r="KO45" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42177,8 +42312,11 @@
       <c r="KN46" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="KO46" t="n">
+      <c r="KO46" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="KP46" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43084,8 +43222,11 @@
       <c r="KN47" s="2" t="n">
         <v>69.3</v>
       </c>
-      <c r="KO47" t="n">
+      <c r="KO47" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="KP47" t="n">
+        <v>73.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43991,8 +44132,11 @@
       <c r="KN48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KO48" t="n">
+      <c r="KO48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KP48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44898,8 +45042,11 @@
       <c r="KN49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO49" t="n">
+      <c r="KO49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KP49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45805,8 +45952,11 @@
       <c r="KN50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KO50" t="n">
+      <c r="KO50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP50" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46712,8 +46862,11 @@
       <c r="KN51" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KO51" t="n">
+      <c r="KO51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KP51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47619,8 +47772,11 @@
       <c r="KN52" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KO52" t="n">
+      <c r="KO52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48526,8 +48682,11 @@
       <c r="KN53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KO53" t="n">
+      <c r="KO53" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49433,8 +49592,11 @@
       <c r="KN54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KO54" t="n">
+      <c r="KO54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50340,8 +50502,11 @@
       <c r="KN55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO55" t="n">
+      <c r="KO55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51247,8 +51412,11 @@
       <c r="KN56" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="KO56" t="n">
+      <c r="KO56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KP56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52154,8 +52322,11 @@
       <c r="KN57" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="KO57" t="n">
+      <c r="KO57" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="KP57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53061,8 +53232,11 @@
       <c r="KN58" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KO58" t="n">
+      <c r="KO58" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="KP58" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53968,8 +54142,11 @@
       <c r="KN59" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="KO59" t="n">
+      <c r="KO59" s="2" t="n">
         <v>387</v>
+      </c>
+      <c r="KP59" t="n">
+        <v>332</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54875,8 +55052,11 @@
       <c r="KN60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KO60" t="n">
+      <c r="KO60" s="2" t="n">
         <v>1.48</v>
+      </c>
+      <c r="KP60" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55782,8 +55962,11 @@
       <c r="KN61" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KO61" t="n">
+      <c r="KO61" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KP61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56689,8 +56872,11 @@
       <c r="KN62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KO62" t="n">
+      <c r="KO62" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KP62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57596,8 +57782,11 @@
       <c r="KN63" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KO63" t="n">
+      <c r="KO63" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58503,8 +58692,11 @@
       <c r="KN64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KO64" t="n">
+      <c r="KO64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KP64" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59410,8 +59602,11 @@
       <c r="KN65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO65" t="n">
+      <c r="KO65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60317,8 +60512,11 @@
       <c r="KN66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO66" t="n">
+      <c r="KO66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KP66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61224,8 +61422,11 @@
       <c r="KN67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO67" t="n">
+      <c r="KO67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KP67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62131,8 +62332,11 @@
       <c r="KN68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO68" t="n">
+      <c r="KO68" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KP68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63038,8 +63242,11 @@
       <c r="KN69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO69" t="n">
+      <c r="KO69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KP69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63945,8 +64152,11 @@
       <c r="KN70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO70" t="n">
+      <c r="KO70" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KP70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64852,8 +65062,11 @@
       <c r="KN71" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KO71" t="n">
+      <c r="KO71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP71" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65759,8 +65972,11 @@
       <c r="KN72" s="2" t="n">
         <v>26.92</v>
       </c>
-      <c r="KO72" t="n">
+      <c r="KO72" s="2" t="n">
         <v>24.19</v>
+      </c>
+      <c r="KP72" t="n">
+        <v>23.71</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66666,8 +66882,11 @@
       <c r="KN73" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="KO73" t="n">
+      <c r="KO73" s="2" t="n">
         <v>12.09</v>
+      </c>
+      <c r="KP73" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67573,8 +67792,11 @@
       <c r="KN74" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KO74" t="n">
+      <c r="KO74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68480,8 +68702,11 @@
       <c r="KN75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KO75" t="n">
+      <c r="KO75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KP75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69387,8 +69612,11 @@
       <c r="KN76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO76" t="n">
+      <c r="KO76" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KP76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70294,8 +70522,11 @@
       <c r="KN77" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO77" t="n">
+      <c r="KO77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71201,8 +71432,11 @@
       <c r="KN78" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="KO78" t="n">
+      <c r="KO78" s="2" t="n">
         <v>1.75</v>
+      </c>
+      <c r="KP78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72108,7 +72342,10 @@
       <c r="KN79" s="2" t="n">
         <v>3.38</v>
       </c>
-      <c r="KO79" t="n">
+      <c r="KO79" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="KP79" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -73015,8 +73252,11 @@
       <c r="KN80" s="2" t="n">
         <v>38.6</v>
       </c>
-      <c r="KO80" t="n">
+      <c r="KO80" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="KP80" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73922,7 +74162,10 @@
       <c r="KN81" s="2" t="n">
         <v>29.5</v>
       </c>
-      <c r="KO81" t="n">
+      <c r="KO81" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="KP81" t="n">
         <v>28.6</v>
       </c>
     </row>
@@ -74829,8 +75072,11 @@
       <c r="KN82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="KO82" t="n">
+      <c r="KO82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KP82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75736,8 +75982,11 @@
       <c r="KN83" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KO83" t="n">
+      <c r="KO83" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KP83" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76643,8 +76892,11 @@
       <c r="KN84" s="2" t="n">
         <v>27.74</v>
       </c>
-      <c r="KO84" t="n">
+      <c r="KO84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KP84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77550,8 +77802,11 @@
       <c r="KN85" s="2" t="n">
         <v>140.3</v>
       </c>
-      <c r="KO85" t="n">
+      <c r="KO85" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="KP85" t="n">
+        <v>137.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78457,8 +78712,11 @@
       <c r="KN86" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO86" t="n">
+      <c r="KO86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KP86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79364,8 +79622,11 @@
       <c r="KN87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO87" t="n">
+      <c r="KO87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80271,8 +80532,11 @@
       <c r="KN88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO88" t="n">
+      <c r="KO88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81178,8 +81442,11 @@
       <c r="KN89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KO89" t="n">
+      <c r="KO89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82085,8 +82352,11 @@
       <c r="KN90" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="KO90" t="n">
+      <c r="KO90" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KP90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82992,8 +83262,11 @@
       <c r="KN91" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KO91" t="n">
+      <c r="KO91" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KP91" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83899,8 +84172,11 @@
       <c r="KN92" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KO92" t="n">
+      <c r="KO92" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="KP92" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84806,8 +85082,11 @@
       <c r="KN93" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KO93" t="n">
+      <c r="KO93" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KP93" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85713,8 +85992,11 @@
       <c r="KN94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="KO94" t="n">
+      <c r="KO94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KP94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86620,8 +86902,11 @@
       <c r="KN95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO95" t="n">
+      <c r="KO95" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KP95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87527,8 +87812,11 @@
       <c r="KN96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO96" t="n">
+      <c r="KO96" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KP96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88434,8 +88722,11 @@
       <c r="KN97" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KO97" t="n">
+      <c r="KO97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KP97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89341,8 +89632,11 @@
       <c r="KN98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO98" t="n">
+      <c r="KO98" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KP98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90248,8 +90542,11 @@
       <c r="KN99" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KO99" t="n">
+      <c r="KO99" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KP99" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91155,8 +91452,11 @@
       <c r="KN100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO100" t="n">
+      <c r="KO100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92062,8 +92362,11 @@
       <c r="KN101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KO101" t="n">
+      <c r="KO101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KP101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92969,8 +93272,11 @@
       <c r="KN102" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KO102" t="n">
+      <c r="KO102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KP102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1365,8 +1365,11 @@
       <c r="KO1" s="2" t="n">
         <v>10920</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
         <v>10923</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>10938</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2275,7 +2278,10 @@
       <c r="KO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3185,8 +3191,11 @@
       <c r="KO3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4095,8 +4104,11 @@
       <c r="KO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5005,7 +5017,10 @@
       <c r="KO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5915,8 +5930,11 @@
       <c r="KO6" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="KQ6" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6825,8 +6843,11 @@
       <c r="KO7" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KQ7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7735,8 +7756,11 @@
       <c r="KO8" s="2" t="n">
         <v>-47</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
         <v>-12</v>
+      </c>
+      <c r="KQ8" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8645,8 +8669,11 @@
       <c r="KO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KQ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9555,8 +9582,11 @@
       <c r="KO10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10465,8 +10495,11 @@
       <c r="KO11" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11375,8 +11408,11 @@
       <c r="KO12" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="KQ12" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12285,8 +12321,11 @@
       <c r="KO13" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
         <v>328</v>
+      </c>
+      <c r="KQ13" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13195,8 +13234,11 @@
       <c r="KO14" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14105,8 +14147,11 @@
       <c r="KO15" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15015,8 +15060,11 @@
       <c r="KO16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15925,8 +15973,11 @@
       <c r="KO17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16835,8 +16886,11 @@
       <c r="KO18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KQ18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17745,8 +17799,11 @@
       <c r="KO19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18655,8 +18712,11 @@
       <c r="KO20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KQ20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19565,8 +19625,11 @@
       <c r="KO21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ21" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20475,7 +20538,10 @@
       <c r="KO22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KQ22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -21385,8 +21451,11 @@
       <c r="KO23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22295,8 +22364,11 @@
       <c r="KO24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KQ24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23205,8 +23277,11 @@
       <c r="KO25" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KQ25" t="n">
+        <v>67.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24115,8 +24190,11 @@
       <c r="KO26" s="2" t="n">
         <v>35.56</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
         <v>27.33</v>
+      </c>
+      <c r="KQ26" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25025,8 +25103,11 @@
       <c r="KO27" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
         <v>13.12</v>
+      </c>
+      <c r="KQ27" t="n">
+        <v>11.45</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25935,8 +26016,11 @@
       <c r="KO28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KQ28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26845,8 +26929,11 @@
       <c r="KO29" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KQ29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27755,8 +27842,11 @@
       <c r="KO30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28665,8 +28755,11 @@
       <c r="KO31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KQ31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29575,8 +29668,11 @@
       <c r="KO32" s="2" t="n">
         <v>3.25</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KQ32" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30485,8 +30581,11 @@
       <c r="KO33" s="2" t="n">
         <v>7.22</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
         <v>4.17</v>
+      </c>
+      <c r="KQ33" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31395,8 +31494,11 @@
       <c r="KO34" s="2" t="n">
         <v>29.2</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KQ34" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32305,8 +32407,11 @@
       <c r="KO35" s="2" t="n">
         <v>13.8</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KQ35" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33215,8 +33320,11 @@
       <c r="KO36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="KQ36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34125,8 +34233,11 @@
       <c r="KO37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
         <v>84.7</v>
+      </c>
+      <c r="KQ37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35035,8 +35146,11 @@
       <c r="KO38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KQ38" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35945,8 +36059,11 @@
       <c r="KO39" s="2" t="n">
         <v>104.1</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
         <v>97.5</v>
+      </c>
+      <c r="KQ39" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36855,8 +36972,11 @@
       <c r="KO40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37765,8 +37885,11 @@
       <c r="KO41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38675,8 +38798,11 @@
       <c r="KO42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39585,8 +39711,11 @@
       <c r="KO43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40495,8 +40624,11 @@
       <c r="KO44" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="KQ44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41405,8 +41537,11 @@
       <c r="KO45" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="KQ45" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42315,8 +42450,11 @@
       <c r="KO46" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="KQ46" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43225,8 +43363,11 @@
       <c r="KO47" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
         <v>73.5</v>
+      </c>
+      <c r="KQ47" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44135,8 +44276,11 @@
       <c r="KO48" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KQ48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45045,8 +45189,11 @@
       <c r="KO49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45955,8 +46102,11 @@
       <c r="KO50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KQ50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46865,8 +47015,11 @@
       <c r="KO51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KQ51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47775,8 +47928,11 @@
       <c r="KO52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48685,8 +48841,11 @@
       <c r="KO53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KQ53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49595,8 +49754,11 @@
       <c r="KO54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50505,8 +50667,11 @@
       <c r="KO55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ55" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51415,8 +51580,11 @@
       <c r="KO56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KQ56" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52325,8 +52493,11 @@
       <c r="KO57" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KQ57" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53235,8 +53406,11 @@
       <c r="KO58" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="KQ58" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54145,8 +54319,11 @@
       <c r="KO59" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
         <v>332</v>
+      </c>
+      <c r="KQ59" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55055,8 +55232,11 @@
       <c r="KO60" s="2" t="n">
         <v>1.48</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
         <v>1.61</v>
+      </c>
+      <c r="KQ60" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55965,8 +56145,11 @@
       <c r="KO61" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KQ61" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56875,8 +57058,11 @@
       <c r="KO62" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KQ62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57785,7 +57971,10 @@
       <c r="KO63" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KQ63" t="n">
         <v>38</v>
       </c>
     </row>
@@ -58695,8 +58884,11 @@
       <c r="KO64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59605,8 +59797,11 @@
       <c r="KO65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KQ65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60515,8 +60710,11 @@
       <c r="KO66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61425,8 +61623,11 @@
       <c r="KO67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62335,8 +62536,11 @@
       <c r="KO68" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63245,8 +63449,11 @@
       <c r="KO69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64155,8 +64362,11 @@
       <c r="KO70" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KQ70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65065,8 +65275,11 @@
       <c r="KO71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
         <v>51.9</v>
+      </c>
+      <c r="KQ71" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65975,8 +66188,11 @@
       <c r="KO72" s="2" t="n">
         <v>24.19</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
         <v>23.71</v>
+      </c>
+      <c r="KQ72" t="n">
+        <v>27.54</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66885,8 +67101,11 @@
       <c r="KO73" s="2" t="n">
         <v>12.09</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
         <v>12.3</v>
+      </c>
+      <c r="KQ73" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67795,8 +68014,11 @@
       <c r="KO74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KQ74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68705,8 +68927,11 @@
       <c r="KO75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KQ75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69615,8 +69840,11 @@
       <c r="KO76" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KQ76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70525,8 +70753,11 @@
       <c r="KO77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KQ77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71435,8 +71666,11 @@
       <c r="KO78" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="KQ78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72345,8 +72579,11 @@
       <c r="KO79" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="KQ79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73255,8 +73492,11 @@
       <c r="KO80" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KQ80" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74165,8 +74405,11 @@
       <c r="KO81" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="KQ81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75075,8 +75318,11 @@
       <c r="KO82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="KQ82" t="n">
+        <v>189.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75985,8 +76231,11 @@
       <c r="KO83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="KQ83" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76895,8 +77144,11 @@
       <c r="KO84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
         <v>27.24</v>
+      </c>
+      <c r="KQ84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77805,8 +78057,11 @@
       <c r="KO85" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
         <v>137.6</v>
+      </c>
+      <c r="KQ85" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78715,8 +78970,11 @@
       <c r="KO86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79625,8 +79883,11 @@
       <c r="KO87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KQ87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80535,8 +80796,11 @@
       <c r="KO88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81445,8 +81709,11 @@
       <c r="KO89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KQ89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82355,8 +82622,11 @@
       <c r="KO90" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="KQ90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83265,8 +83535,11 @@
       <c r="KO91" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="KQ91" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84175,8 +84448,11 @@
       <c r="KO92" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="KQ92" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85085,8 +85361,11 @@
       <c r="KO93" s="2" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="KQ93" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85995,8 +86274,11 @@
       <c r="KO94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KQ94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86905,7 +87187,10 @@
       <c r="KO95" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KQ95" t="n">
         <v>9</v>
       </c>
     </row>
@@ -87815,8 +88100,11 @@
       <c r="KO96" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KQ96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88725,8 +89013,11 @@
       <c r="KO97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KQ97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89635,8 +89926,11 @@
       <c r="KO98" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KQ98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90545,8 +90839,11 @@
       <c r="KO99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91455,8 +91752,11 @@
       <c r="KO100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KQ100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92365,8 +92665,11 @@
       <c r="KO101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93275,8 +93578,11 @@
       <c r="KO102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KQ102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1371,8 +1371,11 @@
       <c r="KQ1" s="2" t="n">
         <v>10938</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="2" t="n">
         <v>10948</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10956</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2287,7 +2290,10 @@
       <c r="KQ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3203,8 +3209,11 @@
       <c r="KQ3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4119,8 +4128,11 @@
       <c r="KQ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5035,8 +5047,11 @@
       <c r="KQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5951,8 +5966,11 @@
       <c r="KQ6" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6867,8 +6885,11 @@
       <c r="KQ7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7783,8 +7804,11 @@
       <c r="KQ8" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8699,7 +8723,10 @@
       <c r="KQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9615,8 +9642,11 @@
       <c r="KQ10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10531,8 +10561,11 @@
       <c r="KQ11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11447,8 +11480,11 @@
       <c r="KQ12" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12363,8 +12399,11 @@
       <c r="KQ13" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="2" t="n">
         <v>345</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13279,8 +13318,11 @@
       <c r="KQ14" s="2" t="n">
         <v>1.59</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14195,8 +14237,11 @@
       <c r="KQ15" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15111,8 +15156,11 @@
       <c r="KQ16" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16027,8 +16075,11 @@
       <c r="KQ17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16943,8 +16994,11 @@
       <c r="KQ18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17859,8 +17913,11 @@
       <c r="KQ19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18775,8 +18832,11 @@
       <c r="KQ20" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19691,8 +19751,11 @@
       <c r="KQ21" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20607,8 +20670,11 @@
       <c r="KQ22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KS22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21523,8 +21589,11 @@
       <c r="KQ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22439,8 +22508,11 @@
       <c r="KQ24" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23355,8 +23427,11 @@
       <c r="KQ25" s="2" t="n">
         <v>67.7</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="2" t="n">
         <v>57.9</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>44.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24271,8 +24346,11 @@
       <c r="KQ26" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="2" t="n">
         <v>31.36</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>27.92</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25187,8 +25265,11 @@
       <c r="KQ27" s="2" t="n">
         <v>11.45</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="2" t="n">
         <v>18.16</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>12.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26103,8 +26184,11 @@
       <c r="KQ28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27019,8 +27103,11 @@
       <c r="KQ29" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27935,8 +28022,11 @@
       <c r="KQ30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28851,8 +28941,11 @@
       <c r="KQ31" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29767,8 +29860,11 @@
       <c r="KQ32" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30683,8 +30779,11 @@
       <c r="KQ33" s="2" t="n">
         <v>3.1</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="2" t="n">
         <v>3.64</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31599,8 +31698,11 @@
       <c r="KQ34" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="2" t="n">
         <v>47.5</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32515,8 +32617,11 @@
       <c r="KQ35" s="2" t="n">
         <v>32.3</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="2" t="n">
         <v>27.5</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33431,8 +33536,11 @@
       <c r="KQ36" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34347,8 +34455,11 @@
       <c r="KQ37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35263,8 +35374,11 @@
       <c r="KQ38" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36179,8 +36293,11 @@
       <c r="KQ39" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>100.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37095,8 +37212,11 @@
       <c r="KQ40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38011,8 +38131,11 @@
       <c r="KQ41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KS41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38927,7 +39050,10 @@
       <c r="KQ42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39843,7 +39969,10 @@
       <c r="KQ43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40759,8 +40888,11 @@
       <c r="KQ44" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41675,8 +41807,11 @@
       <c r="KQ45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42591,8 +42726,11 @@
       <c r="KQ46" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43507,8 +43645,11 @@
       <c r="KQ47" s="2" t="n">
         <v>78.3</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44423,8 +44564,11 @@
       <c r="KQ48" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KS48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45339,7 +45483,10 @@
       <c r="KQ49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -46255,8 +46402,11 @@
       <c r="KQ50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47171,8 +47321,11 @@
       <c r="KQ51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48087,8 +48240,11 @@
       <c r="KQ52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49003,8 +49159,11 @@
       <c r="KQ53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49919,8 +50078,11 @@
       <c r="KQ54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50835,8 +50997,11 @@
       <c r="KQ55" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51751,8 +51916,11 @@
       <c r="KQ56" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52667,8 +52835,11 @@
       <c r="KQ57" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53583,8 +53754,11 @@
       <c r="KQ58" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54499,8 +54673,11 @@
       <c r="KQ59" s="2" t="n">
         <v>358</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="2" t="n">
         <v>366</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55415,8 +55592,11 @@
       <c r="KQ60" s="2" t="n">
         <v>1.05</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="2" t="n">
         <v>1.29</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -56331,8 +56511,11 @@
       <c r="KQ61" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57247,8 +57430,11 @@
       <c r="KQ62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58163,7 +58349,10 @@
       <c r="KQ63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS63" t="n">
         <v>40</v>
       </c>
     </row>
@@ -59079,8 +59268,11 @@
       <c r="KQ64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59995,8 +60187,11 @@
       <c r="KQ65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60911,7 +61106,10 @@
       <c r="KQ66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -61827,8 +62025,11 @@
       <c r="KQ67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62743,8 +62944,11 @@
       <c r="KQ68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63659,8 +63863,11 @@
       <c r="KQ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KS69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64575,8 +64782,11 @@
       <c r="KQ70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65491,8 +65701,11 @@
       <c r="KQ71" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -66407,8 +66620,11 @@
       <c r="KQ72" s="2" t="n">
         <v>27.54</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="2" t="n">
         <v>45.75</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>43.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -67323,8 +67539,11 @@
       <c r="KQ73" s="2" t="n">
         <v>17.9</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="2" t="n">
         <v>20.33</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>15.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -68239,7 +68458,10 @@
       <c r="KQ74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KS74" t="n">
         <v>31</v>
       </c>
     </row>
@@ -69155,8 +69377,11 @@
       <c r="KQ75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70071,8 +70296,11 @@
       <c r="KQ76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70987,8 +71215,11 @@
       <c r="KQ77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71903,8 +72134,11 @@
       <c r="KQ78" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="2" t="n">
         <v>2.56</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72819,8 +73053,11 @@
       <c r="KQ79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="2" t="n">
         <v>5.75</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>7.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73735,8 +73972,11 @@
       <c r="KQ80" s="2" t="n">
         <v>37.3</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74651,8 +74891,11 @@
       <c r="KQ81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="2" t="n">
         <v>17.4</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75567,8 +75810,11 @@
       <c r="KQ82" s="2" t="n">
         <v>189.8</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -76483,8 +76729,11 @@
       <c r="KQ83" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -77399,8 +77648,11 @@
       <c r="KQ84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="2" t="n">
         <v>23.8</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -78315,8 +78567,11 @@
       <c r="KQ85" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="2" t="n">
         <v>67.2</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>96.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -79231,8 +79486,11 @@
       <c r="KQ86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -80147,8 +80405,11 @@
       <c r="KQ87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -81063,8 +81324,11 @@
       <c r="KQ88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81979,8 +82243,11 @@
       <c r="KQ89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KS89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82895,8 +83162,11 @@
       <c r="KQ90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83811,8 +84081,11 @@
       <c r="KQ91" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84727,8 +85000,11 @@
       <c r="KQ92" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85643,8 +85919,11 @@
       <c r="KQ93" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="2" t="n">
         <v>74.3</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -86559,8 +86838,11 @@
       <c r="KQ94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -87475,8 +87757,11 @@
       <c r="KQ95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KS95" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -88391,8 +88676,11 @@
       <c r="KQ96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -89307,7 +89595,10 @@
       <c r="KQ97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KS97" t="n">
         <v>31</v>
       </c>
     </row>
@@ -90223,8 +90514,11 @@
       <c r="KQ98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -91139,8 +91433,11 @@
       <c r="KQ99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -92055,8 +92352,11 @@
       <c r="KQ100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92971,8 +93271,11 @@
       <c r="KQ101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93887,8 +94190,11 @@
       <c r="KQ102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KV102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JU99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="KB100" activeCellId="0" sqref="KB100"/>
@@ -1383,8 +1383,17 @@
       <c r="KU1" s="2" t="n">
         <v>10967</v>
       </c>
-      <c r="KV1" t="n">
+      <c r="KV1" s="2" t="n">
         <v>10978</v>
+      </c>
+      <c r="KW1" s="2" t="n">
+        <v>10986</v>
+      </c>
+      <c r="KX1" s="2" t="n">
+        <v>10992</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>10998</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2311,7 +2320,16 @@
       <c r="KU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KV2" t="n">
+      <c r="KV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3239,8 +3257,17 @@
       <c r="KU3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KV3" t="n">
+      <c r="KV3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KW3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4167,7 +4194,16 @@
       <c r="KU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV4" t="n">
+      <c r="KV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5095,7 +5131,16 @@
       <c r="KU5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV5" t="n">
+      <c r="KV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6023,8 +6068,17 @@
       <c r="KU6" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KV6" t="n">
+      <c r="KV6" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="KW6" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="KX6" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6951,8 +7005,17 @@
       <c r="KU7" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KV7" t="n">
+      <c r="KV7" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KW7" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="KX7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7879,8 +7942,17 @@
       <c r="KU8" s="2" t="n">
         <v>-23</v>
       </c>
-      <c r="KV8" t="n">
+      <c r="KV8" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KW8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KX8" s="2" t="n">
+        <v>-7</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8807,7 +8879,16 @@
       <c r="KU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KV9" t="n">
+      <c r="KV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9735,8 +9816,17 @@
       <c r="KU10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KV10" t="n">
+      <c r="KV10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KW10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KX10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10663,8 +10753,17 @@
       <c r="KU11" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="KV11" t="n">
+      <c r="KV11" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KW11" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="KX11" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11591,8 +11690,17 @@
       <c r="KU12" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KV12" t="n">
+      <c r="KV12" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="KW12" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KX12" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12519,7 +12627,16 @@
       <c r="KU13" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="KV13" t="n">
+      <c r="KV13" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="KW13" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="KX13" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="KY13" t="n">
         <v>356</v>
       </c>
     </row>
@@ -13447,8 +13564,17 @@
       <c r="KU14" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="KV14" t="n">
+      <c r="KV14" s="2" t="n">
         <v>2.12</v>
+      </c>
+      <c r="KW14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KX14" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14375,8 +14501,17 @@
       <c r="KU15" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KV15" t="n">
+      <c r="KV15" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="KW15" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="KX15" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15303,8 +15438,17 @@
       <c r="KU16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KV16" t="n">
+      <c r="KV16" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KW16" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KX16" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16231,8 +16375,17 @@
       <c r="KU17" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KV17" t="n">
+      <c r="KV17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KW17" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KX17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17159,8 +17312,17 @@
       <c r="KU18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV18" t="n">
+      <c r="KV18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KW18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KX18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18087,8 +18249,17 @@
       <c r="KU19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KV19" t="n">
+      <c r="KV19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KW19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19015,8 +19186,17 @@
       <c r="KU20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KV20" t="n">
+      <c r="KV20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KW20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KX20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19943,8 +20123,17 @@
       <c r="KU21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV21" t="n">
+      <c r="KV21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KW21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20871,8 +21060,17 @@
       <c r="KU22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KV22" t="n">
+      <c r="KV22" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KW22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KX22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KY22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21799,7 +21997,16 @@
       <c r="KU23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV23" t="n">
+      <c r="KV23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22727,8 +22934,17 @@
       <c r="KU24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KV24" t="n">
+      <c r="KV24" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW24" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KX24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23655,8 +23871,17 @@
       <c r="KU25" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KV25" t="n">
+      <c r="KV25" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW25" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="KX25" s="2" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24583,8 +24808,17 @@
       <c r="KU26" s="2" t="n">
         <v>32.11</v>
       </c>
-      <c r="KV26" t="n">
+      <c r="KV26" s="2" t="n">
         <v>22.25</v>
+      </c>
+      <c r="KW26" s="2" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="KX26" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>20.94</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25511,8 +25745,17 @@
       <c r="KU27" s="2" t="n">
         <v>11.56</v>
       </c>
-      <c r="KV27" t="n">
+      <c r="KV27" s="2" t="n">
         <v>8.9</v>
+      </c>
+      <c r="KW27" s="2" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="KX27" s="2" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>13.69</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26439,8 +26682,17 @@
       <c r="KU28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KV28" t="n">
+      <c r="KV28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW28" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KX28" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27367,8 +27619,17 @@
       <c r="KU29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KV29" t="n">
+      <c r="KV29" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW29" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KX29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28295,8 +28556,17 @@
       <c r="KU30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KV30" t="n">
+      <c r="KV30" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KW30" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KX30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29223,8 +29493,17 @@
       <c r="KU31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KV31" t="n">
+      <c r="KV31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KW31" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="KX31" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30151,8 +30430,17 @@
       <c r="KU32" s="2" t="n">
         <v>2.12</v>
       </c>
-      <c r="KV32" t="n">
+      <c r="KV32" s="2" t="n">
         <v>1.43</v>
+      </c>
+      <c r="KW32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KX32" s="2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31079,8 +31367,17 @@
       <c r="KU33" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="KV33" t="n">
+      <c r="KV33" s="2" t="n">
         <v>3.56</v>
+      </c>
+      <c r="KW33" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="KX33" s="2" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32007,8 +32304,17 @@
       <c r="KU34" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="KV34" t="n">
+      <c r="KV34" s="2" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="KW34" s="2" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="KX34" s="2" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32935,8 +33241,17 @@
       <c r="KU35" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KV35" t="n">
+      <c r="KV35" s="2" t="n">
         <v>28.1</v>
+      </c>
+      <c r="KW35" s="2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="KX35" s="2" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33863,8 +34178,17 @@
       <c r="KU36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KV36" t="n">
+      <c r="KV36" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KW36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="KX36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34791,8 +35115,17 @@
       <c r="KU37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KV37" t="n">
+      <c r="KV37" s="2" t="n">
         <v>89.3</v>
+      </c>
+      <c r="KW37" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="KX37" s="2" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="KY37" t="n">
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35719,8 +36052,17 @@
       <c r="KU38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KV38" t="n">
+      <c r="KV38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KW38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KX38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KY38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36647,8 +36989,17 @@
       <c r="KU39" s="2" t="n">
         <v>117.2</v>
       </c>
-      <c r="KV39" t="n">
+      <c r="KV39" s="2" t="n">
         <v>104.3</v>
+      </c>
+      <c r="KW39" s="2" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="KX39" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37575,7 +37926,16 @@
       <c r="KU40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV40" t="n">
+      <c r="KV40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KX40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38503,7 +38863,16 @@
       <c r="KU41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV41" t="n">
+      <c r="KV41" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KW41" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KX41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KY41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -39431,7 +39800,16 @@
       <c r="KU42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV42" t="n">
+      <c r="KV42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KX42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KY42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40359,7 +40737,16 @@
       <c r="KU43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV43" t="n">
+      <c r="KV43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KW43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41287,8 +41674,17 @@
       <c r="KU44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KV44" t="n">
+      <c r="KV44" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KW44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KX44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42215,8 +42611,17 @@
       <c r="KU45" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KV45" t="n">
+      <c r="KV45" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="KW45" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="KX45" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43143,8 +43548,17 @@
       <c r="KU46" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="KV46" t="n">
+      <c r="KV46" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="KW46" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="KX46" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44071,8 +44485,17 @@
       <c r="KU47" s="2" t="n">
         <v>67.8</v>
       </c>
-      <c r="KV47" t="n">
+      <c r="KV47" s="2" t="n">
         <v>72.5</v>
+      </c>
+      <c r="KW47" s="2" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="KX47" s="2" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44999,8 +45422,17 @@
       <c r="KU48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KV48" t="n">
+      <c r="KV48" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KW48" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KX48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45927,8 +46359,17 @@
       <c r="KU49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KV49" t="n">
+      <c r="KV49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KW49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -46855,8 +47296,17 @@
       <c r="KU50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KV50" t="n">
+      <c r="KV50" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KW50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KX50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47783,8 +48233,17 @@
       <c r="KU51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KV51" t="n">
+      <c r="KV51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW51" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KX51" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48711,8 +49170,17 @@
       <c r="KU52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KV52" t="n">
+      <c r="KV52" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KW52" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KX52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49639,8 +50107,17 @@
       <c r="KU53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KV53" t="n">
+      <c r="KV53" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KW53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="KX53" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50567,8 +51044,17 @@
       <c r="KU54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV54" t="n">
+      <c r="KV54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KW54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51495,8 +51981,17 @@
       <c r="KU55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV55" t="n">
+      <c r="KV55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KW55" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52423,8 +52918,17 @@
       <c r="KU56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KV56" t="n">
+      <c r="KV56" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="KW56" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="KX56" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53351,8 +53855,17 @@
       <c r="KU57" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KV57" t="n">
+      <c r="KV57" s="2" t="n">
         <v>175</v>
+      </c>
+      <c r="KW57" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="KX57" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54279,8 +54792,17 @@
       <c r="KU58" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KV58" t="n">
+      <c r="KV58" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="KW58" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="KX58" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55207,8 +55729,17 @@
       <c r="KU59" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="KV59" t="n">
+      <c r="KV59" s="2" t="n">
         <v>291</v>
+      </c>
+      <c r="KW59" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="KX59" s="2" t="n">
+        <v>315</v>
+      </c>
+      <c r="KY59" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56135,8 +56666,17 @@
       <c r="KU60" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="KV60" t="n">
+      <c r="KV60" s="2" t="n">
         <v>1.51</v>
+      </c>
+      <c r="KW60" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="KX60" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57063,8 +57603,17 @@
       <c r="KU61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KV61" t="n">
+      <c r="KV61" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KW61" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="KX61" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -57991,8 +58540,17 @@
       <c r="KU62" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KV62" t="n">
+      <c r="KV62" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KW62" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KX62" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -58919,8 +59477,17 @@
       <c r="KU63" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KV63" t="n">
+      <c r="KV63" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KW63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KX63" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -59847,8 +60414,17 @@
       <c r="KU64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KV64" t="n">
+      <c r="KV64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KW64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX64" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KY64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60775,8 +61351,17 @@
       <c r="KU65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV65" t="n">
+      <c r="KV65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KW65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KX65" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KY65" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61703,8 +62288,17 @@
       <c r="KU66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KV66" t="n">
+      <c r="KV66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KW66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KX66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62631,8 +63225,17 @@
       <c r="KU67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV67" t="n">
+      <c r="KV67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KX67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63559,8 +64162,17 @@
       <c r="KU68" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KV68" t="n">
+      <c r="KV68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW68" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KX68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64487,7 +65099,16 @@
       <c r="KU69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KV69" t="n">
+      <c r="KV69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KY69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -65415,8 +66036,17 @@
       <c r="KU70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KV70" t="n">
+      <c r="KV70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KW70" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KX70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66343,7 +66973,16 @@
       <c r="KU71" s="2" t="n">
         <v>46.4</v>
       </c>
-      <c r="KV71" t="n">
+      <c r="KV71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KW71" s="2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="KX71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KY71" t="n">
         <v>50</v>
       </c>
     </row>
@@ -67271,8 +67910,17 @@
       <c r="KU72" s="2" t="n">
         <v>29.54</v>
       </c>
-      <c r="KV72" t="n">
+      <c r="KV72" s="2" t="n">
         <v>29.1</v>
+      </c>
+      <c r="KW72" s="2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="KX72" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>62.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68199,8 +68847,17 @@
       <c r="KU73" s="2" t="n">
         <v>13.71</v>
       </c>
-      <c r="KV73" t="n">
+      <c r="KV73" s="2" t="n">
         <v>14.55</v>
+      </c>
+      <c r="KW73" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KX73" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>31.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69127,7 +69784,16 @@
       <c r="KU74" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KV74" t="n">
+      <c r="KV74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KW74" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KX74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KY74" t="n">
         <v>30</v>
       </c>
     </row>
@@ -70055,8 +70721,17 @@
       <c r="KU75" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV75" t="n">
+      <c r="KV75" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KW75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="KX75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KY75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -70983,8 +71658,17 @@
       <c r="KU76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KV76" t="n">
+      <c r="KV76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW76" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KX76" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KY76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -71911,8 +72595,17 @@
       <c r="KU77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KV77" t="n">
+      <c r="KV77" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KX77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -72839,8 +73532,17 @@
       <c r="KU78" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KV78" t="n">
+      <c r="KV78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KW78" s="2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="KX78" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -73767,8 +74469,17 @@
       <c r="KU79" s="2" t="n">
         <v>4.23</v>
       </c>
-      <c r="KV79" t="n">
+      <c r="KV79" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX79" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>7.17</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74695,8 +75406,17 @@
       <c r="KU80" s="2" t="n">
         <v>49.1</v>
       </c>
-      <c r="KV80" t="n">
+      <c r="KV80" s="2" t="n">
         <v>47.5</v>
+      </c>
+      <c r="KW80" s="2" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="KX80" s="2" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75623,8 +76343,17 @@
       <c r="KU81" s="2" t="n">
         <v>23.6</v>
       </c>
-      <c r="KV81" t="n">
+      <c r="KV81" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KW81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KX81" s="2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76551,8 +77280,17 @@
       <c r="KU82" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KV82" t="n">
+      <c r="KV82" s="2" t="n">
         <v>189.5</v>
+      </c>
+      <c r="KW82" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="KX82" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77479,8 +78217,17 @@
       <c r="KU83" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KV83" t="n">
+      <c r="KV83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KW83" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="KX83" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78407,8 +79154,17 @@
       <c r="KU84" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KV84" t="n">
+      <c r="KV84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="KW84" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="KX84" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="KY84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79335,8 +80091,17 @@
       <c r="KU85" s="2" t="n">
         <v>105.8</v>
       </c>
-      <c r="KV85" t="n">
+      <c r="KV85" s="2" t="n">
         <v>101.8</v>
+      </c>
+      <c r="KW85" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KX85" s="2" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>111.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80263,8 +81028,17 @@
       <c r="KU86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KV86" t="n">
+      <c r="KV86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KX86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81191,8 +81965,17 @@
       <c r="KU87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KV87" t="n">
+      <c r="KV87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KW87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KX87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KY87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82119,8 +82902,17 @@
       <c r="KU88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KV88" t="n">
+      <c r="KV88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KW88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83047,7 +83839,16 @@
       <c r="KU89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KV89" t="n">
+      <c r="KV89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KW89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX89" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KY89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -83975,8 +84776,17 @@
       <c r="KU90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KV90" t="n">
+      <c r="KV90" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="KW90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="KX90" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -84903,8 +85713,17 @@
       <c r="KU91" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="KV91" t="n">
+      <c r="KV91" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="KW91" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="KX91" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -85831,8 +86650,17 @@
       <c r="KU92" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="KV92" t="n">
+      <c r="KV92" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="KW92" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="KX92" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -86759,8 +87587,17 @@
       <c r="KU93" s="2" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="KV93" t="n">
+      <c r="KV93" s="2" t="n">
         <v>72.5</v>
+      </c>
+      <c r="KW93" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="KX93" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87687,8 +88524,17 @@
       <c r="KU94" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KV94" t="n">
+      <c r="KV94" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KW94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="KX94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KY94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88615,7 +89461,16 @@
       <c r="KU95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV95" t="n">
+      <c r="KV95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY95" t="n">
         <v>5</v>
       </c>
     </row>
@@ -89543,8 +90398,17 @@
       <c r="KU96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KV96" t="n">
+      <c r="KV96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KW96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KY96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90471,7 +91335,16 @@
       <c r="KU97" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KV97" t="n">
+      <c r="KV97" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KW97" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KX97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KY97" t="n">
         <v>30</v>
       </c>
     </row>
@@ -91399,8 +92272,17 @@
       <c r="KU98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KV98" t="n">
+      <c r="KV98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KW98" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KX98" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KY98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92327,8 +93209,17 @@
       <c r="KU99" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KV99" t="n">
+      <c r="KV99" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KW99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KX99" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93255,8 +94146,17 @@
       <c r="KU100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KV100" t="n">
+      <c r="KV100" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KW100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KX100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -94183,8 +95083,17 @@
       <c r="KU101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KV101" t="n">
+      <c r="KV101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KW101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KX101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -95111,8 +96020,17 @@
       <c r="KU102" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="KV102" t="n">
+      <c r="KV102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KW102" s="2" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="KX102" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
